--- a/Ottawa/Data/ottawa_data.xlsx
+++ b/Ottawa/Data/ottawa_data.xlsx
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -431,11 +431,12 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -825,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS425"/>
+  <dimension ref="A1:CS426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -953,8 +954,8 @@
           <t>ct_n1</t>
         </is>
       </c>
-      <c r="K1" s="50" t="n"/>
-      <c r="L1" s="51" t="n"/>
+      <c r="K1" s="51" t="n"/>
+      <c r="L1" s="52" t="n"/>
       <c r="M1" s="7" t="inlineStr">
         <is>
           <t>ct_n1_avg</t>
@@ -970,8 +971,8 @@
           <t>copies_n1</t>
         </is>
       </c>
-      <c r="P1" s="50" t="n"/>
-      <c r="Q1" s="51" t="n"/>
+      <c r="P1" s="51" t="n"/>
+      <c r="Q1" s="52" t="n"/>
       <c r="R1" s="7" t="inlineStr">
         <is>
           <t>copies_n1_avg</t>
@@ -997,8 +998,8 @@
           <t>ct_n2</t>
         </is>
       </c>
-      <c r="W1" s="50" t="n"/>
-      <c r="X1" s="51" t="n"/>
+      <c r="W1" s="51" t="n"/>
+      <c r="X1" s="52" t="n"/>
       <c r="Y1" s="8" t="inlineStr">
         <is>
           <t>ct_n2_avg</t>
@@ -1014,8 +1015,8 @@
           <t>copies_n2</t>
         </is>
       </c>
-      <c r="AB1" s="50" t="n"/>
-      <c r="AC1" s="51" t="n"/>
+      <c r="AB1" s="51" t="n"/>
+      <c r="AC1" s="52" t="n"/>
       <c r="AD1" s="8" t="inlineStr">
         <is>
           <t>copies_n2_avg</t>
@@ -1041,8 +1042,8 @@
           <t>ct_pep</t>
         </is>
       </c>
-      <c r="AI1" s="50" t="n"/>
-      <c r="AJ1" s="51" t="n"/>
+      <c r="AI1" s="51" t="n"/>
+      <c r="AJ1" s="52" t="n"/>
       <c r="AK1" s="12" t="inlineStr">
         <is>
           <t>ct_pep_avg</t>
@@ -1058,8 +1059,8 @@
           <t>copies_pep</t>
         </is>
       </c>
-      <c r="AN1" s="50" t="n"/>
-      <c r="AO1" s="51" t="n"/>
+      <c r="AN1" s="51" t="n"/>
+      <c r="AO1" s="52" t="n"/>
       <c r="AP1" s="10" t="inlineStr">
         <is>
           <t>copies_pep_avg</t>
@@ -1110,20 +1111,20 @@
           <t>extracted_mass_g</t>
         </is>
       </c>
-      <c r="AZ1" s="52" t="inlineStr">
+      <c r="AZ1" s="53" t="inlineStr">
         <is>
           <t>n1_copies_per_extracted_mass_cp/g</t>
         </is>
       </c>
-      <c r="BA1" s="50" t="n"/>
-      <c r="BB1" s="51" t="n"/>
-      <c r="BC1" s="52" t="inlineStr">
+      <c r="BA1" s="51" t="n"/>
+      <c r="BB1" s="52" t="n"/>
+      <c r="BC1" s="53" t="inlineStr">
         <is>
           <t>n2_copies_per_extracted_mass_cp/g</t>
         </is>
       </c>
-      <c r="BD1" s="50" t="n"/>
-      <c r="BE1" s="51" t="n"/>
+      <c r="BD1" s="51" t="n"/>
+      <c r="BE1" s="52" t="n"/>
       <c r="BF1" s="13" t="inlineStr">
         <is>
           <t>viral_copies_per_extracted_mass_cp/g_avg</t>
@@ -1144,8 +1145,8 @@
           <t>n1_copies_per_copies_pep</t>
         </is>
       </c>
-      <c r="BJ1" s="50" t="n"/>
-      <c r="BK1" s="51" t="n"/>
+      <c r="BJ1" s="51" t="n"/>
+      <c r="BK1" s="52" t="n"/>
       <c r="BL1" s="17" t="inlineStr">
         <is>
           <t>n1_copies_per_copies_pep_avg</t>
@@ -1161,8 +1162,8 @@
           <t>n2_copies_per_copies_pep</t>
         </is>
       </c>
-      <c r="BO1" s="50" t="n"/>
-      <c r="BP1" s="51" t="n"/>
+      <c r="BO1" s="51" t="n"/>
+      <c r="BP1" s="52" t="n"/>
       <c r="BQ1" s="19" t="inlineStr">
         <is>
           <t>n2_copies_per_copies_pep_avg</t>
@@ -1193,15 +1194,15 @@
           <t>n1_copies_per_liter</t>
         </is>
       </c>
-      <c r="BW1" s="50" t="n"/>
-      <c r="BX1" s="51" t="n"/>
+      <c r="BW1" s="51" t="n"/>
+      <c r="BX1" s="52" t="n"/>
       <c r="BY1" s="23" t="inlineStr">
         <is>
           <t>n2_copies_per_liter</t>
         </is>
       </c>
-      <c r="BZ1" s="50" t="n"/>
-      <c r="CA1" s="51" t="n"/>
+      <c r="BZ1" s="51" t="n"/>
+      <c r="CA1" s="52" t="n"/>
       <c r="CB1" s="22" t="inlineStr">
         <is>
           <t>viral_copies_per_liter_avg</t>
@@ -30830,7 +30831,7 @@
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1" s="38">
-      <c r="A422" s="0" t="inlineStr">
+      <c r="A422" s="48" t="inlineStr">
         <is>
           <t>2021-10-01</t>
         </is>
@@ -31464,7 +31465,7 @@
         <f>STDEV(BI423:BK423,BN423:BP423)</f>
         <v>2.292586827973771e-05</v>
       </c>
-      <c r="BU423" s="35" t="str">
+      <c r="BU423" s="37" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS423)-2,COLUMN(BS423))&amp;":"&amp;ADDRESS(ROW(BS423)+2,COLUMN(BS423))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS423)-2,COLUMN(BS423))&amp;":"&amp;ADDRESS(ROW(BS423)+2,COLUMN(BS423)))),""),"")</f>
         <v/>
       </c>
@@ -31894,352 +31895,695 @@
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" s="38">
-      <c r="A425" s="53" t="n">
+      <c r="A425" s="50" t="n">
         <v>44473</v>
       </c>
-      <c r="B425" s="53" t="n">
+      <c r="B425" s="50" t="n">
         <v>44474</v>
       </c>
-      <c r="C425" t="inlineStr">
+      <c r="C425" s="48" t="inlineStr">
         <is>
           <t>o.10.04.21</t>
         </is>
       </c>
-      <c r="D425" s="54" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E425" s="54" t="str">
-        <f>"PS"</f>
-        <v>PS</v>
-      </c>
-      <c r="F425">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G425">
+      <c r="D425" s="31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E425" s="31" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F425" s="48">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G425" s="48">
         <f>IF(OR(COUNT(J425:L425)&lt;=1,COUNT(V425:X425)&lt;=1), 0, IF(AND(COUNTIFS(O425:Q425,"&gt;=4")&gt;=2, COUNTIFS(AA425:AC425,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O425:Q425,"&lt;4")&gt;=2, COUNTIFS(AA425:AC425,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>1</v>
       </c>
-      <c r="H425" s="55">
-        <f>-3.300770759822662</f>
-        <v>-3.300770759822662</v>
-      </c>
-      <c r="I425" s="55">
+      <c r="H425" s="32">
+        <f>-3.30077075982266</f>
+        <v>-3.30077075982266</v>
+      </c>
+      <c r="I425" s="32">
         <f>37.4392568712568</f>
         <v>37.4392568712568</v>
       </c>
-      <c r="J425" s="55" t="n">
+      <c r="J425" s="32" t="n">
         <v>36.2159199247879</v>
       </c>
-      <c r="K425" s="55" t="n">
+      <c r="K425" s="32" t="n">
         <v>35.8112474846072</v>
       </c>
-      <c r="L425" s="55" t="n">
+      <c r="L425" s="32" t="n">
         <v>36.4785621464525</v>
       </c>
-      <c r="M425" s="55">
+      <c r="M425" s="32">
         <f>AVERAGE(J425:L425)</f>
         <v>36.16857651861587</v>
       </c>
-      <c r="N425" s="55">
+      <c r="N425" s="32">
         <f>STDEV(J425:L425)</f>
         <v>0.3361670166143654</v>
       </c>
-      <c r="O425" s="55">
+      <c r="O425" s="32">
         <f>IF(ISNUMBER(J425),10^((J425-I425)/H425),IF(J425="&lt;ND&gt;",0,""))</f>
-        <v>2.347586491820978</v>
-      </c>
-      <c r="P425" s="55">
+        <v>2.347586491820979</v>
+      </c>
+      <c r="P425" s="32">
         <f>IF(ISNUMBER(K425),10^((K425-I425)/H425),IF(K425="&lt;ND&gt;",0,""))</f>
-        <v>3.113300054925869</v>
-      </c>
-      <c r="Q425" s="55">
+        <v>3.113300054925872</v>
+      </c>
+      <c r="Q425" s="32">
         <f>IF(ISNUMBER(L425),10^((L425-I425)/H425),IF(L425="&lt;ND&gt;",0,""))</f>
-        <v>1.954571826602978</v>
-      </c>
-      <c r="R425" s="55">
+        <v>1.954571826602979</v>
+      </c>
+      <c r="R425" s="32">
         <f>AVERAGE(O425:Q425)</f>
-        <v>2.471819457783275</v>
-      </c>
-      <c r="S425" s="55">
+        <v>2.471819457783277</v>
+      </c>
+      <c r="S425" s="32">
         <f>STDEV(O425:Q425)</f>
-        <v>0.5892691652818078</v>
-      </c>
-      <c r="T425" s="55">
+        <v>0.5892691652818088</v>
+      </c>
+      <c r="T425" s="32">
         <f>-3.38366405327774</f>
         <v>-3.38366405327774</v>
       </c>
-      <c r="U425" s="55">
-        <f>36.828952650170926</f>
-        <v>36.82895265017093</v>
-      </c>
-      <c r="V425" s="55" t="n">
+      <c r="U425" s="32">
+        <f>36.8289526501709</f>
+        <v>36.8289526501709</v>
+      </c>
+      <c r="V425" s="32" t="n">
         <v>35.3724428986171</v>
       </c>
-      <c r="W425" s="55" t="n">
+      <c r="W425" s="32" t="n">
         <v>35.4202848994308</v>
       </c>
-      <c r="X425" s="55" t="inlineStr">
+      <c r="X425" s="32" t="inlineStr">
         <is>
           <t>[36.8717339537896]</t>
         </is>
       </c>
-      <c r="Y425" s="55">
+      <c r="Y425" s="32">
         <f>AVERAGE(V425:X425)</f>
         <v>35.39636389902395</v>
       </c>
-      <c r="Z425" s="55">
+      <c r="Z425" s="32">
         <f>STDEV(V425:X425)</f>
         <v>0.0338294032008961</v>
       </c>
-      <c r="AA425" s="55">
+      <c r="AA425" s="32">
         <f>IF(ISNUMBER(V425),10^((V425-U425)/T425),IF(V425="&lt;ND&gt;",0,""))</f>
-        <v>2.694346313744668</v>
-      </c>
-      <c r="AB425" s="55">
+        <v>2.694346313744616</v>
+      </c>
+      <c r="AB425" s="32">
         <f>IF(ISNUMBER(W425),10^((W425-U425)/T425),IF(W425="&lt;ND&gt;",0,""))</f>
-        <v>2.608040346127612</v>
-      </c>
-      <c r="AC425" s="55" t="str">
+        <v>2.608040346127562</v>
+      </c>
+      <c r="AC425" s="32" t="str">
         <f>IF(ISNUMBER(X425),10^((X425-U425)/T425),IF(X425="&lt;ND&gt;",0,""))</f>
         <v/>
       </c>
-      <c r="AD425" s="55">
+      <c r="AD425" s="32">
         <f>AVERAGE(AA425:AC425)</f>
-        <v>2.65119332993614</v>
-      </c>
-      <c r="AE425" s="55">
+        <v>2.651193329936089</v>
+      </c>
+      <c r="AE425" s="32">
         <f>STDEV(AA425:AC425)</f>
-        <v>0.06102753495888664</v>
-      </c>
-      <c r="AF425" s="55">
-        <f>-2.9515331123813744</f>
-        <v>-2.951533112381374</v>
-      </c>
-      <c r="AG425" s="55">
-        <f>37.646384679127614</f>
-        <v>37.64638467912761</v>
-      </c>
-      <c r="AH425" s="56" t="n">
+        <v>0.06102753495888538</v>
+      </c>
+      <c r="AF425" s="32">
+        <f>-2.95153311238137</f>
+        <v>-2.95153311238137</v>
+      </c>
+      <c r="AG425" s="32">
+        <f>37.6463846791276</f>
+        <v>37.6463846791276</v>
+      </c>
+      <c r="AH425" s="33" t="n">
         <v>27.07</v>
       </c>
-      <c r="AI425" s="56" t="n">
+      <c r="AI425" s="33" t="n">
         <v>27.09</v>
       </c>
-      <c r="AJ425" s="56" t="n">
+      <c r="AJ425" s="33" t="n">
         <v>27.09</v>
       </c>
-      <c r="AK425" s="55">
+      <c r="AK425" s="32">
         <f>AVERAGE(AH425:AJ425)</f>
         <v>27.08333333333333</v>
       </c>
-      <c r="AL425" s="55">
+      <c r="AL425" s="32">
         <f>STDEV(AH425:AJ425)</f>
         <v>0.01154700538379227</v>
       </c>
-      <c r="AM425" s="55">
+      <c r="AM425" s="32">
         <f>IF(ISNUMBER(AH425),10^((AH425-AG425)/AF425),IF(AH425="&lt;ND&gt;",0,""))</f>
-        <v>3831.359288347994</v>
-      </c>
-      <c r="AN425" s="55">
+        <v>3831.359288348001</v>
+      </c>
+      <c r="AN425" s="32">
         <f>IF(ISNUMBER(AI425),10^((AI425-AG425)/AF425),IF(AI425="&lt;ND&gt;",0,""))</f>
-        <v>3772.043918839626</v>
-      </c>
-      <c r="AO425" s="55">
+        <v>3772.043918839634</v>
+      </c>
+      <c r="AO425" s="32">
         <f>IF(ISNUMBER(AJ425),10^((AJ425-AG425)/AF425),IF(AJ425="&lt;ND&gt;",0,""))</f>
-        <v>3772.043918839626</v>
-      </c>
-      <c r="AP425" s="55">
+        <v>3772.043918839634</v>
+      </c>
+      <c r="AP425" s="32">
         <f>AVERAGE(AM425:AO425)*10</f>
-        <v>37918.15708675748</v>
-      </c>
-      <c r="AQ425" s="55">
+        <v>37918.15708675756</v>
+      </c>
+      <c r="AQ425" s="32">
         <f>STDEV(AM425:AO425)</f>
         <v>34.24574455273832</v>
       </c>
-      <c r="AR425" s="55">
-        <f>IF(E425="PS",40,500.0)</f>
+      <c r="AR425" s="32">
+        <f>IF(E425="PS",40,500)</f>
         <v>40</v>
       </c>
-      <c r="AS425" s="55" t="n">
+      <c r="AS425" s="32" t="n">
         <v>21.8187</v>
       </c>
-      <c r="AT425" s="55" t="n">
+      <c r="AT425" s="32" t="n">
         <v>28.3591</v>
       </c>
-      <c r="AU425" s="56">
+      <c r="AU425" s="33">
         <f>IF(AND(AT425&lt;&gt;"",AS425&lt;&gt;""),AT425-AS425,"")</f>
         <v>6.540400000000002</v>
       </c>
-      <c r="AV425" s="55" t="n">
+      <c r="AV425" s="32" t="n">
         <v>500</v>
       </c>
-      <c r="AW425" s="55" t="n">
+      <c r="AW425" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="AX425" s="55">
+      <c r="AX425" s="32">
         <f>IF(ISERROR(DATEVALUE(A425)),3,IF(DATEVALUE(A425)&gt;=DATE(2021,6,8),3,1.5))</f>
         <v>3</v>
       </c>
-      <c r="AY425" s="55" t="n">
+      <c r="AY425" s="32" t="n">
         <v>0.259</v>
       </c>
-      <c r="AZ425" s="56">
+      <c r="AZ425" s="33">
         <f>IF(O425&lt;&gt;"",(O425/AX425*100)/AY425,"")</f>
-        <v>302.1346836320434</v>
-      </c>
-      <c r="BA425" s="56">
+        <v>302.1346836320436</v>
+      </c>
+      <c r="BA425" s="33">
         <f>IF(P425&lt;&gt;"",(P425/AX425*100)/AY425,"")</f>
-        <v>400.6821177510771</v>
-      </c>
-      <c r="BB425" s="56">
+        <v>400.6821177510775</v>
+      </c>
+      <c r="BB425" s="33">
         <f>IF(Q425&lt;&gt;"",(Q425/AX425*100)/AY425,"")</f>
-        <v>251.5536456374489</v>
-      </c>
-      <c r="BC425" s="56">
+        <v>251.553645637449</v>
+      </c>
+      <c r="BC425" s="33">
         <f>IF(AA425&lt;&gt;"",(AA425/AX425*100)/AY425,"")</f>
-        <v>346.7627173416561</v>
-      </c>
-      <c r="BD425" s="56">
+        <v>346.7627173416494</v>
+      </c>
+      <c r="BD425" s="33">
         <f>IF(AB425&lt;&gt;"",(AB425/AX425*100)/AY425,"")</f>
-        <v>335.6551282017519</v>
-      </c>
-      <c r="BE425" s="56" t="str">
+        <v>335.6551282017454</v>
+      </c>
+      <c r="BE425" s="33" t="str">
         <f>IF(AC425&lt;&gt;"",(AC425/AX425*100)/AY425,"")</f>
         <v/>
       </c>
-      <c r="BF425" s="55">
+      <c r="BF425" s="32">
         <f>AVERAGE(AZ425:BE425)</f>
-        <v>327.3576585127955</v>
-      </c>
-      <c r="BG425" s="55">
+        <v>327.357658512793</v>
+      </c>
+      <c r="BG425" s="32">
         <f>STDEV(AZ425:BE425)</f>
-        <v>55.23659897164622</v>
-      </c>
-      <c r="BH425" s="55" t="str">
+        <v>55.23659897164546</v>
+      </c>
+      <c r="BH425" s="32" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF425)-2,COLUMN(BF425))&amp;":"&amp;ADDRESS(ROW(BF425)+2,COLUMN(BF425))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF425)-2,COLUMN(BF425))&amp;":"&amp;ADDRESS(ROW(BF425)+2,COLUMN(BF425)))),""),"")</f>
         <v/>
       </c>
-      <c r="BI425" s="57">
+      <c r="BI425" s="35">
         <f>IF(O425&lt;&gt;"",O425/(AP425),"")</f>
-        <v>6.191193539416102e-05</v>
-      </c>
-      <c r="BJ425" s="57">
+        <v>6.191193539416092e-05</v>
+      </c>
+      <c r="BJ425" s="35">
         <f>IF(P425&lt;&gt;"",P425/(AP425),"")</f>
-        <v>8.210578504125553e-05</v>
-      </c>
-      <c r="BK425" s="57">
+        <v>8.210578504125541e-05</v>
+      </c>
+      <c r="BK425" s="35">
         <f>IF(Q425&lt;&gt;"",Q425/(AP425),"")</f>
-        <v>5.154712087222172e-05</v>
-      </c>
-      <c r="BL425" s="57">
+        <v>5.154712087222161e-05</v>
+      </c>
+      <c r="BL425" s="35">
         <f>AVERAGE(BI425:BK425)</f>
-        <v>6.518828043587942e-05</v>
-      </c>
-      <c r="BM425" s="57">
+        <v>6.518828043587931e-05</v>
+      </c>
+      <c r="BM425" s="35">
         <f>STDEV(BI425:BK425)</f>
-        <v>1.554055393392534e-05</v>
-      </c>
-      <c r="BN425" s="57">
+        <v>1.554055393392533e-05</v>
+      </c>
+      <c r="BN425" s="35">
         <f>IF(AA425&lt;&gt;"",AA425/(AP425),"")</f>
-        <v>7.105688991107746e-05</v>
-      </c>
-      <c r="BO425" s="57">
+        <v>7.105688991107593e-05</v>
+      </c>
+      <c r="BO425" s="35">
         <f>IF(AB425&lt;&gt;"",AB425/(AP425),"")</f>
-        <v>6.878077803624173e-05</v>
-      </c>
-      <c r="BP425" s="57" t="str">
+        <v>6.878077803624024e-05</v>
+      </c>
+      <c r="BP425" s="35" t="str">
         <f>IF(AC425&lt;&gt;"",AC425/(AP425),"")</f>
         <v/>
       </c>
-      <c r="BQ425" s="57">
+      <c r="BQ425" s="35">
         <f>AVERAGE(BN425:BP425)</f>
-        <v>6.99188339736596e-05</v>
-      </c>
-      <c r="BR425" s="57">
+        <v>6.991883397365809e-05</v>
+      </c>
+      <c r="BR425" s="35">
         <f>STDEV(BN425:BP425)</f>
-        <v>1.609454141435573e-06</v>
-      </c>
-      <c r="BS425" s="57">
+        <v>1.609454141435545e-06</v>
+      </c>
+      <c r="BS425" s="35">
         <f>AVERAGE(BI425:BK425,BN425:BP425)</f>
-        <v>6.708050185099148e-05</v>
-      </c>
-      <c r="BT425" s="57">
+        <v>6.708050185099082e-05</v>
+      </c>
+      <c r="BT425" s="35">
         <f>STDEV(BI425:BK425,BN425:BP425)</f>
-        <v>1.1318808902756e-05</v>
-      </c>
-      <c r="BU425" s="57" t="str">
+        <v>1.131880890275582e-05</v>
+      </c>
+      <c r="BU425" s="35" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS425)-2,COLUMN(BS425))&amp;":"&amp;ADDRESS(ROW(BS425)+2,COLUMN(BS425))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS425)-2,COLUMN(BS425))&amp;":"&amp;ADDRESS(ROW(BS425)+2,COLUMN(BS425)))),""),"")</f>
         <v/>
       </c>
-      <c r="BV425" s="55">
+      <c r="BV425" s="32">
         <f>IF(ISNUMBER(AZ425),AZ425*AU425/40*AW425/AR425*1000,"")</f>
-        <v>49402.04212067543</v>
-      </c>
-      <c r="BW425" s="55">
+        <v>49402.04212067546</v>
+      </c>
+      <c r="BW425" s="32">
         <f>IF(ISNUMBER(BA425),BA425*AU425/40*AW425/AR425*1000,"")</f>
-        <v>65515.53307347863</v>
-      </c>
-      <c r="BX425" s="55">
+        <v>65515.53307347869</v>
+      </c>
+      <c r="BX425" s="32">
         <f>IF(ISNUMBER(BB425),BB425*AU425/40*AW425/AR425*1000,"")</f>
-        <v>41131.53659817928</v>
-      </c>
-      <c r="BY425" s="55">
+        <v>41131.5365981793</v>
+      </c>
+      <c r="BY425" s="32">
         <f>IF(ISNUMBER(BC425),BC425*AU425/40*AW425/AR425*1000,"")</f>
-        <v>56699.1719125342</v>
-      </c>
-      <c r="BZ425" s="55">
+        <v>56699.17191253311</v>
+      </c>
+      <c r="BZ425" s="32">
         <f>IF(ISNUMBER(BD425),BD425*AU425/40*AW425/AR425*1000,"")</f>
-        <v>54882.97001226847</v>
-      </c>
-      <c r="CA425" s="55" t="str">
+        <v>54882.97001226741</v>
+      </c>
+      <c r="CA425" s="32" t="str">
         <f>IF(ISNUMBER(BE425),BE425*AU425/40*AW425/AR425*1000,"")</f>
         <v/>
       </c>
-      <c r="CB425" s="55">
+      <c r="CB425" s="32">
         <f>AVERAGE(BV425:CA425)</f>
-        <v>53526.2507434272</v>
-      </c>
-      <c r="CC425" s="55">
+        <v>53526.2507434268</v>
+      </c>
+      <c r="CC425" s="32">
         <f>STDEV(BV425:CA425)</f>
-        <v>9031.736297853877</v>
-      </c>
-      <c r="CD425" s="55" t="str">
+        <v>9031.736297853749</v>
+      </c>
+      <c r="CD425" s="32" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB425)-2,COLUMN(CB425))&amp;":"&amp;ADDRESS(ROW(CB425)+2,COLUMN(CB425))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB425)-2,COLUMN(CB425))&amp;":"&amp;ADDRESS(ROW(CB425)+2,COLUMN(CB425)))),""),"")</f>
         <v/>
       </c>
-      <c r="CE425" s="55">
+      <c r="CE425" s="32">
         <f>AK425</f>
         <v>27.08333333333333</v>
       </c>
-      <c r="CF425" s="55">
+      <c r="CF425" s="32">
         <f>AVERAGE(28.99,29.07)</f>
         <v>29.03</v>
       </c>
-      <c r="CG425" s="58">
+      <c r="CG425" s="49">
         <f>AVERAGE(24.63,24.63)</f>
         <v>24.63</v>
       </c>
-      <c r="CH425" s="55">
+      <c r="CH425" s="32">
         <f>IF(AND(ISNUMBER(CE425),ISNUMBER(CG425)),CE425-CG425,"")</f>
         <v>2.453333333333333</v>
       </c>
-      <c r="CI425" s="55">
+      <c r="CI425" s="32">
         <f>IF(AND(ISNUMBER(CF425),ISNUMBER(CG425)),CF425-CG425,"")</f>
         <v>4.400000000000002</v>
       </c>
-      <c r="CJ425" s="55">
+      <c r="CJ425" s="32">
         <f>AP425/1.5*100/AY425</f>
-        <v>9760143.394274769</v>
-      </c>
-      <c r="CK425" s="55">
+        <v>9760143.394274792</v>
+      </c>
+      <c r="CK425" s="32">
         <f>CJ425*AU425/40*AW425/AR425*1000</f>
-        <v>1595881046.397868</v>
-      </c>
-    </row>
-    <row r="426" ht="15.75" customHeight="1" s="38"/>
+        <v>1595881046.397872</v>
+      </c>
+    </row>
+    <row r="426" ht="15.75" customHeight="1" s="38">
+      <c r="A426" s="54" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B426" s="54" t="n">
+        <v>44475</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>o.10.05.21</t>
+        </is>
+      </c>
+      <c r="D426" s="55" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E426" s="55" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F426">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <f>IF(OR(COUNT(J426:L426)&lt;=1,COUNT(V426:X426)&lt;=1), 0, IF(AND(COUNTIFS(O426:Q426,"&gt;=4")&gt;=2, COUNTIFS(AA426:AC426,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O426:Q426,"&lt;4")&gt;=2, COUNTIFS(AA426:AC426,"&lt;6")&gt;=2), 1, 1)))</f>
+        <v>1</v>
+      </c>
+      <c r="H426" s="56">
+        <f>-3.3014882071394873</f>
+        <v>-3.301488207139487</v>
+      </c>
+      <c r="I426" s="56">
+        <f>37.802158746388024</f>
+        <v>37.80215874638802</v>
+      </c>
+      <c r="J426" s="56" t="n">
+        <v>35.0000659006434</v>
+      </c>
+      <c r="K426" s="56" t="n">
+        <v>34.5698217087391</v>
+      </c>
+      <c r="L426" s="56" t="n">
+        <v>34.9962119467396</v>
+      </c>
+      <c r="M426" s="56">
+        <f>AVERAGE(J426:L426)</f>
+        <v>34.85536651870737</v>
+      </c>
+      <c r="N426" s="56">
+        <f>STDEV(J426:L426)</f>
+        <v>0.2472965671315182</v>
+      </c>
+      <c r="O426" s="56">
+        <f>IF(ISNUMBER(J426),10^((J426-I426)/H426),IF(J426="&lt;ND&gt;",0,""))</f>
+        <v>7.058887947577123</v>
+      </c>
+      <c r="P426" s="56">
+        <f>IF(ISNUMBER(K426),10^((K426-I426)/H426),IF(K426="&lt;ND&gt;",0,""))</f>
+        <v>9.5291583961702</v>
+      </c>
+      <c r="Q426" s="56">
+        <f>IF(ISNUMBER(L426),10^((L426-I426)/H426),IF(L426="&lt;ND&gt;",0,""))</f>
+        <v>7.077887026295481</v>
+      </c>
+      <c r="R426" s="56">
+        <f>AVERAGE(O426:Q426)</f>
+        <v>7.888644456680935</v>
+      </c>
+      <c r="S426" s="56">
+        <f>STDEV(O426:Q426)</f>
+        <v>1.420758505338602</v>
+      </c>
+      <c r="T426" s="56">
+        <f>-3.224496517881488</f>
+        <v>-3.224496517881488</v>
+      </c>
+      <c r="U426" s="56">
+        <f>37.86730864337595</f>
+        <v>37.86730864337595</v>
+      </c>
+      <c r="V426" s="56" t="n">
+        <v>35.3715161840431</v>
+      </c>
+      <c r="W426" s="56" t="n">
+        <v>35.7027549894417</v>
+      </c>
+      <c r="X426" s="56" t="n">
+        <v>34.8337680802843</v>
+      </c>
+      <c r="Y426" s="56">
+        <f>AVERAGE(V426:X426)</f>
+        <v>35.30267975125637</v>
+      </c>
+      <c r="Z426" s="56">
+        <f>STDEV(V426:X426)</f>
+        <v>0.4385640237534705</v>
+      </c>
+      <c r="AA426" s="56">
+        <f>IF(ISNUMBER(V426),10^((V426-U426)/T426),IF(V426="&lt;ND&gt;",0,""))</f>
+        <v>5.943058044602246</v>
+      </c>
+      <c r="AB426" s="56">
+        <f>IF(ISNUMBER(W426),10^((W426-U426)/T426),IF(W426="&lt;ND&gt;",0,""))</f>
+        <v>4.69120301188041</v>
+      </c>
+      <c r="AC426" s="56">
+        <f>IF(ISNUMBER(X426),10^((X426-U426)/T426),IF(X426="&lt;ND&gt;",0,""))</f>
+        <v>8.725284684709445</v>
+      </c>
+      <c r="AD426" s="56">
+        <f>AVERAGE(AA426:AC426)</f>
+        <v>6.4531819137307</v>
+      </c>
+      <c r="AE426" s="56">
+        <f>STDEV(AA426:AC426)</f>
+        <v>2.064854354949694</v>
+      </c>
+      <c r="AF426" s="56">
+        <f>-2.944993555983563</f>
+        <v>-2.944993555983563</v>
+      </c>
+      <c r="AG426" s="56">
+        <f>37.680586933779374</f>
+        <v>37.68058693377937</v>
+      </c>
+      <c r="AH426" s="57" t="n">
+        <v>27.3577880882366</v>
+      </c>
+      <c r="AI426" s="57" t="n">
+        <v>27.1486325339286</v>
+      </c>
+      <c r="AJ426" s="57" t="n">
+        <v>27.1892159173814</v>
+      </c>
+      <c r="AK426" s="56">
+        <f>AVERAGE(AH426:AJ426)</f>
+        <v>27.23187884651553</v>
+      </c>
+      <c r="AL426" s="56">
+        <f>STDEV(AH426:AJ426)</f>
+        <v>0.1109126035047407</v>
+      </c>
+      <c r="AM426" s="56">
+        <f>IF(ISNUMBER(AH426),10^((AH426-AG426)/AF426),IF(AH426="&lt;ND&gt;",0,""))</f>
+        <v>3200.387194165527</v>
+      </c>
+      <c r="AN426" s="56">
+        <f>IF(ISNUMBER(AI426),10^((AI426-AG426)/AF426),IF(AI426="&lt;ND&gt;",0,""))</f>
+        <v>3768.974864433311</v>
+      </c>
+      <c r="AO426" s="56">
+        <f>IF(ISNUMBER(AJ426),10^((AJ426-AG426)/AF426),IF(AJ426="&lt;ND&gt;",0,""))</f>
+        <v>3651.260132302967</v>
+      </c>
+      <c r="AP426" s="56">
+        <f>AVERAGE(AM426:AO426)*10</f>
+        <v>35402.07396967268</v>
+      </c>
+      <c r="AQ426" s="56">
+        <f>STDEV(AM426:AO426)</f>
+        <v>300.1208376875758</v>
+      </c>
+      <c r="AR426" s="56">
+        <f>IF(E426="PS",40,500.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AS426" s="56" t="n">
+        <v>21.5918</v>
+      </c>
+      <c r="AT426" s="56" t="n">
+        <v>28.0983</v>
+      </c>
+      <c r="AU426" s="57">
+        <f>IF(AND(AT426&lt;&gt;"",AS426&lt;&gt;""),AT426-AS426,"")</f>
+        <v>6.506499999999999</v>
+      </c>
+      <c r="AV426" s="56" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW426" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX426" s="56">
+        <f>IF(ISERROR(DATEVALUE(A426)),3,IF(DATEVALUE(A426)&gt;=DATE(2021,6,8),3,1.5))</f>
+        <v>3</v>
+      </c>
+      <c r="AY426" s="56" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="AZ426" s="57">
+        <f>IF(O426&lt;&gt;"",(O426/AX426*100)/AY426,"")</f>
+        <v>918.4085281781322</v>
+      </c>
+      <c r="BA426" s="57">
+        <f>IF(P426&lt;&gt;"",(P426/AX426*100)/AY426,"")</f>
+        <v>1239.807233433542</v>
+      </c>
+      <c r="BB426" s="57">
+        <f>IF(Q426&lt;&gt;"",(Q426/AX426*100)/AY426,"")</f>
+        <v>920.8804353754203</v>
+      </c>
+      <c r="BC426" s="57">
+        <f>IF(AA426&lt;&gt;"",(AA426/AX426*100)/AY426,"")</f>
+        <v>773.2315957067717</v>
+      </c>
+      <c r="BD426" s="57">
+        <f>IF(AB426&lt;&gt;"",(AB426/AX426*100)/AY426,"")</f>
+        <v>610.3568841894887</v>
+      </c>
+      <c r="BE426" s="57">
+        <f>IF(AC426&lt;&gt;"",(AC426/AX426*100)/AY426,"")</f>
+        <v>1135.217887680126</v>
+      </c>
+      <c r="BF426" s="56">
+        <f>AVERAGE(AZ426:BE426)</f>
+        <v>932.98376076058</v>
+      </c>
+      <c r="BG426" s="56">
+        <f>STDEV(AZ426:BE426)</f>
+        <v>230.2203592602598</v>
+      </c>
+      <c r="BH426" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF426)-2,COLUMN(BF426))&amp;":"&amp;ADDRESS(ROW(BF426)+2,COLUMN(BF426))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF426)-2,COLUMN(BF426))&amp;":"&amp;ADDRESS(ROW(BF426)+2,COLUMN(BF426)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BI426" s="58">
+        <f>IF(O426&lt;&gt;"",O426/(AP426),"")</f>
+        <v>0.0001993919326202229</v>
+      </c>
+      <c r="BJ426" s="58">
+        <f>IF(P426&lt;&gt;"",P426/(AP426),"")</f>
+        <v>0.0002691694956722984</v>
+      </c>
+      <c r="BK426" s="58">
+        <f>IF(Q426&lt;&gt;"",Q426/(AP426),"")</f>
+        <v>0.0001999285983176799</v>
+      </c>
+      <c r="BL426" s="58">
+        <f>AVERAGE(BI426:BK426)</f>
+        <v>0.0002228300088700671</v>
+      </c>
+      <c r="BM426" s="58">
+        <f>STDEV(BI426:BK426)</f>
+        <v>4.013206984866762e-05</v>
+      </c>
+      <c r="BN426" s="58">
+        <f>IF(AA426&lt;&gt;"",AA426/(AP426),"")</f>
+        <v>0.0001678731604734059</v>
+      </c>
+      <c r="BO426" s="58">
+        <f>IF(AB426&lt;&gt;"",AB426/(AP426),"")</f>
+        <v>0.0001325120956444288</v>
+      </c>
+      <c r="BP426" s="58">
+        <f>IF(AC426&lt;&gt;"",AC426/(AP426),"")</f>
+        <v>0.0002464625290649354</v>
+      </c>
+      <c r="BQ426" s="58">
+        <f>AVERAGE(BN426:BP426)</f>
+        <v>0.0001822825950609233</v>
+      </c>
+      <c r="BR426" s="58">
+        <f>STDEV(BN426:BP426)</f>
+        <v>5.832580194930272e-05</v>
+      </c>
+      <c r="BS426" s="58">
+        <f>AVERAGE(BI426:BK426,BN426:BP426)</f>
+        <v>0.0002025563019654952</v>
+      </c>
+      <c r="BT426" s="58">
+        <f>STDEV(BI426:BK426,BN426:BP426)</f>
+        <v>4.998220394630503e-05</v>
+      </c>
+      <c r="BU426" s="58" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS426)-2,COLUMN(BS426))&amp;":"&amp;ADDRESS(ROW(BS426)+2,COLUMN(BS426))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS426)-2,COLUMN(BS426))&amp;":"&amp;ADDRESS(ROW(BS426)+2,COLUMN(BS426)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BV426" s="56">
+        <f>IF(ISNUMBER(AZ426),AZ426*AU426/40*AW426/AR426*1000,"")</f>
+        <v>149390.6272147754</v>
+      </c>
+      <c r="BW426" s="56">
+        <f>IF(ISNUMBER(BA426),BA426*AU426/40*AW426/AR426*1000,"")</f>
+        <v>201670.1441083834</v>
+      </c>
+      <c r="BX426" s="56">
+        <f>IF(ISNUMBER(BB426),BB426*AU426/40*AW426/AR426*1000,"")</f>
+        <v>149792.7138192543</v>
+      </c>
+      <c r="BY426" s="56">
+        <f>IF(ISNUMBER(BC426),BC426*AU426/40*AW426/AR426*1000,"")</f>
+        <v>125775.7844366527</v>
+      </c>
+      <c r="BZ426" s="56">
+        <f>IF(ISNUMBER(BD426),BD426*AU426/40*AW426/AR426*1000,"")</f>
+        <v>99282.17667447269</v>
+      </c>
+      <c r="CA426" s="56">
+        <f>IF(ISNUMBER(BE426),BE426*AU426/40*AW426/AR426*1000,"")</f>
+        <v>184657.3796547684</v>
+      </c>
+      <c r="CB426" s="56">
+        <f>AVERAGE(BV426:CA426)</f>
+        <v>151761.4709847178</v>
+      </c>
+      <c r="CC426" s="56">
+        <f>STDEV(BV426:CA426)</f>
+        <v>37448.21918817199</v>
+      </c>
+      <c r="CD426" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB426)-2,COLUMN(CB426))&amp;":"&amp;ADDRESS(ROW(CB426)+2,COLUMN(CB426))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB426)-2,COLUMN(CB426))&amp;":"&amp;ADDRESS(ROW(CB426)+2,COLUMN(CB426)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="CE426" s="56">
+        <f>AK426</f>
+        <v>27.23187884651553</v>
+      </c>
+      <c r="CF426" s="56">
+        <f>AVERAGE(29.3963094722806,29.0076714240634)</f>
+        <v>29.201990448172</v>
+      </c>
+      <c r="CG426" s="59">
+        <f>AVERAGE(26.0836326002776,25.7047750876965)</f>
+        <v>25.89420384398705</v>
+      </c>
+      <c r="CH426" s="56">
+        <f>IF(AND(ISNUMBER(CE426),ISNUMBER(CG426)),CE426-CG426,"")</f>
+        <v>1.337675002528481</v>
+      </c>
+      <c r="CI426" s="56">
+        <f>IF(AND(ISNUMBER(CF426),ISNUMBER(CG426)),CF426-CG426,"")</f>
+        <v>3.307786604184948</v>
+      </c>
+      <c r="CJ426" s="56">
+        <f>AP426/1.5*100/AY426</f>
+        <v>9212093.148496665</v>
+      </c>
+      <c r="CK426" s="56">
+        <f>CJ426*AU426/40*AW426/AR426*1000</f>
+        <v>1498462101.767339</v>
+      </c>
+    </row>
     <row r="427" ht="15.75" customHeight="1" s="38"/>
     <row r="428" ht="15.75" customHeight="1" s="38"/>
     <row r="429" ht="15.75" customHeight="1" s="38"/>
@@ -32729,7 +33073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/Ottawa/Data/ottawa_data.xlsx
+++ b/Ottawa/Data/ottawa_data.xlsx
@@ -826,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS426"/>
+  <dimension ref="A1:CS427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -32247,7 +32247,7 @@
       <c r="B426" s="54" t="n">
         <v>44475</v>
       </c>
-      <c r="C426" t="inlineStr">
+      <c r="C426" s="0" t="inlineStr">
         <is>
           <t>o.10.05.21</t>
         </is>
@@ -32261,11 +32261,11 @@
         <f>"PS"</f>
         <v>PS</v>
       </c>
-      <c r="F426">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G426">
+      <c r="F426" s="0">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G426" s="0">
         <f>IF(OR(COUNT(J426:L426)&lt;=1,COUNT(V426:X426)&lt;=1), 0, IF(AND(COUNTIFS(O426:Q426,"&gt;=4")&gt;=2, COUNTIFS(AA426:AC426,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O426:Q426,"&lt;4")&gt;=2, COUNTIFS(AA426:AC426,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>1</v>
       </c>
@@ -32584,7 +32584,354 @@
         <v>1498462101.767339</v>
       </c>
     </row>
-    <row r="427" ht="15.75" customHeight="1" s="38"/>
+    <row r="427" ht="15.75" customHeight="1" s="38">
+      <c r="A427" s="54" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B427" s="54" t="n">
+        <v>44476</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>o.10.06.21</t>
+        </is>
+      </c>
+      <c r="D427" s="55" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E427" s="55" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F427">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <f>IF(OR(COUNT(J427:L427)&lt;=1,COUNT(V427:X427)&lt;=1), 0, IF(AND(COUNTIFS(O427:Q427,"&gt;=4")&gt;=2, COUNTIFS(AA427:AC427,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O427:Q427,"&lt;4")&gt;=2, COUNTIFS(AA427:AC427,"&lt;6")&gt;=2), 1, 1)))</f>
+        <v>1</v>
+      </c>
+      <c r="H427" s="56">
+        <f>-3.3103661778270532</f>
+        <v>-3.310366177827053</v>
+      </c>
+      <c r="I427" s="56">
+        <f>37.28626794861143</f>
+        <v>37.28626794861143</v>
+      </c>
+      <c r="J427" s="56" t="inlineStr">
+        <is>
+          <t>[37.4535764546406]</t>
+        </is>
+      </c>
+      <c r="K427" s="56" t="n">
+        <v>36.2040210343166</v>
+      </c>
+      <c r="L427" s="56" t="n">
+        <v>36.7248403712695</v>
+      </c>
+      <c r="M427" s="56">
+        <f>AVERAGE(J427:L427)</f>
+        <v>36.46443070279305</v>
+      </c>
+      <c r="N427" s="56">
+        <f>STDEV(J427:L427)</f>
+        <v>0.36827488493248</v>
+      </c>
+      <c r="O427" s="56" t="str">
+        <f>IF(ISNUMBER(J427),10^((J427-I427)/H427),IF(J427="&lt;ND&gt;",0,""))</f>
+        <v/>
+      </c>
+      <c r="P427" s="56">
+        <f>IF(ISNUMBER(K427),10^((K427-I427)/H427),IF(K427="&lt;ND&gt;",0,""))</f>
+        <v>2.122885872224678</v>
+      </c>
+      <c r="Q427" s="56">
+        <f>IF(ISNUMBER(L427),10^((L427-I427)/H427),IF(L427="&lt;ND&gt;",0,""))</f>
+        <v>1.477735886386389</v>
+      </c>
+      <c r="R427" s="56">
+        <f>AVERAGE(O427:Q427)</f>
+        <v>1.800310879305533</v>
+      </c>
+      <c r="S427" s="56">
+        <f>STDEV(O427:Q427)</f>
+        <v>0.4561899298686594</v>
+      </c>
+      <c r="T427" s="56">
+        <f>-3.3655723896918737</f>
+        <v>-3.365572389691874</v>
+      </c>
+      <c r="U427" s="56">
+        <f>37.29902771565746</f>
+        <v>37.29902771565746</v>
+      </c>
+      <c r="V427" s="56" t="inlineStr">
+        <is>
+          <t>[35.874565640494]</t>
+        </is>
+      </c>
+      <c r="W427" s="56" t="n">
+        <v>34.8228155368833</v>
+      </c>
+      <c r="X427" s="56" t="n">
+        <v>34.1258549789886</v>
+      </c>
+      <c r="Y427" s="56">
+        <f>AVERAGE(V427:X427)</f>
+        <v>34.47433525793595</v>
+      </c>
+      <c r="Z427" s="56">
+        <f>STDEV(V427:X427)</f>
+        <v>0.4928255367069005</v>
+      </c>
+      <c r="AA427" s="56" t="str">
+        <f>IF(ISNUMBER(V427),10^((V427-U427)/T427),IF(V427="&lt;ND&gt;",0,""))</f>
+        <v/>
+      </c>
+      <c r="AB427" s="56">
+        <f>IF(ISNUMBER(W427),10^((W427-U427)/T427),IF(W427="&lt;ND&gt;",0,""))</f>
+        <v>5.44186432740352</v>
+      </c>
+      <c r="AC427" s="56">
+        <f>IF(ISNUMBER(X427),10^((X427-U427)/T427),IF(X427="&lt;ND&gt;",0,""))</f>
+        <v>8.766636656099347</v>
+      </c>
+      <c r="AD427" s="56">
+        <f>AVERAGE(AA427:AC427)</f>
+        <v>7.104250491751434</v>
+      </c>
+      <c r="AE427" s="56">
+        <f>STDEV(AA427:AC427)</f>
+        <v>2.350969059522209</v>
+      </c>
+      <c r="AF427" s="56">
+        <f>-3.2020259762440038</f>
+        <v>-3.202025976244004</v>
+      </c>
+      <c r="AG427" s="56">
+        <f>38.757830524166465</f>
+        <v>38.75783052416647</v>
+      </c>
+      <c r="AH427" s="57" t="n">
+        <v>27.194036925147</v>
+      </c>
+      <c r="AI427" s="57" t="n">
+        <v>27.3045188820358</v>
+      </c>
+      <c r="AJ427" s="57" t="n">
+        <v>27.1013889136578</v>
+      </c>
+      <c r="AK427" s="56">
+        <f>AVERAGE(AH427:AJ427)</f>
+        <v>27.19998157361353</v>
+      </c>
+      <c r="AL427" s="56">
+        <f>STDEV(AH427:AJ427)</f>
+        <v>0.1016953791838886</v>
+      </c>
+      <c r="AM427" s="56">
+        <f>IF(ISNUMBER(AH427),10^((AH427-AG427)/AF427),IF(AH427="&lt;ND&gt;",0,""))</f>
+        <v>4086.947505411939</v>
+      </c>
+      <c r="AN427" s="56">
+        <f>IF(ISNUMBER(AI427),10^((AI427-AG427)/AF427),IF(AI427="&lt;ND&gt;",0,""))</f>
+        <v>3774.811703619981</v>
+      </c>
+      <c r="AO427" s="56">
+        <f>IF(ISNUMBER(AJ427),10^((AJ427-AG427)/AF427),IF(AJ427="&lt;ND&gt;",0,""))</f>
+        <v>4368.509095977601</v>
+      </c>
+      <c r="AP427" s="56">
+        <f>AVERAGE(AM427:AO427)*10</f>
+        <v>40767.5610166984</v>
+      </c>
+      <c r="AQ427" s="56">
+        <f>STDEV(AM427:AO427)</f>
+        <v>296.9798763481039</v>
+      </c>
+      <c r="AR427" s="56">
+        <f>IF(E427="PS",40,500.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AS427" s="56" t="n">
+        <v>21.7474</v>
+      </c>
+      <c r="AT427" s="56" t="n">
+        <v>27.9876</v>
+      </c>
+      <c r="AU427" s="57">
+        <f>IF(AND(AT427&lt;&gt;"",AS427&lt;&gt;""),AT427-AS427,"")</f>
+        <v>6.240200000000002</v>
+      </c>
+      <c r="AV427" s="56" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW427" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX427" s="56">
+        <f>IF(ISERROR(DATEVALUE(A427)),3,IF(DATEVALUE(A427)&gt;=DATE(2021,6,8),3,1.5))</f>
+        <v>3</v>
+      </c>
+      <c r="AY427" s="56" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="AZ427" s="57" t="str">
+        <f>IF(O427&lt;&gt;"",(O427/AX427*100)/AY427,"")</f>
+        <v/>
+      </c>
+      <c r="BA427" s="57">
+        <f>IF(P427&lt;&gt;"",(P427/AX427*100)/AY427,"")</f>
+        <v>280.2489600296605</v>
+      </c>
+      <c r="BB427" s="57">
+        <f>IF(Q427&lt;&gt;"",(Q427/AX427*100)/AY427,"")</f>
+        <v>195.0806450675101</v>
+      </c>
+      <c r="BC427" s="57" t="str">
+        <f>IF(AA427&lt;&gt;"",(AA427/AX427*100)/AY427,"")</f>
+        <v/>
+      </c>
+      <c r="BD427" s="57">
+        <f>IF(AB427&lt;&gt;"",(AB427/AX427*100)/AY427,"")</f>
+        <v>718.3979310103657</v>
+      </c>
+      <c r="BE427" s="57">
+        <f>IF(AC427&lt;&gt;"",(AC427/AX427*100)/AY427,"")</f>
+        <v>1157.311769782092</v>
+      </c>
+      <c r="BF427" s="56">
+        <f>AVERAGE(AZ427:BE427)</f>
+        <v>587.7598264724071</v>
+      </c>
+      <c r="BG427" s="56">
+        <f>STDEV(AZ427:BE427)</f>
+        <v>443.5521776801079</v>
+      </c>
+      <c r="BH427" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF427)-2,COLUMN(BF427))&amp;":"&amp;ADDRESS(ROW(BF427)+2,COLUMN(BF427))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF427)-2,COLUMN(BF427))&amp;":"&amp;ADDRESS(ROW(BF427)+2,COLUMN(BF427)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BI427" s="58" t="str">
+        <f>IF(O427&lt;&gt;"",O427/(AP427),"")</f>
+        <v/>
+      </c>
+      <c r="BJ427" s="58">
+        <f>IF(P427&lt;&gt;"",P427/(AP427),"")</f>
+        <v>5.207291825368565e-05</v>
+      </c>
+      <c r="BK427" s="58">
+        <f>IF(Q427&lt;&gt;"",Q427/(AP427),"")</f>
+        <v>3.624783650366299e-05</v>
+      </c>
+      <c r="BL427" s="58">
+        <f>AVERAGE(BI427:BK427)</f>
+        <v>4.416037737867432e-05</v>
+      </c>
+      <c r="BM427" s="58">
+        <f>STDEV(BI427:BK427)</f>
+        <v>1.11900226182725e-05</v>
+      </c>
+      <c r="BN427" s="58" t="str">
+        <f>IF(AA427&lt;&gt;"",AA427/(AP427),"")</f>
+        <v/>
+      </c>
+      <c r="BO427" s="58">
+        <f>IF(AB427&lt;&gt;"",AB427/(AP427),"")</f>
+        <v>0.0001334851580935767</v>
+      </c>
+      <c r="BP427" s="58">
+        <f>IF(AC427&lt;&gt;"",AC427/(AP427),"")</f>
+        <v>0.0002150395176328682</v>
+      </c>
+      <c r="BQ427" s="58">
+        <f>AVERAGE(BN427:BP427)</f>
+        <v>0.0001742623378632224</v>
+      </c>
+      <c r="BR427" s="58">
+        <f>STDEV(BN427:BP427)</f>
+        <v>5.766764066555885e-05</v>
+      </c>
+      <c r="BS427" s="58">
+        <f>AVERAGE(BI427:BK427,BN427:BP427)</f>
+        <v>0.0001092113576209484</v>
+      </c>
+      <c r="BT427" s="58">
+        <f>STDEV(BI427:BK427,BN427:BP427)</f>
+        <v>8.241620695804191e-05</v>
+      </c>
+      <c r="BU427" s="58" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS427)-2,COLUMN(BS427))&amp;":"&amp;ADDRESS(ROW(BS427)+2,COLUMN(BS427))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS427)-2,COLUMN(BS427))&amp;":"&amp;ADDRESS(ROW(BS427)+2,COLUMN(BS427)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BV427" s="56" t="str">
+        <f>IF(ISNUMBER(AZ427),AZ427*AU427/40*AW427/AR427*1000,"")</f>
+        <v/>
+      </c>
+      <c r="BW427" s="56">
+        <f>IF(ISNUMBER(BA427),BA427*AU427/40*AW427/AR427*1000,"")</f>
+        <v>43720.23900942719</v>
+      </c>
+      <c r="BX427" s="56">
+        <f>IF(ISNUMBER(BB427),BB427*AU427/40*AW427/AR427*1000,"")</f>
+        <v>30433.55603375692</v>
+      </c>
+      <c r="BY427" s="56" t="str">
+        <f>IF(ISNUMBER(BC427),BC427*AU427/40*AW427/AR427*1000,"")</f>
+        <v/>
+      </c>
+      <c r="BZ427" s="56">
+        <f>IF(ISNUMBER(BD427),BD427*AU427/40*AW427/AR427*1000,"")</f>
+        <v>112073.6692272721</v>
+      </c>
+      <c r="CA427" s="56">
+        <f>IF(ISNUMBER(BE427),BE427*AU427/40*AW427/AR427*1000,"")</f>
+        <v>180546.4226448553</v>
+      </c>
+      <c r="CB427" s="56">
+        <f>AVERAGE(BV427:CA427)</f>
+        <v>91693.47172882789</v>
+      </c>
+      <c r="CC427" s="56">
+        <f>STDEV(BV427:CA427)</f>
+        <v>69196.35747898526</v>
+      </c>
+      <c r="CD427" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB427)-2,COLUMN(CB427))&amp;":"&amp;ADDRESS(ROW(CB427)+2,COLUMN(CB427))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB427)-2,COLUMN(CB427))&amp;":"&amp;ADDRESS(ROW(CB427)+2,COLUMN(CB427)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="CE427" s="56">
+        <f>AK427</f>
+        <v>27.19998157361353</v>
+      </c>
+      <c r="CF427" s="56">
+        <f>AVERAGE(28.8750628306033,29.0390439737332)</f>
+        <v>28.95705340216825</v>
+      </c>
+      <c r="CG427" s="59">
+        <f>AVERAGE(25.4540198601328,25.6330748442252)</f>
+        <v>25.543547352179</v>
+      </c>
+      <c r="CH427" s="56">
+        <f>IF(AND(ISNUMBER(CE427),ISNUMBER(CG427)),CE427-CG427,"")</f>
+        <v>1.656434221434534</v>
+      </c>
+      <c r="CI427" s="56">
+        <f>IF(AND(ISNUMBER(CF427),ISNUMBER(CG427)),CF427-CG427,"")</f>
+        <v>3.413506049989252</v>
+      </c>
+      <c r="CJ427" s="56">
+        <f>AP427/1.5*100/AY427</f>
+        <v>10763712.47965634</v>
+      </c>
+      <c r="CK427" s="56">
+        <f>CJ427*AU427/40*AW427/AR427*1000</f>
+        <v>1679192965.388788</v>
+      </c>
+    </row>
     <row r="428" ht="15.75" customHeight="1" s="38"/>
     <row r="429" ht="15.75" customHeight="1" s="38"/>
     <row r="430" ht="15.75" customHeight="1" s="38"/>
@@ -33073,7 +33420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33099,11 +33446,6 @@
     <row r="13" ht="15" customHeight="1" s="38"/>
     <row r="14" ht="15" customHeight="1" s="38"/>
     <row r="15" ht="15" customHeight="1" s="38"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
     <row r="21" ht="15.75" customHeight="1" s="38"/>
     <row r="22" ht="15.75" customHeight="1" s="38"/>
     <row r="23" ht="15.75" customHeight="1" s="38"/>

--- a/Ottawa/Data/ottawa_data.xlsx
+++ b/Ottawa/Data/ottawa_data.xlsx
@@ -826,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS427"/>
+  <dimension ref="A1:CS428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -32591,7 +32591,7 @@
       <c r="B427" s="54" t="n">
         <v>44476</v>
       </c>
-      <c r="C427" t="inlineStr">
+      <c r="C427" s="0" t="inlineStr">
         <is>
           <t>o.10.06.21</t>
         </is>
@@ -32605,11 +32605,11 @@
         <f>"PS"</f>
         <v>PS</v>
       </c>
-      <c r="F427">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G427">
+      <c r="F427" s="0">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G427" s="0">
         <f>IF(OR(COUNT(J427:L427)&lt;=1,COUNT(V427:X427)&lt;=1), 0, IF(AND(COUNTIFS(O427:Q427,"&gt;=4")&gt;=2, COUNTIFS(AA427:AC427,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O427:Q427,"&lt;4")&gt;=2, COUNTIFS(AA427:AC427,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>1</v>
       </c>
@@ -32932,7 +32932,352 @@
         <v>1679192965.388788</v>
       </c>
     </row>
-    <row r="428" ht="15.75" customHeight="1" s="38"/>
+    <row r="428" ht="15.75" customHeight="1" s="38">
+      <c r="A428" s="54" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B428" s="54" t="n">
+        <v>44477</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>o.10.07.21</t>
+        </is>
+      </c>
+      <c r="D428" s="55" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E428" s="55" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F428">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <f>IF(OR(COUNT(J428:L428)&lt;=1,COUNT(V428:X428)&lt;=1), 0, IF(AND(COUNTIFS(O428:Q428,"&gt;=4")&gt;=2, COUNTIFS(AA428:AC428,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O428:Q428,"&lt;4")&gt;=2, COUNTIFS(AA428:AC428,"&lt;6")&gt;=2), 1, 1)))</f>
+        <v>2</v>
+      </c>
+      <c r="H428" s="56">
+        <f>-3.534612168422302</f>
+        <v>-3.534612168422302</v>
+      </c>
+      <c r="I428" s="56">
+        <f>38.014126437169764</f>
+        <v>38.01412643716976</v>
+      </c>
+      <c r="J428" s="56" t="n">
+        <v>34.5064939725683</v>
+      </c>
+      <c r="K428" s="56" t="inlineStr">
+        <is>
+          <t>[35.7934255043537]</t>
+        </is>
+      </c>
+      <c r="L428" s="56" t="n">
+        <v>35.0905997632494</v>
+      </c>
+      <c r="M428" s="56">
+        <f>AVERAGE(J428:L428)</f>
+        <v>34.79854686790885</v>
+      </c>
+      <c r="N428" s="56">
+        <f>STDEV(J428:L428)</f>
+        <v>0.4130251655209361</v>
+      </c>
+      <c r="O428" s="56">
+        <f>IF(ISNUMBER(J428),10^((J428-I428)/H428),IF(J428="&lt;ND&gt;",0,""))</f>
+        <v>9.825779126570787</v>
+      </c>
+      <c r="P428" s="56" t="str">
+        <f>IF(ISNUMBER(K428),10^((K428-I428)/H428),IF(K428="&lt;ND&gt;",0,""))</f>
+        <v/>
+      </c>
+      <c r="Q428" s="56">
+        <f>IF(ISNUMBER(L428),10^((L428-I428)/H428),IF(L428="&lt;ND&gt;",0,""))</f>
+        <v>6.716048884412771</v>
+      </c>
+      <c r="R428" s="56">
+        <f>AVERAGE(O428:Q428)</f>
+        <v>8.270914005491779</v>
+      </c>
+      <c r="S428" s="56">
+        <f>STDEV(O428:Q428)</f>
+        <v>2.198911341890817</v>
+      </c>
+      <c r="T428" s="56">
+        <f>-3.150893910515617</f>
+        <v>-3.150893910515617</v>
+      </c>
+      <c r="U428" s="56">
+        <f>37.36209641023931</f>
+        <v>37.36209641023931</v>
+      </c>
+      <c r="V428" s="56" t="n">
+        <v>34.4987588289735</v>
+      </c>
+      <c r="W428" s="56" t="n">
+        <v>34.8658442119989</v>
+      </c>
+      <c r="X428" s="56" t="n">
+        <v>34.8987432511045</v>
+      </c>
+      <c r="Y428" s="56">
+        <f>AVERAGE(V428:X428)</f>
+        <v>34.75444876402563</v>
+      </c>
+      <c r="Z428" s="56">
+        <f>STDEV(V428:X428)</f>
+        <v>0.2220441259271242</v>
+      </c>
+      <c r="AA428" s="56">
+        <f>IF(ISNUMBER(V428),10^((V428-U428)/T428),IF(V428="&lt;ND&gt;",0,""))</f>
+        <v>8.104722972327759</v>
+      </c>
+      <c r="AB428" s="56">
+        <f>IF(ISNUMBER(W428),10^((W428-U428)/T428),IF(W428="&lt;ND&gt;",0,""))</f>
+        <v>6.197780534240306</v>
+      </c>
+      <c r="AC428" s="56">
+        <f>IF(ISNUMBER(X428),10^((X428-U428)/T428),IF(X428="&lt;ND&gt;",0,""))</f>
+        <v>6.050552271998572</v>
+      </c>
+      <c r="AD428" s="56">
+        <f>AVERAGE(AA428:AC428)</f>
+        <v>6.784351926188879</v>
+      </c>
+      <c r="AE428" s="56">
+        <f>STDEV(AA428:AC428)</f>
+        <v>1.145841967686683</v>
+      </c>
+      <c r="AF428" s="56">
+        <f>-3.1407128227399808</f>
+        <v>-3.140712822739981</v>
+      </c>
+      <c r="AG428" s="56">
+        <f>38.63475864143222</f>
+        <v>38.63475864143222</v>
+      </c>
+      <c r="AH428" s="57" t="n">
+        <v>27.8498082232266</v>
+      </c>
+      <c r="AI428" s="57" t="n">
+        <v>27.830330703999</v>
+      </c>
+      <c r="AJ428" s="57" t="n">
+        <v>27.848392356116</v>
+      </c>
+      <c r="AK428" s="56">
+        <f>AVERAGE(AH428:AJ428)</f>
+        <v>27.84284376111387</v>
+      </c>
+      <c r="AL428" s="56">
+        <f>STDEV(AH428:AJ428)</f>
+        <v>0.01085972461385018</v>
+      </c>
+      <c r="AM428" s="56">
+        <f>IF(ISNUMBER(AH428),10^((AH428-AG428)/AF428),IF(AH428="&lt;ND&gt;",0,""))</f>
+        <v>2715.926666631092</v>
+      </c>
+      <c r="AN428" s="56">
+        <f>IF(ISNUMBER(AI428),10^((AI428-AG428)/AF428),IF(AI428="&lt;ND&gt;",0,""))</f>
+        <v>2754.987692389715</v>
+      </c>
+      <c r="AO428" s="56">
+        <f>IF(ISNUMBER(AJ428),10^((AJ428-AG428)/AF428),IF(AJ428="&lt;ND&gt;",0,""))</f>
+        <v>2718.747344030568</v>
+      </c>
+      <c r="AP428" s="56">
+        <f>AVERAGE(AM428:AO428)*10</f>
+        <v>27298.87234350459</v>
+      </c>
+      <c r="AQ428" s="56">
+        <f>STDEV(AM428:AO428)</f>
+        <v>21.78333768235149</v>
+      </c>
+      <c r="AR428" s="56">
+        <f>IF(E428="PS",40,500.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AS428" s="56" t="n">
+        <v>21.826</v>
+      </c>
+      <c r="AT428" s="56" t="n">
+        <v>28.597</v>
+      </c>
+      <c r="AU428" s="57">
+        <f>IF(AND(AT428&lt;&gt;"",AS428&lt;&gt;""),AT428-AS428,"")</f>
+        <v>6.771000000000001</v>
+      </c>
+      <c r="AV428" s="56" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW428" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX428" s="56">
+        <f>IF(ISERROR(DATEVALUE(A428)),3,IF(DATEVALUE(A428)&gt;=DATE(2021,6,8),3,1.5))</f>
+        <v>3</v>
+      </c>
+      <c r="AY428" s="56" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="AZ428" s="57">
+        <f>IF(O428&lt;&gt;"",(O428/AX428*100)/AY428,"")</f>
+        <v>1291.506194344215</v>
+      </c>
+      <c r="BA428" s="57" t="str">
+        <f>IF(P428&lt;&gt;"",(P428/AX428*100)/AY428,"")</f>
+        <v/>
+      </c>
+      <c r="BB428" s="57">
+        <f>IF(Q428&lt;&gt;"",(Q428/AX428*100)/AY428,"")</f>
+        <v>882.7614201383768</v>
+      </c>
+      <c r="BC428" s="57">
+        <f>IF(AA428&lt;&gt;"",(AA428/AX428*100)/AY428,"")</f>
+        <v>1065.289559979989</v>
+      </c>
+      <c r="BD428" s="57">
+        <f>IF(AB428&lt;&gt;"",(AB428/AX428*100)/AY428,"")</f>
+        <v>814.639923007401</v>
+      </c>
+      <c r="BE428" s="57">
+        <f>IF(AC428&lt;&gt;"",(AC428/AX428*100)/AY428,"")</f>
+        <v>795.2881535224201</v>
+      </c>
+      <c r="BF428" s="56">
+        <f>AVERAGE(AZ428:BE428)</f>
+        <v>969.8970501984804</v>
+      </c>
+      <c r="BG428" s="56">
+        <f>STDEV(AZ428:BE428)</f>
+        <v>208.996311503694</v>
+      </c>
+      <c r="BH428" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF428)-2,COLUMN(BF428))&amp;":"&amp;ADDRESS(ROW(BF428)+2,COLUMN(BF428))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF428)-2,COLUMN(BF428))&amp;":"&amp;ADDRESS(ROW(BF428)+2,COLUMN(BF428)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BI428" s="58">
+        <f>IF(O428&lt;&gt;"",O428/(AP428),"")</f>
+        <v>0.0003599335167743185</v>
+      </c>
+      <c r="BJ428" s="58" t="str">
+        <f>IF(P428&lt;&gt;"",P428/(AP428),"")</f>
+        <v/>
+      </c>
+      <c r="BK428" s="58">
+        <f>IF(Q428&lt;&gt;"",Q428/(AP428),"")</f>
+        <v>0.0002460192787417744</v>
+      </c>
+      <c r="BL428" s="58">
+        <f>AVERAGE(BI428:BK428)</f>
+        <v>0.0003029763977580464</v>
+      </c>
+      <c r="BM428" s="58">
+        <f>STDEV(BI428:BK428)</f>
+        <v>8.054953018651045e-05</v>
+      </c>
+      <c r="BN428" s="58">
+        <f>IF(AA428&lt;&gt;"",AA428/(AP428),"")</f>
+        <v>0.0002968885626609472</v>
+      </c>
+      <c r="BO428" s="58">
+        <f>IF(AB428&lt;&gt;"",AB428/(AP428),"")</f>
+        <v>0.0002270343058956055</v>
+      </c>
+      <c r="BP428" s="58">
+        <f>IF(AC428&lt;&gt;"",AC428/(AP428),"")</f>
+        <v>0.0002216411064846868</v>
+      </c>
+      <c r="BQ428" s="58">
+        <f>AVERAGE(BN428:BP428)</f>
+        <v>0.0002485213250137465</v>
+      </c>
+      <c r="BR428" s="58">
+        <f>STDEV(BN428:BP428)</f>
+        <v>4.19739670294228e-05</v>
+      </c>
+      <c r="BS428" s="58">
+        <f>AVERAGE(BI428:BK428,BN428:BP428)</f>
+        <v>0.0002703033541114665</v>
+      </c>
+      <c r="BT428" s="58">
+        <f>STDEV(BI428:BK428,BN428:BP428)</f>
+        <v>5.824577359505601e-05</v>
+      </c>
+      <c r="BU428" s="58" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS428)-2,COLUMN(BS428))&amp;":"&amp;ADDRESS(ROW(BS428)+2,COLUMN(BS428))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS428)-2,COLUMN(BS428))&amp;":"&amp;ADDRESS(ROW(BS428)+2,COLUMN(BS428)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BV428" s="56">
+        <f>IF(ISNUMBER(AZ428),AZ428*AU428/40*AW428/AR428*1000,"")</f>
+        <v>218619.711047617</v>
+      </c>
+      <c r="BW428" s="56" t="str">
+        <f>IF(ISNUMBER(BA428),BA428*AU428/40*AW428/AR428*1000,"")</f>
+        <v/>
+      </c>
+      <c r="BX428" s="56">
+        <f>IF(ISNUMBER(BB428),BB428*AU428/40*AW428/AR428*1000,"")</f>
+        <v>149429.4393939238</v>
+      </c>
+      <c r="BY428" s="56">
+        <f>IF(ISNUMBER(BC428),BC428*AU428/40*AW428/AR428*1000,"")</f>
+        <v>180326.8902656127</v>
+      </c>
+      <c r="BZ428" s="56">
+        <f>IF(ISNUMBER(BD428),BD428*AU428/40*AW428/AR428*1000,"")</f>
+        <v>137898.1729670778</v>
+      </c>
+      <c r="CA428" s="56">
+        <f>IF(ISNUMBER(BE428),BE428*AU428/40*AW428/AR428*1000,"")</f>
+        <v>134622.4021875077</v>
+      </c>
+      <c r="CB428" s="56">
+        <f>AVERAGE(BV428:CA428)</f>
+        <v>164179.3231723478</v>
+      </c>
+      <c r="CC428" s="56">
+        <f>STDEV(BV428:CA428)</f>
+        <v>35377.85062978781</v>
+      </c>
+      <c r="CD428" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB428)-2,COLUMN(CB428))&amp;":"&amp;ADDRESS(ROW(CB428)+2,COLUMN(CB428))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB428)-2,COLUMN(CB428))&amp;":"&amp;ADDRESS(ROW(CB428)+2,COLUMN(CB428)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="CE428" s="56">
+        <f>AK428</f>
+        <v>27.84284376111387</v>
+      </c>
+      <c r="CF428" s="56">
+        <f>AVERAGE(29.9559944724628,29.8809941505632)</f>
+        <v>29.918494311513</v>
+      </c>
+      <c r="CG428" s="59">
+        <f>AVERAGE(26.1379286301317,26.3653237125573)</f>
+        <v>26.2516261713445</v>
+      </c>
+      <c r="CH428" s="56">
+        <f>IF(AND(ISNUMBER(CE428),ISNUMBER(CG428)),CE428-CG428,"")</f>
+        <v>1.591217589769371</v>
+      </c>
+      <c r="CI428" s="56">
+        <f>IF(AND(ISNUMBER(CF428),ISNUMBER(CG428)),CF428-CG428,"")</f>
+        <v>3.666868140168503</v>
+      </c>
+      <c r="CJ428" s="56">
+        <f>AP428/1.5*100/AY428</f>
+        <v>7176359.711751995</v>
+      </c>
+      <c r="CK428" s="56">
+        <f>CJ428*AU428/40*AW428/AR428*1000</f>
+        <v>1214778290.206819</v>
+      </c>
+    </row>
     <row r="429" ht="15.75" customHeight="1" s="38"/>
     <row r="430" ht="15.75" customHeight="1" s="38"/>
     <row r="431" ht="15.75" customHeight="1" s="38"/>

--- a/Ottawa/Data/ottawa_data.xlsx
+++ b/Ottawa/Data/ottawa_data.xlsx
@@ -826,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS428"/>
+  <dimension ref="A1:CS432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -32939,7 +32939,7 @@
       <c r="B428" s="54" t="n">
         <v>44477</v>
       </c>
-      <c r="C428" t="inlineStr">
+      <c r="C428" s="0" t="inlineStr">
         <is>
           <t>o.10.07.21</t>
         </is>
@@ -32953,11 +32953,11 @@
         <f>"PS"</f>
         <v>PS</v>
       </c>
-      <c r="F428">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G428">
+      <c r="F428" s="0">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G428" s="0">
         <f>IF(OR(COUNT(J428:L428)&lt;=1,COUNT(V428:X428)&lt;=1), 0, IF(AND(COUNTIFS(O428:Q428,"&gt;=4")&gt;=2, COUNTIFS(AA428:AC428,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O428:Q428,"&lt;4")&gt;=2, COUNTIFS(AA428:AC428,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
@@ -33278,10 +33278,1382 @@
         <v>1214778290.206819</v>
       </c>
     </row>
-    <row r="429" ht="15.75" customHeight="1" s="38"/>
-    <row r="430" ht="15.75" customHeight="1" s="38"/>
-    <row r="431" ht="15.75" customHeight="1" s="38"/>
-    <row r="432" ht="15.75" customHeight="1" s="38"/>
+    <row r="429" ht="15.75" customHeight="1" s="38">
+      <c r="A429" s="54" t="n">
+        <v>44477</v>
+      </c>
+      <c r="B429" s="54" t="n">
+        <v>44481</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>o.10.08.21</t>
+        </is>
+      </c>
+      <c r="D429" s="55" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E429" s="55" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F429">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <f>IF(OR(COUNT(J429:L429)&lt;=1,COUNT(V429:X429)&lt;=1), 0, IF(AND(COUNTIFS(O429:Q429,"&gt;=4")&gt;=2, COUNTIFS(AA429:AC429,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O429:Q429,"&lt;4")&gt;=2, COUNTIFS(AA429:AC429,"&lt;6")&gt;=2), 1, 1)))</f>
+        <v>2</v>
+      </c>
+      <c r="H429" s="56">
+        <f>-3.726982284840926</f>
+        <v>-3.726982284840926</v>
+      </c>
+      <c r="I429" s="56">
+        <f>38.48961997633373</f>
+        <v>38.48961997633373</v>
+      </c>
+      <c r="J429" s="56" t="n">
+        <v>34.049215542698</v>
+      </c>
+      <c r="K429" s="56" t="n">
+        <v>34.3415902477946</v>
+      </c>
+      <c r="L429" s="56" t="n">
+        <v>34.8578797847613</v>
+      </c>
+      <c r="M429" s="56">
+        <f>AVERAGE(J429:L429)</f>
+        <v>34.41622852508464</v>
+      </c>
+      <c r="N429" s="56">
+        <f>STDEV(J429:L429)</f>
+        <v>0.4094662604239468</v>
+      </c>
+      <c r="O429" s="56">
+        <f>IF(ISNUMBER(J429),10^((J429-I429)/H429),IF(J429="&lt;ND&gt;",0,""))</f>
+        <v>15.53892099360482</v>
+      </c>
+      <c r="P429" s="56">
+        <f>IF(ISNUMBER(K429),10^((K429-I429)/H429),IF(K429="&lt;ND&gt;",0,""))</f>
+        <v>12.97097886079016</v>
+      </c>
+      <c r="Q429" s="56">
+        <f>IF(ISNUMBER(L429),10^((L429-I429)/H429),IF(L429="&lt;ND&gt;",0,""))</f>
+        <v>9.428557456498423</v>
+      </c>
+      <c r="R429" s="56">
+        <f>AVERAGE(O429:Q429)</f>
+        <v>12.64615243696447</v>
+      </c>
+      <c r="S429" s="56">
+        <f>STDEV(O429:Q429)</f>
+        <v>3.06810524479057</v>
+      </c>
+      <c r="T429" s="56">
+        <f>-3.3992785693842373</f>
+        <v>-3.399278569384237</v>
+      </c>
+      <c r="U429" s="56">
+        <f>38.146226521223774</f>
+        <v>38.14622652122377</v>
+      </c>
+      <c r="V429" s="56" t="n">
+        <v>34.3687581029162</v>
+      </c>
+      <c r="W429" s="56" t="n">
+        <v>34.0319451823723</v>
+      </c>
+      <c r="X429" s="56" t="n">
+        <v>34.4501094206886</v>
+      </c>
+      <c r="Y429" s="56">
+        <f>AVERAGE(V429:X429)</f>
+        <v>34.2836042353257</v>
+      </c>
+      <c r="Z429" s="56">
+        <f>STDEV(V429:X429)</f>
+        <v>0.2217063788569892</v>
+      </c>
+      <c r="AA429" s="56">
+        <f>IF(ISNUMBER(V429),10^((V429-U429)/T429),IF(V429="&lt;ND&gt;",0,""))</f>
+        <v>12.9198037071321</v>
+      </c>
+      <c r="AB429" s="56">
+        <f>IF(ISNUMBER(W429),10^((W429-U429)/T429),IF(W429="&lt;ND&gt;",0,""))</f>
+        <v>16.23078642991547</v>
+      </c>
+      <c r="AC429" s="56">
+        <f>IF(ISNUMBER(X429),10^((X429-U429)/T429),IF(X429="&lt;ND&gt;",0,""))</f>
+        <v>12.22711450200807</v>
+      </c>
+      <c r="AD429" s="56">
+        <f>AVERAGE(AA429:AC429)</f>
+        <v>13.79256821301855</v>
+      </c>
+      <c r="AE429" s="56">
+        <f>STDEV(AA429:AC429)</f>
+        <v>2.139774670059873</v>
+      </c>
+      <c r="AF429" s="56">
+        <f>-3.00132513791975</f>
+        <v>-3.00132513791975</v>
+      </c>
+      <c r="AG429" s="56">
+        <f>37.90652030736685</f>
+        <v>37.90652030736685</v>
+      </c>
+      <c r="AH429" s="57" t="n">
+        <v>27.7771335019087</v>
+      </c>
+      <c r="AI429" s="57" t="n">
+        <v>27.7948384128651</v>
+      </c>
+      <c r="AJ429" s="57" t="n">
+        <v>27.858049615932</v>
+      </c>
+      <c r="AK429" s="56">
+        <f>AVERAGE(AH429:AJ429)</f>
+        <v>27.81000717690193</v>
+      </c>
+      <c r="AL429" s="56">
+        <f>STDEV(AH429:AJ429)</f>
+        <v>0.04253731219719622</v>
+      </c>
+      <c r="AM429" s="56">
+        <f>IF(ISNUMBER(AH429),10^((AH429-AG429)/AF429),IF(AH429="&lt;ND&gt;",0,""))</f>
+        <v>2371.218097504342</v>
+      </c>
+      <c r="AN429" s="56">
+        <f>IF(ISNUMBER(AI429),10^((AI429-AG429)/AF429),IF(AI429="&lt;ND&gt;",0,""))</f>
+        <v>2339.22754699278</v>
+      </c>
+      <c r="AO429" s="56">
+        <f>IF(ISNUMBER(AJ429),10^((AJ429-AG429)/AF429),IF(AJ429="&lt;ND&gt;",0,""))</f>
+        <v>2228.493499227131</v>
+      </c>
+      <c r="AP429" s="56">
+        <f>AVERAGE(AM429:AO429)*10</f>
+        <v>23129.79714574751</v>
+      </c>
+      <c r="AQ429" s="56">
+        <f>STDEV(AM429:AO429)</f>
+        <v>74.89518855261358</v>
+      </c>
+      <c r="AR429" s="56">
+        <f>IF(E429="PS",40,500.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AS429" s="56" t="n">
+        <v>21.809</v>
+      </c>
+      <c r="AT429" s="56" t="n">
+        <v>28.7028</v>
+      </c>
+      <c r="AU429" s="57">
+        <f>IF(AND(AT429&lt;&gt;"",AS429&lt;&gt;""),AT429-AS429,"")</f>
+        <v>6.893799999999999</v>
+      </c>
+      <c r="AV429" s="56" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW429" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX429" s="56">
+        <f>IF(ISERROR(DATEVALUE(A429)),3,IF(DATEVALUE(A429)&gt;=DATE(2021,6,8),3,1.5))</f>
+        <v>3</v>
+      </c>
+      <c r="AY429" s="56" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="AZ429" s="57">
+        <f>IF(O429&lt;&gt;"",(O429/AX429*100)/AY429,"")</f>
+        <v>2052.155440254203</v>
+      </c>
+      <c r="BA429" s="57">
+        <f>IF(P429&lt;&gt;"",(P429/AX429*100)/AY429,"")</f>
+        <v>1713.018866982324</v>
+      </c>
+      <c r="BB429" s="57">
+        <f>IF(Q429&lt;&gt;"",(Q429/AX429*100)/AY429,"")</f>
+        <v>1245.187197107557</v>
+      </c>
+      <c r="BC429" s="57">
+        <f>IF(AA429&lt;&gt;"",(AA429/AX429*100)/AY429,"")</f>
+        <v>1706.260394497108</v>
+      </c>
+      <c r="BD429" s="57">
+        <f>IF(AB429&lt;&gt;"",(AB429/AX429*100)/AY429,"")</f>
+        <v>2143.526998139919</v>
+      </c>
+      <c r="BE429" s="57">
+        <f>IF(AC429&lt;&gt;"",(AC429/AX429*100)/AY429,"")</f>
+        <v>1614.780045167468</v>
+      </c>
+      <c r="BF429" s="56">
+        <f>AVERAGE(AZ429:BE429)</f>
+        <v>1745.821490358096</v>
+      </c>
+      <c r="BG429" s="56">
+        <f>STDEV(AZ429:BE429)</f>
+        <v>323.2515454320731</v>
+      </c>
+      <c r="BH429" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF429)-2,COLUMN(BF429))&amp;":"&amp;ADDRESS(ROW(BF429)+2,COLUMN(BF429))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF429)-2,COLUMN(BF429))&amp;":"&amp;ADDRESS(ROW(BF429)+2,COLUMN(BF429)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BI429" s="58">
+        <f>IF(O429&lt;&gt;"",O429/(AP429),"")</f>
+        <v>0.0006718139763911292</v>
+      </c>
+      <c r="BJ429" s="58">
+        <f>IF(P429&lt;&gt;"",P429/(AP429),"")</f>
+        <v>0.0005607908612019505</v>
+      </c>
+      <c r="BK429" s="58">
+        <f>IF(Q429&lt;&gt;"",Q429/(AP429),"")</f>
+        <v>0.0004076368416500313</v>
+      </c>
+      <c r="BL429" s="58">
+        <f>AVERAGE(BI429:BK429)</f>
+        <v>0.0005467472264143704</v>
+      </c>
+      <c r="BM429" s="58">
+        <f>STDEV(BI429:BK429)</f>
+        <v>0.0001326473044902883</v>
+      </c>
+      <c r="BN429" s="58">
+        <f>IF(AA429&lt;&gt;"",AA429/(AP429),"")</f>
+        <v>0.0005585783405587478</v>
+      </c>
+      <c r="BO429" s="58">
+        <f>IF(AB429&lt;&gt;"",AB429/(AP429),"")</f>
+        <v>0.0007017262766136949</v>
+      </c>
+      <c r="BP429" s="58">
+        <f>IF(AC429&lt;&gt;"",AC429/(AP429),"")</f>
+        <v>0.000528630425289141</v>
+      </c>
+      <c r="BQ429" s="58">
+        <f>AVERAGE(BN429:BP429)</f>
+        <v>0.000596311680820528</v>
+      </c>
+      <c r="BR429" s="58">
+        <f>STDEV(BN429:BP429)</f>
+        <v>9.251160555263579e-05</v>
+      </c>
+      <c r="BS429" s="58">
+        <f>AVERAGE(BI429:BK429,BN429:BP429)</f>
+        <v>0.0005715294536174491</v>
+      </c>
+      <c r="BT429" s="58">
+        <f>STDEV(BI429:BK429,BN429:BP429)</f>
+        <v>0.0001058228347870171</v>
+      </c>
+      <c r="BU429" s="58" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS429)-2,COLUMN(BS429))&amp;":"&amp;ADDRESS(ROW(BS429)+2,COLUMN(BS429))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS429)-2,COLUMN(BS429))&amp;":"&amp;ADDRESS(ROW(BS429)+2,COLUMN(BS429)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BV429" s="56">
+        <f>IF(ISNUMBER(AZ429),AZ429*AU429/40*AW429/AR429*1000,"")</f>
+        <v>353678.7293506105</v>
+      </c>
+      <c r="BW429" s="56">
+        <f>IF(ISNUMBER(BA429),BA429*AU429/40*AW429/AR429*1000,"")</f>
+        <v>295230.2366300686</v>
+      </c>
+      <c r="BX429" s="56">
+        <f>IF(ISNUMBER(BB429),BB429*AU429/40*AW429/AR429*1000,"")</f>
+        <v>214601.7874855019</v>
+      </c>
+      <c r="BY429" s="56">
+        <f>IF(ISNUMBER(BC429),BC429*AU429/40*AW429/AR429*1000,"")</f>
+        <v>294065.447689604</v>
+      </c>
+      <c r="BZ429" s="56">
+        <f>IF(ISNUMBER(BD429),BD429*AU429/40*AW429/AR429*1000,"")</f>
+        <v>369426.1604944242</v>
+      </c>
+      <c r="CA429" s="56">
+        <f>IF(ISNUMBER(BE429),BE429*AU429/40*AW429/AR429*1000,"")</f>
+        <v>278299.2668843871</v>
+      </c>
+      <c r="CB429" s="56">
+        <f>AVERAGE(BV429:CA429)</f>
+        <v>300883.604755766</v>
+      </c>
+      <c r="CC429" s="56">
+        <f>STDEV(BV429:CA429)</f>
+        <v>55710.78759749063</v>
+      </c>
+      <c r="CD429" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB429)-2,COLUMN(CB429))&amp;":"&amp;ADDRESS(ROW(CB429)+2,COLUMN(CB429))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB429)-2,COLUMN(CB429))&amp;":"&amp;ADDRESS(ROW(CB429)+2,COLUMN(CB429)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="CE429" s="56">
+        <f>AK429</f>
+        <v>27.81000717690193</v>
+      </c>
+      <c r="CF429" s="56">
+        <f>AVERAGE(30.2118720567048,29.8463426143344)</f>
+        <v>30.0291073355196</v>
+      </c>
+      <c r="CG429" s="59">
+        <f>AVERAGE(26.1250921029488,26.2194385922969)</f>
+        <v>26.17226534762285</v>
+      </c>
+      <c r="CH429" s="56">
+        <f>IF(AND(ISNUMBER(CE429),ISNUMBER(CG429)),CE429-CG429,"")</f>
+        <v>1.637741829279086</v>
+      </c>
+      <c r="CI429" s="56">
+        <f>IF(AND(ISNUMBER(CF429),ISNUMBER(CG429)),CF429-CG429,"")</f>
+        <v>3.85684198789675</v>
+      </c>
+      <c r="CJ429" s="56">
+        <f>AP429/1.5*100/AY429</f>
+        <v>6109296.657619521</v>
+      </c>
+      <c r="CK429" s="56">
+        <f>CJ429*AU429/40*AW429/AR429*1000</f>
+        <v>1052906732.457436</v>
+      </c>
+    </row>
+    <row r="430" ht="15.75" customHeight="1" s="38">
+      <c r="A430" s="54" t="n">
+        <v>44478</v>
+      </c>
+      <c r="B430" s="54" t="n">
+        <v>44481</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>o.10.09.21</t>
+        </is>
+      </c>
+      <c r="D430" s="55" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E430" s="55" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F430">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <f>IF(OR(COUNT(J430:L430)&lt;=1,COUNT(V430:X430)&lt;=1), 0, IF(AND(COUNTIFS(O430:Q430,"&gt;=4")&gt;=2, COUNTIFS(AA430:AC430,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O430:Q430,"&lt;4")&gt;=2, COUNTIFS(AA430:AC430,"&lt;6")&gt;=2), 1, 1)))</f>
+        <v>2</v>
+      </c>
+      <c r="H430" s="56">
+        <f>-3.726982284840926</f>
+        <v>-3.726982284840926</v>
+      </c>
+      <c r="I430" s="56">
+        <f>38.48961997633373</f>
+        <v>38.48961997633373</v>
+      </c>
+      <c r="J430" s="56" t="n">
+        <v>34.379754648786</v>
+      </c>
+      <c r="K430" s="56" t="n">
+        <v>34.1049355464877</v>
+      </c>
+      <c r="L430" s="56" t="n">
+        <v>33.9115141885512</v>
+      </c>
+      <c r="M430" s="56">
+        <f>AVERAGE(J430:L430)</f>
+        <v>34.13206812794164</v>
+      </c>
+      <c r="N430" s="56">
+        <f>STDEV(J430:L430)</f>
+        <v>0.2352964404373535</v>
+      </c>
+      <c r="O430" s="56">
+        <f>IF(ISNUMBER(J430),10^((J430-I430)/H430),IF(J430="&lt;ND&gt;",0,""))</f>
+        <v>12.66871960513648</v>
+      </c>
+      <c r="P430" s="56">
+        <f>IF(ISNUMBER(K430),10^((K430-I430)/H430),IF(K430="&lt;ND&gt;",0,""))</f>
+        <v>15.01310162053253</v>
+      </c>
+      <c r="Q430" s="56">
+        <f>IF(ISNUMBER(L430),10^((L430-I430)/H430),IF(L430="&lt;ND&gt;",0,""))</f>
+        <v>16.91873949115271</v>
+      </c>
+      <c r="R430" s="56">
+        <f>AVERAGE(O430:Q430)</f>
+        <v>14.86685357227391</v>
+      </c>
+      <c r="S430" s="56">
+        <f>STDEV(O430:Q430)</f>
+        <v>2.128781018939697</v>
+      </c>
+      <c r="T430" s="56">
+        <f>-3.3992785693842373</f>
+        <v>-3.399278569384237</v>
+      </c>
+      <c r="U430" s="56">
+        <f>38.146226521223774</f>
+        <v>38.14622652122377</v>
+      </c>
+      <c r="V430" s="56" t="n">
+        <v>33.5630784070338</v>
+      </c>
+      <c r="W430" s="56" t="n">
+        <v>34.0177546399355</v>
+      </c>
+      <c r="X430" s="56" t="n">
+        <v>33.6254182144721</v>
+      </c>
+      <c r="Y430" s="56">
+        <f>AVERAGE(V430:X430)</f>
+        <v>33.73541708714713</v>
+      </c>
+      <c r="Z430" s="56">
+        <f>STDEV(V430:X430)</f>
+        <v>0.2464902293880088</v>
+      </c>
+      <c r="AA430" s="56">
+        <f>IF(ISNUMBER(V430),10^((V430-U430)/T430),IF(V430="&lt;ND&gt;",0,""))</f>
+        <v>22.29825218968494</v>
+      </c>
+      <c r="AB430" s="56">
+        <f>IF(ISNUMBER(W430),10^((W430-U430)/T430),IF(W430="&lt;ND&gt;",0,""))</f>
+        <v>16.38755408120195</v>
+      </c>
+      <c r="AC430" s="56">
+        <f>IF(ISNUMBER(X430),10^((X430-U430)/T430),IF(X430="&lt;ND&gt;",0,""))</f>
+        <v>21.37625857318201</v>
+      </c>
+      <c r="AD430" s="56">
+        <f>AVERAGE(AA430:AC430)</f>
+        <v>20.0206882813563</v>
+      </c>
+      <c r="AE430" s="56">
+        <f>STDEV(AA430:AC430)</f>
+        <v>3.179978953462809</v>
+      </c>
+      <c r="AF430" s="56">
+        <f>-3.00132513791975</f>
+        <v>-3.00132513791975</v>
+      </c>
+      <c r="AG430" s="56">
+        <f>37.90652030736685</f>
+        <v>37.90652030736685</v>
+      </c>
+      <c r="AH430" s="57" t="n">
+        <v>28.2641341997651</v>
+      </c>
+      <c r="AI430" s="57" t="n">
+        <v>28.2242831403525</v>
+      </c>
+      <c r="AJ430" s="57" t="n">
+        <v>28.1894714135886</v>
+      </c>
+      <c r="AK430" s="56">
+        <f>AVERAGE(AH430:AJ430)</f>
+        <v>28.22596291790207</v>
+      </c>
+      <c r="AL430" s="56">
+        <f>STDEV(AH430:AJ430)</f>
+        <v>0.03735972630214861</v>
+      </c>
+      <c r="AM430" s="56">
+        <f>IF(ISNUMBER(AH430),10^((AH430-AG430)/AF430),IF(AH430="&lt;ND&gt;",0,""))</f>
+        <v>1631.960369297565</v>
+      </c>
+      <c r="AN430" s="56">
+        <f>IF(ISNUMBER(AI430),10^((AI430-AG430)/AF430),IF(AI430="&lt;ND&gt;",0,""))</f>
+        <v>1682.625357683976</v>
+      </c>
+      <c r="AO430" s="56">
+        <f>IF(ISNUMBER(AJ430),10^((AJ430-AG430)/AF430),IF(AJ430="&lt;ND&gt;",0,""))</f>
+        <v>1728.169018716729</v>
+      </c>
+      <c r="AP430" s="56">
+        <f>AVERAGE(AM430:AO430)*10</f>
+        <v>16809.1824856609</v>
+      </c>
+      <c r="AQ430" s="56">
+        <f>STDEV(AM430:AO430)</f>
+        <v>48.12703732747528</v>
+      </c>
+      <c r="AR430" s="56">
+        <f>IF(E430="PS",40,500.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AS430" s="56" t="n">
+        <v>21.7474</v>
+      </c>
+      <c r="AT430" s="56" t="n">
+        <v>28.2575</v>
+      </c>
+      <c r="AU430" s="57">
+        <f>IF(AND(AT430&lt;&gt;"",AS430&lt;&gt;""),AT430-AS430,"")</f>
+        <v>6.510100000000001</v>
+      </c>
+      <c r="AV430" s="56" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW430" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX430" s="56">
+        <f>IF(ISERROR(DATEVALUE(A430)),3,IF(DATEVALUE(A430)&gt;=DATE(2021,6,8),3,1.5))</f>
+        <v>3</v>
+      </c>
+      <c r="AY430" s="56" t="n">
+        <v>0.2573</v>
+      </c>
+      <c r="AZ430" s="57">
+        <f>IF(O430&lt;&gt;"",(O430/AX430*100)/AY430,"")</f>
+        <v>1641.238451241934</v>
+      </c>
+      <c r="BA430" s="57">
+        <f>IF(P430&lt;&gt;"",(P430/AX430*100)/AY430,"")</f>
+        <v>1944.954219527469</v>
+      </c>
+      <c r="BB430" s="57">
+        <f>IF(Q430&lt;&gt;"",(Q430/AX430*100)/AY430,"")</f>
+        <v>2191.830482077045</v>
+      </c>
+      <c r="BC430" s="57">
+        <f>IF(AA430&lt;&gt;"",(AA430/AX430*100)/AY430,"")</f>
+        <v>2888.748826232017</v>
+      </c>
+      <c r="BD430" s="57">
+        <f>IF(AB430&lt;&gt;"",(AB430/AX430*100)/AY430,"")</f>
+        <v>2123.015167923559</v>
+      </c>
+      <c r="BE430" s="57">
+        <f>IF(AC430&lt;&gt;"",(AC430/AX430*100)/AY430,"")</f>
+        <v>2769.304129185389</v>
+      </c>
+      <c r="BF430" s="56">
+        <f>AVERAGE(AZ430:BE430)</f>
+        <v>2259.848546031235</v>
+      </c>
+      <c r="BG430" s="56">
+        <f>STDEV(AZ430:BE430)</f>
+        <v>481.7151171120717</v>
+      </c>
+      <c r="BH430" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF430)-2,COLUMN(BF430))&amp;":"&amp;ADDRESS(ROW(BF430)+2,COLUMN(BF430))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF430)-2,COLUMN(BF430))&amp;":"&amp;ADDRESS(ROW(BF430)+2,COLUMN(BF430)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BI430" s="58">
+        <f>IF(O430&lt;&gt;"",O430/(AP430),"")</f>
+        <v>0.0007536785097040594</v>
+      </c>
+      <c r="BJ430" s="58">
+        <f>IF(P430&lt;&gt;"",P430/(AP430),"")</f>
+        <v>0.0008931488270378098</v>
+      </c>
+      <c r="BK430" s="58">
+        <f>IF(Q430&lt;&gt;"",Q430/(AP430),"")</f>
+        <v>0.001006517687911668</v>
+      </c>
+      <c r="BL430" s="58">
+        <f>AVERAGE(BI430:BK430)</f>
+        <v>0.0008844483415511789</v>
+      </c>
+      <c r="BM430" s="58">
+        <f>STDEV(BI430:BK430)</f>
+        <v>0.0001266439352868979</v>
+      </c>
+      <c r="BN430" s="58">
+        <f>IF(AA430&lt;&gt;"",AA430/(AP430),"")</f>
+        <v>0.001326551853946883</v>
+      </c>
+      <c r="BO430" s="58">
+        <f>IF(AB430&lt;&gt;"",AB430/(AP430),"")</f>
+        <v>0.0009749167810618618</v>
+      </c>
+      <c r="BP430" s="58">
+        <f>IF(AC430&lt;&gt;"",AC430/(AP430),"")</f>
+        <v>0.001271701261582297</v>
+      </c>
+      <c r="BQ430" s="58">
+        <f>AVERAGE(BN430:BP430)</f>
+        <v>0.001191056632197014</v>
+      </c>
+      <c r="BR430" s="58">
+        <f>STDEV(BN430:BP430)</f>
+        <v>0.0001891810595890368</v>
+      </c>
+      <c r="BS430" s="58">
+        <f>AVERAGE(BI430:BK430,BN430:BP430)</f>
+        <v>0.001037752486874096</v>
+      </c>
+      <c r="BT430" s="58">
+        <f>STDEV(BI430:BK430,BN430:BP430)</f>
+        <v>0.0002212099840167737</v>
+      </c>
+      <c r="BU430" s="58" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS430)-2,COLUMN(BS430))&amp;":"&amp;ADDRESS(ROW(BS430)+2,COLUMN(BS430))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS430)-2,COLUMN(BS430))&amp;":"&amp;ADDRESS(ROW(BS430)+2,COLUMN(BS430)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BV430" s="56">
+        <f>IF(ISNUMBER(AZ430),AZ430*AU430/40*AW430/AR430*1000,"")</f>
+        <v>267115.6610357529</v>
+      </c>
+      <c r="BW430" s="56">
+        <f>IF(ISNUMBER(BA430),BA430*AU430/40*AW430/AR430*1000,"")</f>
+        <v>316546.1616136444</v>
+      </c>
+      <c r="BX430" s="56">
+        <f>IF(ISNUMBER(BB430),BB430*AU430/40*AW430/AR430*1000,"")</f>
+        <v>356725.8905342444</v>
+      </c>
+      <c r="BY430" s="56">
+        <f>IF(ISNUMBER(BC430),BC430*AU430/40*AW430/AR430*1000,"")</f>
+        <v>470151.0933413265</v>
+      </c>
+      <c r="BZ430" s="56">
+        <f>IF(ISNUMBER(BD430),BD430*AU430/40*AW430/AR430*1000,"")</f>
+        <v>345526.0261174791</v>
+      </c>
+      <c r="CA430" s="56">
+        <f>IF(ISNUMBER(BE430),BE430*AU430/40*AW430/AR430*1000,"")</f>
+        <v>450711.1702852451</v>
+      </c>
+      <c r="CB430" s="56">
+        <f>AVERAGE(BV430:CA430)</f>
+        <v>367796.0004879487</v>
+      </c>
+      <c r="CC430" s="56">
+        <f>STDEV(BV430:CA430)</f>
+        <v>78400.33959778245</v>
+      </c>
+      <c r="CD430" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB430)-2,COLUMN(CB430))&amp;":"&amp;ADDRESS(ROW(CB430)+2,COLUMN(CB430))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB430)-2,COLUMN(CB430))&amp;":"&amp;ADDRESS(ROW(CB430)+2,COLUMN(CB430)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="CE430" s="56">
+        <f>AK430</f>
+        <v>28.22596291790207</v>
+      </c>
+      <c r="CF430" s="56">
+        <f>AVERAGE(30.3803267718027,30.6923326538966)</f>
+        <v>30.53632971284965</v>
+      </c>
+      <c r="CG430" s="59">
+        <f>AVERAGE(27.5628443611506,27.9500713309121)</f>
+        <v>27.75645784603135</v>
+      </c>
+      <c r="CH430" s="56">
+        <f>IF(AND(ISNUMBER(CE430),ISNUMBER(CG430)),CE430-CG430,"")</f>
+        <v>0.4695050718707172</v>
+      </c>
+      <c r="CI430" s="56">
+        <f>IF(AND(ISNUMBER(CF430),ISNUMBER(CG430)),CF430-CG430,"")</f>
+        <v>2.779871866818301</v>
+      </c>
+      <c r="CJ430" s="56">
+        <f>AP430/1.5*100/AY430</f>
+        <v>4355274.643259724</v>
+      </c>
+      <c r="CK430" s="56">
+        <f>CJ430*AU430/40*AW430/AR430*1000</f>
+        <v>708831836.3771282</v>
+      </c>
+    </row>
+    <row r="431" ht="15.75" customHeight="1" s="38">
+      <c r="A431" s="54" t="n">
+        <v>44479</v>
+      </c>
+      <c r="B431" s="54" t="n">
+        <v>44481</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>o.10.10.21</t>
+        </is>
+      </c>
+      <c r="D431" s="55" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E431" s="55" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F431">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <f>IF(OR(COUNT(J431:L431)&lt;=1,COUNT(V431:X431)&lt;=1), 0, IF(AND(COUNTIFS(O431:Q431,"&gt;=4")&gt;=2, COUNTIFS(AA431:AC431,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O431:Q431,"&lt;4")&gt;=2, COUNTIFS(AA431:AC431,"&lt;6")&gt;=2), 1, 1)))</f>
+        <v>2</v>
+      </c>
+      <c r="H431" s="56">
+        <f>-3.726982284840926</f>
+        <v>-3.726982284840926</v>
+      </c>
+      <c r="I431" s="56">
+        <f>38.48961997633373</f>
+        <v>38.48961997633373</v>
+      </c>
+      <c r="J431" s="56" t="n">
+        <v>33.2227013321145</v>
+      </c>
+      <c r="K431" s="56" t="n">
+        <v>33.5050890631762</v>
+      </c>
+      <c r="L431" s="56" t="n">
+        <v>33.3780067616499</v>
+      </c>
+      <c r="M431" s="56">
+        <f>AVERAGE(J431:L431)</f>
+        <v>33.36859905231353</v>
+      </c>
+      <c r="N431" s="56">
+        <f>STDEV(J431:L431)</f>
+        <v>0.1414287326173944</v>
+      </c>
+      <c r="O431" s="56">
+        <f>IF(ISNUMBER(J431),10^((J431-I431)/H431),IF(J431="&lt;ND&gt;",0,""))</f>
+        <v>25.89320765932132</v>
+      </c>
+      <c r="P431" s="56">
+        <f>IF(ISNUMBER(K431),10^((K431-I431)/H431),IF(K431="&lt;ND&gt;",0,""))</f>
+        <v>21.74790304401331</v>
+      </c>
+      <c r="Q431" s="56">
+        <f>IF(ISNUMBER(L431),10^((L431-I431)/H431),IF(L431="&lt;ND&gt;",0,""))</f>
+        <v>23.52422349558908</v>
+      </c>
+      <c r="R431" s="56">
+        <f>AVERAGE(O431:Q431)</f>
+        <v>23.7217780663079</v>
+      </c>
+      <c r="S431" s="56">
+        <f>STDEV(O431:Q431)</f>
+        <v>2.0797015277997</v>
+      </c>
+      <c r="T431" s="56">
+        <f>-3.3992785693842373</f>
+        <v>-3.399278569384237</v>
+      </c>
+      <c r="U431" s="56">
+        <f>38.146226521223774</f>
+        <v>38.14622652122377</v>
+      </c>
+      <c r="V431" s="56" t="n">
+        <v>33.1781028188332</v>
+      </c>
+      <c r="W431" s="56" t="n">
+        <v>33.5297951150058</v>
+      </c>
+      <c r="X431" s="56" t="n">
+        <v>33.2382577190404</v>
+      </c>
+      <c r="Y431" s="56">
+        <f>AVERAGE(V431:X431)</f>
+        <v>33.31538521762647</v>
+      </c>
+      <c r="Z431" s="56">
+        <f>STDEV(V431:X431)</f>
+        <v>0.1881046412914786</v>
+      </c>
+      <c r="AA431" s="56">
+        <f>IF(ISNUMBER(V431),10^((V431-U431)/T431),IF(V431="&lt;ND&gt;",0,""))</f>
+        <v>28.94162870328426</v>
+      </c>
+      <c r="AB431" s="56">
+        <f>IF(ISNUMBER(W431),10^((W431-U431)/T431),IF(W431="&lt;ND&gt;",0,""))</f>
+        <v>22.80668183956479</v>
+      </c>
+      <c r="AC431" s="56">
+        <f>IF(ISNUMBER(X431),10^((X431-U431)/T431),IF(X431="&lt;ND&gt;",0,""))</f>
+        <v>27.78603605836318</v>
+      </c>
+      <c r="AD431" s="56">
+        <f>AVERAGE(AA431:AC431)</f>
+        <v>26.51144886707074</v>
+      </c>
+      <c r="AE431" s="56">
+        <f>STDEV(AA431:AC431)</f>
+        <v>3.260034146496073</v>
+      </c>
+      <c r="AF431" s="56">
+        <f>-3.00132513791975</f>
+        <v>-3.00132513791975</v>
+      </c>
+      <c r="AG431" s="56">
+        <f>37.90652030736685</f>
+        <v>37.90652030736685</v>
+      </c>
+      <c r="AH431" s="57" t="n">
+        <v>26.7776861380347</v>
+      </c>
+      <c r="AI431" s="57" t="n">
+        <v>26.8009898833272</v>
+      </c>
+      <c r="AJ431" s="57" t="n">
+        <v>27.2421698197467</v>
+      </c>
+      <c r="AK431" s="56">
+        <f>AVERAGE(AH431:AJ431)</f>
+        <v>26.9402819470362</v>
+      </c>
+      <c r="AL431" s="56">
+        <f>STDEV(AH431:AJ431)</f>
+        <v>0.2617020861655816</v>
+      </c>
+      <c r="AM431" s="56">
+        <f>IF(ISNUMBER(AH431),10^((AH431-AG431)/AF431),IF(AH431="&lt;ND&gt;",0,""))</f>
+        <v>5104.738871118876</v>
+      </c>
+      <c r="AN431" s="56">
+        <f>IF(ISNUMBER(AI431),10^((AI431-AG431)/AF431),IF(AI431="&lt;ND&gt;",0,""))</f>
+        <v>5014.285357780269</v>
+      </c>
+      <c r="AO431" s="56">
+        <f>IF(ISNUMBER(AJ431),10^((AJ431-AG431)/AF431),IF(AJ431="&lt;ND&gt;",0,""))</f>
+        <v>3574.489258574928</v>
+      </c>
+      <c r="AP431" s="56">
+        <f>AVERAGE(AM431:AO431)*10</f>
+        <v>45645.04495824691</v>
+      </c>
+      <c r="AQ431" s="56">
+        <f>STDEV(AM431:AO431)</f>
+        <v>858.5703739408046</v>
+      </c>
+      <c r="AR431" s="56">
+        <f>IF(E431="PS",40,500.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AS431" s="56" t="n">
+        <v>21.6762</v>
+      </c>
+      <c r="AT431" s="56" t="n">
+        <v>28.1126</v>
+      </c>
+      <c r="AU431" s="57">
+        <f>IF(AND(AT431&lt;&gt;"",AS431&lt;&gt;""),AT431-AS431,"")</f>
+        <v>6.436399999999999</v>
+      </c>
+      <c r="AV431" s="56" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW431" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX431" s="56">
+        <f>IF(ISERROR(DATEVALUE(A431)),3,IF(DATEVALUE(A431)&gt;=DATE(2021,6,8),3,1.5))</f>
+        <v>3</v>
+      </c>
+      <c r="AY431" s="56" t="n">
+        <v>0.2551</v>
+      </c>
+      <c r="AZ431" s="57">
+        <f>IF(O431&lt;&gt;"",(O431/AX431*100)/AY431,"")</f>
+        <v>3383.40620140093</v>
+      </c>
+      <c r="BA431" s="57">
+        <f>IF(P431&lt;&gt;"",(P431/AX431*100)/AY431,"")</f>
+        <v>2841.748731740926</v>
+      </c>
+      <c r="BB431" s="57">
+        <f>IF(Q431&lt;&gt;"",(Q431/AX431*100)/AY431,"")</f>
+        <v>3073.856460941994</v>
+      </c>
+      <c r="BC431" s="57">
+        <f>IF(AA431&lt;&gt;"",(AA431/AX431*100)/AY431,"")</f>
+        <v>3781.736404453712</v>
+      </c>
+      <c r="BD431" s="57">
+        <f>IF(AB431&lt;&gt;"",(AB431/AX431*100)/AY431,"")</f>
+        <v>2980.096934478609</v>
+      </c>
+      <c r="BE431" s="57">
+        <f>IF(AC431&lt;&gt;"",(AC431/AX431*100)/AY431,"")</f>
+        <v>3630.737757528183</v>
+      </c>
+      <c r="BF431" s="56">
+        <f>AVERAGE(AZ431:BE431)</f>
+        <v>3281.930415090725</v>
+      </c>
+      <c r="BG431" s="56">
+        <f>STDEV(AZ431:BE431)</f>
+        <v>376.8097820170931</v>
+      </c>
+      <c r="BH431" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF431)-2,COLUMN(BF431))&amp;":"&amp;ADDRESS(ROW(BF431)+2,COLUMN(BF431))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF431)-2,COLUMN(BF431))&amp;":"&amp;ADDRESS(ROW(BF431)+2,COLUMN(BF431)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BI431" s="58">
+        <f>IF(O431&lt;&gt;"",O431/(AP431),"")</f>
+        <v>0.0005672731329984826</v>
+      </c>
+      <c r="BJ431" s="58">
+        <f>IF(P431&lt;&gt;"",P431/(AP431),"")</f>
+        <v>0.0004764570407128936</v>
+      </c>
+      <c r="BK431" s="58">
+        <f>IF(Q431&lt;&gt;"",Q431/(AP431),"")</f>
+        <v>0.0005153729943109377</v>
+      </c>
+      <c r="BL431" s="58">
+        <f>AVERAGE(BI431:BK431)</f>
+        <v>0.000519701056007438</v>
+      </c>
+      <c r="BM431" s="58">
+        <f>STDEV(BI431:BK431)</f>
+        <v>4.556248174806427e-05</v>
+      </c>
+      <c r="BN431" s="58">
+        <f>IF(AA431&lt;&gt;"",AA431/(AP431),"")</f>
+        <v>0.0006340584992250124</v>
+      </c>
+      <c r="BO431" s="58">
+        <f>IF(AB431&lt;&gt;"",AB431/(AP431),"")</f>
+        <v>0.0004996529603690138</v>
+      </c>
+      <c r="BP431" s="58">
+        <f>IF(AC431&lt;&gt;"",AC431/(AP431),"")</f>
+        <v>0.0006087415640357025</v>
+      </c>
+      <c r="BQ431" s="58">
+        <f>AVERAGE(BN431:BP431)</f>
+        <v>0.0005808176745432428</v>
+      </c>
+      <c r="BR431" s="58">
+        <f>STDEV(BN431:BP431)</f>
+        <v>7.142142481134888e-05</v>
+      </c>
+      <c r="BS431" s="58">
+        <f>AVERAGE(BI431:BK431,BN431:BP431)</f>
+        <v>0.0005502593652753405</v>
+      </c>
+      <c r="BT431" s="58">
+        <f>STDEV(BI431:BK431,BN431:BP431)</f>
+        <v>6.317718088381016e-05</v>
+      </c>
+      <c r="BU431" s="58" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS431)-2,COLUMN(BS431))&amp;":"&amp;ADDRESS(ROW(BS431)+2,COLUMN(BS431))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS431)-2,COLUMN(BS431))&amp;":"&amp;ADDRESS(ROW(BS431)+2,COLUMN(BS431)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BV431" s="56">
+        <f>IF(ISNUMBER(AZ431),AZ431*AU431/40*AW431/AR431*1000,"")</f>
+        <v>544423.8918674235</v>
+      </c>
+      <c r="BW431" s="56">
+        <f>IF(ISNUMBER(BA431),BA431*AU431/40*AW431/AR431*1000,"")</f>
+        <v>457265.7884244323</v>
+      </c>
+      <c r="BX431" s="56">
+        <f>IF(ISNUMBER(BB431),BB431*AU431/40*AW431/AR431*1000,"")</f>
+        <v>494614.2431301762</v>
+      </c>
+      <c r="BY431" s="56">
+        <f>IF(ISNUMBER(BC431),BC431*AU431/40*AW431/AR431*1000,"")</f>
+        <v>608519.2048406467</v>
+      </c>
+      <c r="BZ431" s="56">
+        <f>IF(ISNUMBER(BD431),BD431*AU431/40*AW431/AR431*1000,"")</f>
+        <v>479527.3977269529</v>
+      </c>
+      <c r="CA431" s="56">
+        <f>IF(ISNUMBER(BE431),BE431*AU431/40*AW431/AR431*1000,"")</f>
+        <v>584222.0125638598</v>
+      </c>
+      <c r="CB431" s="56">
+        <f>AVERAGE(BV431:CA431)</f>
+        <v>528095.4230922485</v>
+      </c>
+      <c r="CC431" s="56">
+        <f>STDEV(BV431:CA431)</f>
+        <v>60632.46202437045</v>
+      </c>
+      <c r="CD431" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB431)-2,COLUMN(CB431))&amp;":"&amp;ADDRESS(ROW(CB431)+2,COLUMN(CB431))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB431)-2,COLUMN(CB431))&amp;":"&amp;ADDRESS(ROW(CB431)+2,COLUMN(CB431)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="CE431" s="56">
+        <f>AK431</f>
+        <v>26.9402819470362</v>
+      </c>
+      <c r="CF431" s="56">
+        <f>AVERAGE(28.5840603416806,28.4548537344091)</f>
+        <v>28.51945703804485</v>
+      </c>
+      <c r="CG431" s="59">
+        <f>AVERAGE(25.6470874930719,25.6856619156021)</f>
+        <v>25.666374704337</v>
+      </c>
+      <c r="CH431" s="56">
+        <f>IF(AND(ISNUMBER(CE431),ISNUMBER(CG431)),CE431-CG431,"")</f>
+        <v>1.273907242699195</v>
+      </c>
+      <c r="CI431" s="56">
+        <f>IF(AND(ISNUMBER(CF431),ISNUMBER(CG431)),CF431-CG431,"")</f>
+        <v>2.853082333707846</v>
+      </c>
+      <c r="CJ431" s="56">
+        <f>AP431/1.5*100/AY431</f>
+        <v>11928667.17842595</v>
+      </c>
+      <c r="CK431" s="56">
+        <f>CJ431*AU431/40*AW431/AR431*1000</f>
+        <v>1919441835.68052</v>
+      </c>
+    </row>
+    <row r="432" ht="15.75" customHeight="1" s="38">
+      <c r="A432" s="54" t="n">
+        <v>44480</v>
+      </c>
+      <c r="B432" s="54" t="n">
+        <v>44481</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>o.10.11.21</t>
+        </is>
+      </c>
+      <c r="D432" s="55" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E432" s="55" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F432">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <f>IF(OR(COUNT(J432:L432)&lt;=1,COUNT(V432:X432)&lt;=1), 0, IF(AND(COUNTIFS(O432:Q432,"&gt;=4")&gt;=2, COUNTIFS(AA432:AC432,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O432:Q432,"&lt;4")&gt;=2, COUNTIFS(AA432:AC432,"&lt;6")&gt;=2), 1, 1)))</f>
+        <v>2</v>
+      </c>
+      <c r="H432" s="56">
+        <f>-3.726982284840926</f>
+        <v>-3.726982284840926</v>
+      </c>
+      <c r="I432" s="56">
+        <f>38.48961997633373</f>
+        <v>38.48961997633373</v>
+      </c>
+      <c r="J432" s="56" t="n">
+        <v>33.4207592863101</v>
+      </c>
+      <c r="K432" s="56" t="n">
+        <v>33.9623019375468</v>
+      </c>
+      <c r="L432" s="56" t="n">
+        <v>33.2768597987</v>
+      </c>
+      <c r="M432" s="56">
+        <f>AVERAGE(J432:L432)</f>
+        <v>33.55330700751897</v>
+      </c>
+      <c r="N432" s="56">
+        <f>STDEV(J432:L432)</f>
+        <v>0.3614338185961087</v>
+      </c>
+      <c r="O432" s="56">
+        <f>IF(ISNUMBER(J432),10^((J432-I432)/H432),IF(J432="&lt;ND&gt;",0,""))</f>
+        <v>22.91100886801575</v>
+      </c>
+      <c r="P432" s="56">
+        <f>IF(ISNUMBER(K432),10^((K432-I432)/H432),IF(K432="&lt;ND&gt;",0,""))</f>
+        <v>16.39611516303003</v>
+      </c>
+      <c r="Q432" s="56">
+        <f>IF(ISNUMBER(L432),10^((L432-I432)/H432),IF(L432="&lt;ND&gt;",0,""))</f>
+        <v>25.04115760844877</v>
+      </c>
+      <c r="R432" s="56">
+        <f>AVERAGE(O432:Q432)</f>
+        <v>21.44942721316485</v>
+      </c>
+      <c r="S432" s="56">
+        <f>STDEV(O432:Q432)</f>
+        <v>4.504037679806914</v>
+      </c>
+      <c r="T432" s="56">
+        <f>-3.3992785693842373</f>
+        <v>-3.399278569384237</v>
+      </c>
+      <c r="U432" s="56">
+        <f>38.146226521223774</f>
+        <v>38.14622652122377</v>
+      </c>
+      <c r="V432" s="56" t="n">
+        <v>33.32511033814</v>
+      </c>
+      <c r="W432" s="56" t="n">
+        <v>34.1664847349362</v>
+      </c>
+      <c r="X432" s="56" t="n">
+        <v>34.075479841507</v>
+      </c>
+      <c r="Y432" s="56">
+        <f>AVERAGE(V432:X432)</f>
+        <v>33.8556916381944</v>
+      </c>
+      <c r="Z432" s="56">
+        <f>STDEV(V432:X432)</f>
+        <v>0.461744366108106</v>
+      </c>
+      <c r="AA432" s="56">
+        <f>IF(ISNUMBER(V432),10^((V432-U432)/T432),IF(V432="&lt;ND&gt;",0,""))</f>
+        <v>26.19849150473947</v>
+      </c>
+      <c r="AB432" s="56">
+        <f>IF(ISNUMBER(W432),10^((W432-U432)/T432),IF(W432="&lt;ND&gt;",0,""))</f>
+        <v>14.81701458931433</v>
+      </c>
+      <c r="AC432" s="56">
+        <f>IF(ISNUMBER(X432),10^((X432-U432)/T432),IF(X432="&lt;ND&gt;",0,""))</f>
+        <v>15.7591407447618</v>
+      </c>
+      <c r="AD432" s="56">
+        <f>AVERAGE(AA432:AC432)</f>
+        <v>18.9248822796052</v>
+      </c>
+      <c r="AE432" s="56">
+        <f>STDEV(AA432:AC432)</f>
+        <v>6.316719385342626</v>
+      </c>
+      <c r="AF432" s="56">
+        <f>-3.00132513791975</f>
+        <v>-3.00132513791975</v>
+      </c>
+      <c r="AG432" s="56">
+        <f>37.90652030736685</f>
+        <v>37.90652030736685</v>
+      </c>
+      <c r="AH432" s="57" t="n">
+        <v>27.5830269313148</v>
+      </c>
+      <c r="AI432" s="57" t="n">
+        <v>27.8181741635835</v>
+      </c>
+      <c r="AJ432" s="57" t="n">
+        <v>27.9635255964604</v>
+      </c>
+      <c r="AK432" s="56">
+        <f>AVERAGE(AH432:AJ432)</f>
+        <v>27.7882422304529</v>
+      </c>
+      <c r="AL432" s="56">
+        <f>STDEV(AH432:AJ432)</f>
+        <v>0.1920071587470023</v>
+      </c>
+      <c r="AM432" s="56">
+        <f>IF(ISNUMBER(AH432),10^((AH432-AG432)/AF432),IF(AH432="&lt;ND&gt;",0,""))</f>
+        <v>2751.979053389574</v>
+      </c>
+      <c r="AN432" s="56">
+        <f>IF(ISNUMBER(AI432),10^((AI432-AG432)/AF432),IF(AI432="&lt;ND&gt;",0,""))</f>
+        <v>2297.721142439833</v>
+      </c>
+      <c r="AO432" s="56">
+        <f>IF(ISNUMBER(AJ432),10^((AJ432-AG432)/AF432),IF(AJ432="&lt;ND&gt;",0,""))</f>
+        <v>2055.266930904304</v>
+      </c>
+      <c r="AP432" s="56">
+        <f>AVERAGE(AM432:AO432)*10</f>
+        <v>23683.22375577904</v>
+      </c>
+      <c r="AQ432" s="56">
+        <f>STDEV(AM432:AO432)</f>
+        <v>353.68113604622</v>
+      </c>
+      <c r="AR432" s="56">
+        <f>IF(E432="PS",40,500.0)</f>
+        <v>40</v>
+      </c>
+      <c r="AS432" s="56" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="AT432" s="56" t="n">
+        <v>27.7818</v>
+      </c>
+      <c r="AU432" s="57">
+        <f>IF(AND(AT432&lt;&gt;"",AS432&lt;&gt;""),AT432-AS432,"")</f>
+        <v>6.201800000000002</v>
+      </c>
+      <c r="AV432" s="56" t="n">
+        <v>500</v>
+      </c>
+      <c r="AW432" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX432" s="56">
+        <f>IF(ISERROR(DATEVALUE(A432)),3,IF(DATEVALUE(A432)&gt;=DATE(2021,6,8),3,1.5))</f>
+        <v>3</v>
+      </c>
+      <c r="AY432" s="56" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="AZ432" s="57">
+        <f>IF(O432&lt;&gt;"",(O432/AX432*100)/AY432,"")</f>
+        <v>2956.640710803426</v>
+      </c>
+      <c r="BA432" s="57">
+        <f>IF(P432&lt;&gt;"",(P432/AX432*100)/AY432,"")</f>
+        <v>2115.900782427413</v>
+      </c>
+      <c r="BB432" s="57">
+        <f>IF(Q432&lt;&gt;"",(Q432/AX432*100)/AY432,"")</f>
+        <v>3231.534082907313</v>
+      </c>
+      <c r="BC432" s="57">
+        <f>IF(AA432&lt;&gt;"",(AA432/AX432*100)/AY432,"")</f>
+        <v>3380.886760193505</v>
+      </c>
+      <c r="BD432" s="57">
+        <f>IF(AB432&lt;&gt;"",(AB432/AX432*100)/AY432,"")</f>
+        <v>1912.119575340602</v>
+      </c>
+      <c r="BE432" s="57">
+        <f>IF(AC432&lt;&gt;"",(AC432/AX432*100)/AY432,"")</f>
+        <v>2033.699928347117</v>
+      </c>
+      <c r="BF432" s="56">
+        <f>AVERAGE(AZ432:BE432)</f>
+        <v>2605.130306669897</v>
+      </c>
+      <c r="BG432" s="56">
+        <f>STDEV(AZ432:BE432)</f>
+        <v>657.857341477671</v>
+      </c>
+      <c r="BH432" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF432)-2,COLUMN(BF432))&amp;":"&amp;ADDRESS(ROW(BF432)+2,COLUMN(BF432))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF432)-2,COLUMN(BF432))&amp;":"&amp;ADDRESS(ROW(BF432)+2,COLUMN(BF432)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BI432" s="58">
+        <f>IF(O432&lt;&gt;"",O432/(AP432),"")</f>
+        <v>0.0009673940129212831</v>
+      </c>
+      <c r="BJ432" s="58">
+        <f>IF(P432&lt;&gt;"",P432/(AP432),"")</f>
+        <v>0.0006923092621218488</v>
+      </c>
+      <c r="BK432" s="58">
+        <f>IF(Q432&lt;&gt;"",Q432/(AP432),"")</f>
+        <v>0.001057337373774479</v>
+      </c>
+      <c r="BL432" s="58">
+        <f>AVERAGE(BI432:BK432)</f>
+        <v>0.0009056802162725371</v>
+      </c>
+      <c r="BM432" s="58">
+        <f>STDEV(BI432:BK432)</f>
+        <v>0.0001901784033395312</v>
+      </c>
+      <c r="BN432" s="58">
+        <f>IF(AA432&lt;&gt;"",AA432/(AP432),"")</f>
+        <v>0.001106204618716515</v>
+      </c>
+      <c r="BO432" s="58">
+        <f>IF(AB432&lt;&gt;"",AB432/(AP432),"")</f>
+        <v>0.0006256333488256118</v>
+      </c>
+      <c r="BP432" s="58">
+        <f>IF(AC432&lt;&gt;"",AC432/(AP432),"")</f>
+        <v>0.0006654136661152962</v>
+      </c>
+      <c r="BQ432" s="58">
+        <f>AVERAGE(BN432:BP432)</f>
+        <v>0.0007990838778858078</v>
+      </c>
+      <c r="BR432" s="58">
+        <f>STDEV(BN432:BP432)</f>
+        <v>0.0002667170420074783</v>
+      </c>
+      <c r="BS432" s="58">
+        <f>AVERAGE(BI432:BK432,BN432:BP432)</f>
+        <v>0.0008523820470791723</v>
+      </c>
+      <c r="BT432" s="58">
+        <f>STDEV(BI432:BK432,BN432:BP432)</f>
+        <v>0.0002152467329481086</v>
+      </c>
+      <c r="BU432" s="58" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS432)-2,COLUMN(BS432))&amp;":"&amp;ADDRESS(ROW(BS432)+2,COLUMN(BS432))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS432)-2,COLUMN(BS432))&amp;":"&amp;ADDRESS(ROW(BS432)+2,COLUMN(BS432)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="BV432" s="56">
+        <f>IF(ISNUMBER(AZ432),AZ432*AU432/40*AW432/AR432*1000,"")</f>
+        <v>458412.3590065173</v>
+      </c>
+      <c r="BW432" s="56">
+        <f>IF(ISNUMBER(BA432),BA432*AU432/40*AW432/AR432*1000,"")</f>
+        <v>328059.8368114584</v>
+      </c>
+      <c r="BX432" s="56">
+        <f>IF(ISNUMBER(BB432),BB432*AU432/40*AW432/AR432*1000,"")</f>
+        <v>501033.2018843645</v>
+      </c>
+      <c r="BY432" s="56">
+        <f>IF(ISNUMBER(BC432),BC432*AU432/40*AW432/AR432*1000,"")</f>
+        <v>524189.5877342022</v>
+      </c>
+      <c r="BZ432" s="56">
+        <f>IF(ISNUMBER(BD432),BD432*AU432/40*AW432/AR432*1000,"")</f>
+        <v>296464.5795586838</v>
+      </c>
+      <c r="CA432" s="56">
+        <f>IF(ISNUMBER(BE432),BE432*AU432/40*AW432/AR432*1000,"")</f>
+        <v>315315.0053905788</v>
+      </c>
+      <c r="CB432" s="56">
+        <f>AVERAGE(BV432:CA432)</f>
+        <v>403912.4283976342</v>
+      </c>
+      <c r="CC432" s="56">
+        <f>STDEV(BV432:CA432)</f>
+        <v>101997.4915094055</v>
+      </c>
+      <c r="CD432" s="56" t="str">
+        <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB432)-2,COLUMN(CB432))&amp;":"&amp;ADDRESS(ROW(CB432)+2,COLUMN(CB432))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB432)-2,COLUMN(CB432))&amp;":"&amp;ADDRESS(ROW(CB432)+2,COLUMN(CB432)))),""),"")</f>
+        <v/>
+      </c>
+      <c r="CE432" s="56">
+        <f>AK432</f>
+        <v>27.7882422304529</v>
+      </c>
+      <c r="CF432" s="56">
+        <f>AVERAGE(29.5416809730035,29.6513854760812)</f>
+        <v>29.59653322454235</v>
+      </c>
+      <c r="CG432" s="59">
+        <f>AVERAGE(26.9672483824832,26.7127755716068)</f>
+        <v>26.840011977045</v>
+      </c>
+      <c r="CH432" s="56">
+        <f>IF(AND(ISNUMBER(CE432),ISNUMBER(CG432)),CE432-CG432,"")</f>
+        <v>0.9482302534078961</v>
+      </c>
+      <c r="CI432" s="56">
+        <f>IF(AND(ISNUMBER(CF432),ISNUMBER(CG432)),CF432-CG432,"")</f>
+        <v>2.756521247497346</v>
+      </c>
+      <c r="CJ432" s="56">
+        <f>AP432/1.5*100/AY432</f>
+        <v>6112588.39999459</v>
+      </c>
+      <c r="CK432" s="56">
+        <f>CJ432*AU432/40*AW432/AR432*1000</f>
+        <v>947726268.4771616</v>
+      </c>
+    </row>
     <row r="433" ht="15.75" customHeight="1" s="38"/>
     <row r="434" ht="15.75" customHeight="1" s="38"/>
     <row r="435" ht="15.75" customHeight="1" s="38"/>

--- a/Ottawa/Data/ottawa_data.xlsx
+++ b/Ottawa/Data/ottawa_data.xlsx
@@ -18,7 +18,7 @@
     <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <name val="Arial"/>
       <color theme="1"/>
@@ -65,6 +65,18 @@
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -303,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -432,30 +444,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -954,8 +982,8 @@
           <t>ct_n1</t>
         </is>
       </c>
-      <c r="K1" s="51" t="n"/>
-      <c r="L1" s="52" t="n"/>
+      <c r="K1" s="57" t="n"/>
+      <c r="L1" s="58" t="n"/>
       <c r="M1" s="7" t="inlineStr">
         <is>
           <t>ct_n1_avg</t>
@@ -971,8 +999,8 @@
           <t>copies_n1</t>
         </is>
       </c>
-      <c r="P1" s="51" t="n"/>
-      <c r="Q1" s="52" t="n"/>
+      <c r="P1" s="57" t="n"/>
+      <c r="Q1" s="58" t="n"/>
       <c r="R1" s="7" t="inlineStr">
         <is>
           <t>copies_n1_avg</t>
@@ -998,8 +1026,8 @@
           <t>ct_n2</t>
         </is>
       </c>
-      <c r="W1" s="51" t="n"/>
-      <c r="X1" s="52" t="n"/>
+      <c r="W1" s="57" t="n"/>
+      <c r="X1" s="58" t="n"/>
       <c r="Y1" s="8" t="inlineStr">
         <is>
           <t>ct_n2_avg</t>
@@ -1015,8 +1043,8 @@
           <t>copies_n2</t>
         </is>
       </c>
-      <c r="AB1" s="51" t="n"/>
-      <c r="AC1" s="52" t="n"/>
+      <c r="AB1" s="57" t="n"/>
+      <c r="AC1" s="58" t="n"/>
       <c r="AD1" s="8" t="inlineStr">
         <is>
           <t>copies_n2_avg</t>
@@ -1042,8 +1070,8 @@
           <t>ct_pep</t>
         </is>
       </c>
-      <c r="AI1" s="51" t="n"/>
-      <c r="AJ1" s="52" t="n"/>
+      <c r="AI1" s="57" t="n"/>
+      <c r="AJ1" s="58" t="n"/>
       <c r="AK1" s="12" t="inlineStr">
         <is>
           <t>ct_pep_avg</t>
@@ -1059,8 +1087,8 @@
           <t>copies_pep</t>
         </is>
       </c>
-      <c r="AN1" s="51" t="n"/>
-      <c r="AO1" s="52" t="n"/>
+      <c r="AN1" s="57" t="n"/>
+      <c r="AO1" s="58" t="n"/>
       <c r="AP1" s="10" t="inlineStr">
         <is>
           <t>copies_pep_avg</t>
@@ -1111,20 +1139,20 @@
           <t>extracted_mass_g</t>
         </is>
       </c>
-      <c r="AZ1" s="53" t="inlineStr">
+      <c r="AZ1" s="59" t="inlineStr">
         <is>
           <t>n1_copies_per_extracted_mass_cp/g</t>
         </is>
       </c>
-      <c r="BA1" s="51" t="n"/>
-      <c r="BB1" s="52" t="n"/>
-      <c r="BC1" s="53" t="inlineStr">
+      <c r="BA1" s="57" t="n"/>
+      <c r="BB1" s="58" t="n"/>
+      <c r="BC1" s="59" t="inlineStr">
         <is>
           <t>n2_copies_per_extracted_mass_cp/g</t>
         </is>
       </c>
-      <c r="BD1" s="51" t="n"/>
-      <c r="BE1" s="52" t="n"/>
+      <c r="BD1" s="57" t="n"/>
+      <c r="BE1" s="58" t="n"/>
       <c r="BF1" s="13" t="inlineStr">
         <is>
           <t>viral_copies_per_extracted_mass_cp/g_avg</t>
@@ -1145,8 +1173,8 @@
           <t>n1_copies_per_copies_pep</t>
         </is>
       </c>
-      <c r="BJ1" s="51" t="n"/>
-      <c r="BK1" s="52" t="n"/>
+      <c r="BJ1" s="57" t="n"/>
+      <c r="BK1" s="58" t="n"/>
       <c r="BL1" s="17" t="inlineStr">
         <is>
           <t>n1_copies_per_copies_pep_avg</t>
@@ -1162,8 +1190,8 @@
           <t>n2_copies_per_copies_pep</t>
         </is>
       </c>
-      <c r="BO1" s="51" t="n"/>
-      <c r="BP1" s="52" t="n"/>
+      <c r="BO1" s="57" t="n"/>
+      <c r="BP1" s="58" t="n"/>
       <c r="BQ1" s="19" t="inlineStr">
         <is>
           <t>n2_copies_per_copies_pep_avg</t>
@@ -1194,15 +1222,15 @@
           <t>n1_copies_per_liter</t>
         </is>
       </c>
-      <c r="BW1" s="51" t="n"/>
-      <c r="BX1" s="52" t="n"/>
+      <c r="BW1" s="57" t="n"/>
+      <c r="BX1" s="58" t="n"/>
       <c r="BY1" s="23" t="inlineStr">
         <is>
           <t>n2_copies_per_liter</t>
         </is>
       </c>
-      <c r="BZ1" s="51" t="n"/>
-      <c r="CA1" s="52" t="n"/>
+      <c r="BZ1" s="57" t="n"/>
+      <c r="CA1" s="58" t="n"/>
       <c r="CB1" s="22" t="inlineStr">
         <is>
           <t>viral_copies_per_liter_avg</t>
@@ -29923,13 +29951,13 @@
       <c r="CM408" s="40" t="n"/>
       <c r="CN408" s="40" t="n"/>
       <c r="CO408" s="40" t="n"/>
-      <c r="CP408" s="48" t="b">
+      <c r="CP408" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="CQ408" s="48" t="b">
+      <c r="CQ408" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="CR408" s="48" t="n">
+      <c r="CR408" s="50" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29998,7 +30026,7 @@
       <c r="CM409" s="40" t="n"/>
       <c r="CN409" s="40" t="n"/>
       <c r="CO409" s="40" t="n"/>
-      <c r="CP409" s="48" t="b">
+      <c r="CP409" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30067,7 +30095,7 @@
       <c r="CM410" s="40" t="n"/>
       <c r="CN410" s="40" t="n"/>
       <c r="CO410" s="40" t="n"/>
-      <c r="CP410" s="48" t="b">
+      <c r="CP410" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30136,7 +30164,7 @@
       <c r="CM411" s="40" t="n"/>
       <c r="CN411" s="40" t="n"/>
       <c r="CO411" s="40" t="n"/>
-      <c r="CP411" s="48" t="b">
+      <c r="CP411" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30205,7 +30233,7 @@
       <c r="CM412" s="40" t="n"/>
       <c r="CN412" s="40" t="n"/>
       <c r="CO412" s="40" t="n"/>
-      <c r="CP412" s="48" t="b">
+      <c r="CP412" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30274,7 +30302,7 @@
       <c r="CM413" s="40" t="n"/>
       <c r="CN413" s="40" t="n"/>
       <c r="CO413" s="40" t="n"/>
-      <c r="CP413" s="48" t="b">
+      <c r="CP413" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30343,7 +30371,7 @@
       <c r="CM414" s="40" t="n"/>
       <c r="CN414" s="40" t="n"/>
       <c r="CO414" s="40" t="n"/>
-      <c r="CP414" s="48" t="b">
+      <c r="CP414" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30412,7 +30440,7 @@
       <c r="CM415" s="40" t="n"/>
       <c r="CN415" s="40" t="n"/>
       <c r="CO415" s="40" t="n"/>
-      <c r="CP415" s="48" t="b">
+      <c r="CP415" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30481,7 +30509,7 @@
       <c r="CM416" s="40" t="n"/>
       <c r="CN416" s="40" t="n"/>
       <c r="CO416" s="40" t="n"/>
-      <c r="CP416" s="48" t="b">
+      <c r="CP416" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30550,7 +30578,7 @@
       <c r="CM417" s="40" t="n"/>
       <c r="CN417" s="40" t="n"/>
       <c r="CO417" s="40" t="n"/>
-      <c r="CP417" s="48" t="b">
+      <c r="CP417" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30619,7 +30647,7 @@
       <c r="CM418" s="40" t="n"/>
       <c r="CN418" s="40" t="n"/>
       <c r="CO418" s="40" t="n"/>
-      <c r="CP418" s="48" t="b">
+      <c r="CP418" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30688,7 +30716,7 @@
       <c r="CM419" s="40" t="n"/>
       <c r="CN419" s="40" t="n"/>
       <c r="CO419" s="40" t="n"/>
-      <c r="CP419" s="48" t="b">
+      <c r="CP419" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30757,7 +30785,7 @@
       <c r="CM420" s="40" t="n"/>
       <c r="CN420" s="40" t="n"/>
       <c r="CO420" s="40" t="n"/>
-      <c r="CP420" s="48" t="b">
+      <c r="CP420" s="50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -30826,22 +30854,22 @@
       <c r="CM421" s="40" t="n"/>
       <c r="CN421" s="40" t="n"/>
       <c r="CO421" s="40" t="n"/>
-      <c r="CP421" s="48" t="b">
+      <c r="CP421" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1" s="38">
-      <c r="A422" s="48" t="inlineStr">
+      <c r="A422" s="50" t="inlineStr">
         <is>
           <t>2021-10-01</t>
         </is>
       </c>
-      <c r="B422" s="48" t="inlineStr">
+      <c r="B422" s="50" t="inlineStr">
         <is>
           <t>2021-10-04</t>
         </is>
       </c>
-      <c r="C422" s="48" t="inlineStr">
+      <c r="C422" s="50" t="inlineStr">
         <is>
           <t>o.10.01.21</t>
         </is>
@@ -30855,11 +30883,11 @@
         <f>"PS"</f>
         <v>PS</v>
       </c>
-      <c r="F422" s="48">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G422" s="48">
+      <c r="F422" s="50">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G422" s="50">
         <f>IF(OR(COUNT(J422:L422)&lt;=1,COUNT(V422:X422)&lt;=1), 0, IF(AND(COUNTIFS(O422:Q422,"&gt;=4")&gt;=2, COUNTIFS(AA422:AC422,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O422:Q422,"&lt;4")&gt;=2, COUNTIFS(AA422:AC422,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
@@ -31157,7 +31185,7 @@
         <f>AVERAGE(28.0515676616656,28.3192410580465)</f>
         <v>28.18540435985605</v>
       </c>
-      <c r="CG422" s="49">
+      <c r="CG422" s="48">
         <f>AVERAGE(24.6936087574342,24.4462583892911)</f>
         <v>24.56993357336265</v>
       </c>
@@ -31180,22 +31208,22 @@
       <c r="CL422" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="CP422" s="48" t="b">
+      <c r="CP422" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1" s="38">
-      <c r="A423" s="48" t="inlineStr">
+      <c r="A423" s="50" t="inlineStr">
         <is>
           <t>2021-10-02</t>
         </is>
       </c>
-      <c r="B423" s="48" t="inlineStr">
+      <c r="B423" s="50" t="inlineStr">
         <is>
           <t>2021-10-04</t>
         </is>
       </c>
-      <c r="C423" s="48" t="inlineStr">
+      <c r="C423" s="50" t="inlineStr">
         <is>
           <t>o.10.02.21</t>
         </is>
@@ -31209,11 +31237,11 @@
         <f>"PS"</f>
         <v>PS</v>
       </c>
-      <c r="F423" s="48">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G423" s="48">
+      <c r="F423" s="50">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G423" s="50">
         <f>IF(OR(COUNT(J423:L423)&lt;=1,COUNT(V423:X423)&lt;=1), 0, IF(AND(COUNTIFS(O423:Q423,"&gt;=4")&gt;=2, COUNTIFS(AA423:AC423,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O423:Q423,"&lt;4")&gt;=2, COUNTIFS(AA423:AC423,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
@@ -31513,7 +31541,7 @@
         <f>AVERAGE(28.211638183834,28.2172024666118)</f>
         <v>28.2144203252229</v>
       </c>
-      <c r="CG423" s="49">
+      <c r="CG423" s="48">
         <f>AVERAGE(25.2907454958523,25.623156314063)</f>
         <v>25.45695090495765</v>
       </c>
@@ -31536,22 +31564,22 @@
       <c r="CL423" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="CP423" s="48" t="b">
+      <c r="CP423" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1" s="38">
-      <c r="A424" s="48" t="inlineStr">
+      <c r="A424" s="50" t="inlineStr">
         <is>
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="B424" s="48" t="inlineStr">
+      <c r="B424" s="50" t="inlineStr">
         <is>
           <t>2021-10-04</t>
         </is>
       </c>
-      <c r="C424" s="48" t="inlineStr">
+      <c r="C424" s="50" t="inlineStr">
         <is>
           <t>o.10.03.21</t>
         </is>
@@ -31565,11 +31593,11 @@
         <f>"PS"</f>
         <v>PS</v>
       </c>
-      <c r="F424" s="48">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G424" s="48">
+      <c r="F424" s="50">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G424" s="50">
         <f>IF(OR(COUNT(J424:L424)&lt;=1,COUNT(V424:X424)&lt;=1), 0, IF(AND(COUNTIFS(O424:Q424,"&gt;=4")&gt;=2, COUNTIFS(AA424:AC424,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O424:Q424,"&lt;4")&gt;=2, COUNTIFS(AA424:AC424,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
@@ -31819,7 +31847,7 @@
         <f>STDEV(BI424:BK424,BN424:BP424)</f>
         <v>1.722453614173239e-05</v>
       </c>
-      <c r="BU424" s="35" t="str">
+      <c r="BU424" s="37" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS424)-2,COLUMN(BS424))&amp;":"&amp;ADDRESS(ROW(BS424)+2,COLUMN(BS424))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS424)-2,COLUMN(BS424))&amp;":"&amp;ADDRESS(ROW(BS424)+2,COLUMN(BS424)))),""),"")</f>
         <v/>
       </c>
@@ -31867,7 +31895,7 @@
         <f>AVERAGE(28.192572325382,28.2593730046925)</f>
         <v>28.22597266503725</v>
       </c>
-      <c r="CG424" s="49">
+      <c r="CG424" s="48">
         <f>AVERAGE(25.2692846407438,25.0170647441934)</f>
         <v>25.1431746924686</v>
       </c>
@@ -31890,18 +31918,18 @@
       <c r="CL424" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="CP424" s="48" t="b">
+      <c r="CP424" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" s="38">
-      <c r="A425" s="50" t="n">
+      <c r="A425" s="49" t="n">
         <v>44473</v>
       </c>
-      <c r="B425" s="50" t="n">
+      <c r="B425" s="49" t="n">
         <v>44474</v>
       </c>
-      <c r="C425" s="48" t="inlineStr">
+      <c r="C425" s="50" t="inlineStr">
         <is>
           <t>o.10.04.21</t>
         </is>
@@ -31915,11 +31943,11 @@
         <f>"PS"</f>
         <v>PS</v>
       </c>
-      <c r="F425" s="48">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G425" s="48">
+      <c r="F425" s="50">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G425" s="50">
         <f>IF(OR(COUNT(J425:L425)&lt;=1,COUNT(V425:X425)&lt;=1), 0, IF(AND(COUNTIFS(O425:Q425,"&gt;=4")&gt;=2, COUNTIFS(AA425:AC425,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O425:Q425,"&lt;4")&gt;=2, COUNTIFS(AA425:AC425,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>1</v>
       </c>
@@ -32171,7 +32199,7 @@
         <f>STDEV(BI425:BK425,BN425:BP425)</f>
         <v>1.131880890275582e-05</v>
       </c>
-      <c r="BU425" s="35" t="str">
+      <c r="BU425" s="37" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS425)-2,COLUMN(BS425))&amp;":"&amp;ADDRESS(ROW(BS425)+2,COLUMN(BS425))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS425)-2,COLUMN(BS425))&amp;":"&amp;ADDRESS(ROW(BS425)+2,COLUMN(BS425)))),""),"")</f>
         <v/>
       </c>
@@ -32219,7 +32247,7 @@
         <f>AVERAGE(28.99,29.07)</f>
         <v>29.03</v>
       </c>
-      <c r="CG425" s="49">
+      <c r="CG425" s="48">
         <f>AVERAGE(24.63,24.63)</f>
         <v>24.63</v>
       </c>
@@ -32241,1048 +32269,1048 @@
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1" s="38">
-      <c r="A426" s="54" t="n">
+      <c r="A426" s="49" t="n">
         <v>44474</v>
       </c>
-      <c r="B426" s="54" t="n">
+      <c r="B426" s="49" t="n">
         <v>44475</v>
       </c>
-      <c r="C426" s="0" t="inlineStr">
+      <c r="C426" s="50" t="inlineStr">
         <is>
           <t>o.10.05.21</t>
         </is>
       </c>
-      <c r="D426" s="55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E426" s="55" t="str">
-        <f>"PS"</f>
-        <v>PS</v>
-      </c>
-      <c r="F426" s="0">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G426" s="0">
+      <c r="D426" s="31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E426" s="31" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F426" s="50">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G426" s="50">
         <f>IF(OR(COUNT(J426:L426)&lt;=1,COUNT(V426:X426)&lt;=1), 0, IF(AND(COUNTIFS(O426:Q426,"&gt;=4")&gt;=2, COUNTIFS(AA426:AC426,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O426:Q426,"&lt;4")&gt;=2, COUNTIFS(AA426:AC426,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>1</v>
       </c>
-      <c r="H426" s="56">
-        <f>-3.3014882071394873</f>
-        <v>-3.301488207139487</v>
-      </c>
-      <c r="I426" s="56">
-        <f>37.802158746388024</f>
-        <v>37.80215874638802</v>
-      </c>
-      <c r="J426" s="56" t="n">
+      <c r="H426" s="32">
+        <f>-3.30148820713948</f>
+        <v>-3.30148820713948</v>
+      </c>
+      <c r="I426" s="32">
+        <f>37.802158746388</f>
+        <v>37.802158746388</v>
+      </c>
+      <c r="J426" s="32" t="n">
         <v>35.0000659006434</v>
       </c>
-      <c r="K426" s="56" t="n">
+      <c r="K426" s="32" t="n">
         <v>34.5698217087391</v>
       </c>
-      <c r="L426" s="56" t="n">
+      <c r="L426" s="32" t="n">
         <v>34.9962119467396</v>
       </c>
-      <c r="M426" s="56">
+      <c r="M426" s="32">
         <f>AVERAGE(J426:L426)</f>
         <v>34.85536651870737</v>
       </c>
-      <c r="N426" s="56">
+      <c r="N426" s="32">
         <f>STDEV(J426:L426)</f>
         <v>0.2472965671315182</v>
       </c>
-      <c r="O426" s="56">
+      <c r="O426" s="32">
         <f>IF(ISNUMBER(J426),10^((J426-I426)/H426),IF(J426="&lt;ND&gt;",0,""))</f>
-        <v>7.058887947577123</v>
-      </c>
-      <c r="P426" s="56">
+        <v>7.058887947577049</v>
+      </c>
+      <c r="P426" s="32">
         <f>IF(ISNUMBER(K426),10^((K426-I426)/H426),IF(K426="&lt;ND&gt;",0,""))</f>
-        <v>9.5291583961702</v>
-      </c>
-      <c r="Q426" s="56">
+        <v>9.529158396170102</v>
+      </c>
+      <c r="Q426" s="32">
         <f>IF(ISNUMBER(L426),10^((L426-I426)/H426),IF(L426="&lt;ND&gt;",0,""))</f>
-        <v>7.077887026295481</v>
-      </c>
-      <c r="R426" s="56">
+        <v>7.077887026295405</v>
+      </c>
+      <c r="R426" s="32">
         <f>AVERAGE(O426:Q426)</f>
-        <v>7.888644456680935</v>
-      </c>
-      <c r="S426" s="56">
+        <v>7.888644456680853</v>
+      </c>
+      <c r="S426" s="32">
         <f>STDEV(O426:Q426)</f>
-        <v>1.420758505338602</v>
-      </c>
-      <c r="T426" s="56">
-        <f>-3.224496517881488</f>
-        <v>-3.224496517881488</v>
-      </c>
-      <c r="U426" s="56">
-        <f>37.86730864337595</f>
-        <v>37.86730864337595</v>
-      </c>
-      <c r="V426" s="56" t="n">
+        <v>1.420758505338588</v>
+      </c>
+      <c r="T426" s="32">
+        <f>-3.22449651788148</f>
+        <v>-3.22449651788148</v>
+      </c>
+      <c r="U426" s="32">
+        <f>37.8673086433759</f>
+        <v>37.8673086433759</v>
+      </c>
+      <c r="V426" s="32" t="n">
         <v>35.3715161840431</v>
       </c>
-      <c r="W426" s="56" t="n">
+      <c r="W426" s="32" t="n">
         <v>35.7027549894417</v>
       </c>
-      <c r="X426" s="56" t="n">
+      <c r="X426" s="32" t="n">
         <v>34.8337680802843</v>
       </c>
-      <c r="Y426" s="56">
+      <c r="Y426" s="32">
         <f>AVERAGE(V426:X426)</f>
         <v>35.30267975125637</v>
       </c>
-      <c r="Z426" s="56">
+      <c r="Z426" s="32">
         <f>STDEV(V426:X426)</f>
         <v>0.4385640237534705</v>
       </c>
-      <c r="AA426" s="56">
+      <c r="AA426" s="32">
         <f>IF(ISNUMBER(V426),10^((V426-U426)/T426),IF(V426="&lt;ND&gt;",0,""))</f>
-        <v>5.943058044602246</v>
-      </c>
-      <c r="AB426" s="56">
+        <v>5.94305804460206</v>
+      </c>
+      <c r="AB426" s="32">
         <f>IF(ISNUMBER(W426),10^((W426-U426)/T426),IF(W426="&lt;ND&gt;",0,""))</f>
-        <v>4.69120301188041</v>
-      </c>
-      <c r="AC426" s="56">
+        <v>4.691203011880261</v>
+      </c>
+      <c r="AC426" s="32">
         <f>IF(ISNUMBER(X426),10^((X426-U426)/T426),IF(X426="&lt;ND&gt;",0,""))</f>
-        <v>8.725284684709445</v>
-      </c>
-      <c r="AD426" s="56">
+        <v>8.725284684709182</v>
+      </c>
+      <c r="AD426" s="32">
         <f>AVERAGE(AA426:AC426)</f>
-        <v>6.4531819137307</v>
-      </c>
-      <c r="AE426" s="56">
+        <v>6.453181913730501</v>
+      </c>
+      <c r="AE426" s="32">
         <f>STDEV(AA426:AC426)</f>
-        <v>2.064854354949694</v>
-      </c>
-      <c r="AF426" s="56">
-        <f>-2.944993555983563</f>
-        <v>-2.944993555983563</v>
-      </c>
-      <c r="AG426" s="56">
-        <f>37.680586933779374</f>
-        <v>37.68058693377937</v>
-      </c>
-      <c r="AH426" s="57" t="n">
+        <v>2.064854354949635</v>
+      </c>
+      <c r="AF426" s="32">
+        <f>-2.94499355598356</f>
+        <v>-2.94499355598356</v>
+      </c>
+      <c r="AG426" s="32">
+        <f>37.6805869337793</f>
+        <v>37.6805869337793</v>
+      </c>
+      <c r="AH426" s="33" t="n">
         <v>27.3577880882366</v>
       </c>
-      <c r="AI426" s="57" t="n">
+      <c r="AI426" s="33" t="n">
         <v>27.1486325339286</v>
       </c>
-      <c r="AJ426" s="57" t="n">
+      <c r="AJ426" s="33" t="n">
         <v>27.1892159173814</v>
       </c>
-      <c r="AK426" s="56">
+      <c r="AK426" s="32">
         <f>AVERAGE(AH426:AJ426)</f>
         <v>27.23187884651553</v>
       </c>
-      <c r="AL426" s="56">
+      <c r="AL426" s="32">
         <f>STDEV(AH426:AJ426)</f>
         <v>0.1109126035047407</v>
       </c>
-      <c r="AM426" s="56">
+      <c r="AM426" s="32">
         <f>IF(ISNUMBER(AH426),10^((AH426-AG426)/AF426),IF(AH426="&lt;ND&gt;",0,""))</f>
-        <v>3200.387194165527</v>
-      </c>
-      <c r="AN426" s="56">
+        <v>3200.387194165376</v>
+      </c>
+      <c r="AN426" s="32">
         <f>IF(ISNUMBER(AI426),10^((AI426-AG426)/AF426),IF(AI426="&lt;ND&gt;",0,""))</f>
-        <v>3768.974864433311</v>
-      </c>
-      <c r="AO426" s="56">
+        <v>3768.974864433133</v>
+      </c>
+      <c r="AO426" s="32">
         <f>IF(ISNUMBER(AJ426),10^((AJ426-AG426)/AF426),IF(AJ426="&lt;ND&gt;",0,""))</f>
-        <v>3651.260132302967</v>
-      </c>
-      <c r="AP426" s="56">
+        <v>3651.260132302795</v>
+      </c>
+      <c r="AP426" s="32">
         <f>AVERAGE(AM426:AO426)*10</f>
-        <v>35402.07396967268</v>
-      </c>
-      <c r="AQ426" s="56">
+        <v>35402.07396967102</v>
+      </c>
+      <c r="AQ426" s="32">
         <f>STDEV(AM426:AO426)</f>
-        <v>300.1208376875758</v>
-      </c>
-      <c r="AR426" s="56">
-        <f>IF(E426="PS",40,500.0)</f>
+        <v>300.1208376875617</v>
+      </c>
+      <c r="AR426" s="32">
+        <f>IF(E426="PS",40,500)</f>
         <v>40</v>
       </c>
-      <c r="AS426" s="56" t="n">
+      <c r="AS426" s="32" t="n">
         <v>21.5918</v>
       </c>
-      <c r="AT426" s="56" t="n">
+      <c r="AT426" s="32" t="n">
         <v>28.0983</v>
       </c>
-      <c r="AU426" s="57">
+      <c r="AU426" s="33">
         <f>IF(AND(AT426&lt;&gt;"",AS426&lt;&gt;""),AT426-AS426,"")</f>
         <v>6.506499999999999</v>
       </c>
-      <c r="AV426" s="56" t="n">
+      <c r="AV426" s="32" t="n">
         <v>500</v>
       </c>
-      <c r="AW426" s="56" t="n">
+      <c r="AW426" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="AX426" s="56">
+      <c r="AX426" s="32">
         <f>IF(ISERROR(DATEVALUE(A426)),3,IF(DATEVALUE(A426)&gt;=DATE(2021,6,8),3,1.5))</f>
         <v>3</v>
       </c>
-      <c r="AY426" s="56" t="n">
+      <c r="AY426" s="32" t="n">
         <v>0.2562</v>
       </c>
-      <c r="AZ426" s="57">
+      <c r="AZ426" s="33">
         <f>IF(O426&lt;&gt;"",(O426/AX426*100)/AY426,"")</f>
-        <v>918.4085281781322</v>
-      </c>
-      <c r="BA426" s="57">
+        <v>918.4085281781227</v>
+      </c>
+      <c r="BA426" s="33">
         <f>IF(P426&lt;&gt;"",(P426/AX426*100)/AY426,"")</f>
-        <v>1239.807233433542</v>
-      </c>
-      <c r="BB426" s="57">
+        <v>1239.807233433529</v>
+      </c>
+      <c r="BB426" s="33">
         <f>IF(Q426&lt;&gt;"",(Q426/AX426*100)/AY426,"")</f>
-        <v>920.8804353754203</v>
-      </c>
-      <c r="BC426" s="57">
+        <v>920.8804353754106</v>
+      </c>
+      <c r="BC426" s="33">
         <f>IF(AA426&lt;&gt;"",(AA426/AX426*100)/AY426,"")</f>
-        <v>773.2315957067717</v>
-      </c>
-      <c r="BD426" s="57">
+        <v>773.2315957067475</v>
+      </c>
+      <c r="BD426" s="33">
         <f>IF(AB426&lt;&gt;"",(AB426/AX426*100)/AY426,"")</f>
-        <v>610.3568841894887</v>
-      </c>
-      <c r="BE426" s="57">
+        <v>610.3568841894693</v>
+      </c>
+      <c r="BE426" s="33">
         <f>IF(AC426&lt;&gt;"",(AC426/AX426*100)/AY426,"")</f>
-        <v>1135.217887680126</v>
-      </c>
-      <c r="BF426" s="56">
+        <v>1135.217887680091</v>
+      </c>
+      <c r="BF426" s="32">
         <f>AVERAGE(AZ426:BE426)</f>
-        <v>932.98376076058</v>
-      </c>
-      <c r="BG426" s="56">
+        <v>932.9837607605617</v>
+      </c>
+      <c r="BG426" s="32">
         <f>STDEV(AZ426:BE426)</f>
-        <v>230.2203592602598</v>
-      </c>
-      <c r="BH426" s="56" t="str">
+        <v>230.2203592602594</v>
+      </c>
+      <c r="BH426" s="32" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF426)-2,COLUMN(BF426))&amp;":"&amp;ADDRESS(ROW(BF426)+2,COLUMN(BF426))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF426)-2,COLUMN(BF426))&amp;":"&amp;ADDRESS(ROW(BF426)+2,COLUMN(BF426)))),""),"")</f>
         <v/>
       </c>
-      <c r="BI426" s="58">
+      <c r="BI426" s="35">
         <f>IF(O426&lt;&gt;"",O426/(AP426),"")</f>
-        <v>0.0001993919326202229</v>
-      </c>
-      <c r="BJ426" s="58">
+        <v>0.0001993919326202302</v>
+      </c>
+      <c r="BJ426" s="35">
         <f>IF(P426&lt;&gt;"",P426/(AP426),"")</f>
-        <v>0.0002691694956722984</v>
-      </c>
-      <c r="BK426" s="58">
+        <v>0.0002691694956723083</v>
+      </c>
+      <c r="BK426" s="35">
         <f>IF(Q426&lt;&gt;"",Q426/(AP426),"")</f>
-        <v>0.0001999285983176799</v>
-      </c>
-      <c r="BL426" s="58">
+        <v>0.0001999285983176871</v>
+      </c>
+      <c r="BL426" s="35">
         <f>AVERAGE(BI426:BK426)</f>
-        <v>0.0002228300088700671</v>
-      </c>
-      <c r="BM426" s="58">
+        <v>0.0002228300088700752</v>
+      </c>
+      <c r="BM426" s="35">
         <f>STDEV(BI426:BK426)</f>
-        <v>4.013206984866762e-05</v>
-      </c>
-      <c r="BN426" s="58">
+        <v>4.013206984866914e-05</v>
+      </c>
+      <c r="BN426" s="35">
         <f>IF(AA426&lt;&gt;"",AA426/(AP426),"")</f>
-        <v>0.0001678731604734059</v>
-      </c>
-      <c r="BO426" s="58">
+        <v>0.0001678731604734085</v>
+      </c>
+      <c r="BO426" s="35">
         <f>IF(AB426&lt;&gt;"",AB426/(AP426),"")</f>
-        <v>0.0001325120956444288</v>
-      </c>
-      <c r="BP426" s="58">
+        <v>0.0001325120956444308</v>
+      </c>
+      <c r="BP426" s="35">
         <f>IF(AC426&lt;&gt;"",AC426/(AP426),"")</f>
-        <v>0.0002464625290649354</v>
-      </c>
-      <c r="BQ426" s="58">
+        <v>0.0002464625290649395</v>
+      </c>
+      <c r="BQ426" s="35">
         <f>AVERAGE(BN426:BP426)</f>
-        <v>0.0001822825950609233</v>
-      </c>
-      <c r="BR426" s="58">
+        <v>0.0001822825950609263</v>
+      </c>
+      <c r="BR426" s="35">
         <f>STDEV(BN426:BP426)</f>
-        <v>5.832580194930272e-05</v>
-      </c>
-      <c r="BS426" s="58">
+        <v>5.832580194930381e-05</v>
+      </c>
+      <c r="BS426" s="35">
         <f>AVERAGE(BI426:BK426,BN426:BP426)</f>
-        <v>0.0002025563019654952</v>
-      </c>
-      <c r="BT426" s="58">
+        <v>0.0002025563019655008</v>
+      </c>
+      <c r="BT426" s="35">
         <f>STDEV(BI426:BK426,BN426:BP426)</f>
-        <v>4.998220394630503e-05</v>
-      </c>
-      <c r="BU426" s="58" t="str">
+        <v>4.998220394630729e-05</v>
+      </c>
+      <c r="BU426" s="37" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS426)-2,COLUMN(BS426))&amp;":"&amp;ADDRESS(ROW(BS426)+2,COLUMN(BS426))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS426)-2,COLUMN(BS426))&amp;":"&amp;ADDRESS(ROW(BS426)+2,COLUMN(BS426)))),""),"")</f>
         <v/>
       </c>
-      <c r="BV426" s="56">
+      <c r="BV426" s="32">
         <f>IF(ISNUMBER(AZ426),AZ426*AU426/40*AW426/AR426*1000,"")</f>
-        <v>149390.6272147754</v>
-      </c>
-      <c r="BW426" s="56">
+        <v>149390.6272147738</v>
+      </c>
+      <c r="BW426" s="32">
         <f>IF(ISNUMBER(BA426),BA426*AU426/40*AW426/AR426*1000,"")</f>
-        <v>201670.1441083834</v>
-      </c>
-      <c r="BX426" s="56">
+        <v>201670.1441083814</v>
+      </c>
+      <c r="BX426" s="32">
         <f>IF(ISNUMBER(BB426),BB426*AU426/40*AW426/AR426*1000,"")</f>
-        <v>149792.7138192543</v>
-      </c>
-      <c r="BY426" s="56">
+        <v>149792.7138192527</v>
+      </c>
+      <c r="BY426" s="32">
         <f>IF(ISNUMBER(BC426),BC426*AU426/40*AW426/AR426*1000,"")</f>
-        <v>125775.7844366527</v>
-      </c>
-      <c r="BZ426" s="56">
+        <v>125775.7844366488</v>
+      </c>
+      <c r="BZ426" s="32">
         <f>IF(ISNUMBER(BD426),BD426*AU426/40*AW426/AR426*1000,"")</f>
-        <v>99282.17667447269</v>
-      </c>
-      <c r="CA426" s="56">
+        <v>99282.17667446952</v>
+      </c>
+      <c r="CA426" s="32">
         <f>IF(ISNUMBER(BE426),BE426*AU426/40*AW426/AR426*1000,"")</f>
-        <v>184657.3796547684</v>
-      </c>
-      <c r="CB426" s="56">
+        <v>184657.3796547628</v>
+      </c>
+      <c r="CB426" s="32">
         <f>AVERAGE(BV426:CA426)</f>
-        <v>151761.4709847178</v>
-      </c>
-      <c r="CC426" s="56">
+        <v>151761.4709847148</v>
+      </c>
+      <c r="CC426" s="32">
         <f>STDEV(BV426:CA426)</f>
-        <v>37448.21918817199</v>
-      </c>
-      <c r="CD426" s="56" t="str">
+        <v>37448.21918817193</v>
+      </c>
+      <c r="CD426" s="32" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB426)-2,COLUMN(CB426))&amp;":"&amp;ADDRESS(ROW(CB426)+2,COLUMN(CB426))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB426)-2,COLUMN(CB426))&amp;":"&amp;ADDRESS(ROW(CB426)+2,COLUMN(CB426)))),""),"")</f>
         <v/>
       </c>
-      <c r="CE426" s="56">
+      <c r="CE426" s="32">
         <f>AK426</f>
         <v>27.23187884651553</v>
       </c>
-      <c r="CF426" s="56">
+      <c r="CF426" s="32">
         <f>AVERAGE(29.3963094722806,29.0076714240634)</f>
         <v>29.201990448172</v>
       </c>
-      <c r="CG426" s="59">
+      <c r="CG426" s="48">
         <f>AVERAGE(26.0836326002776,25.7047750876965)</f>
         <v>25.89420384398705</v>
       </c>
-      <c r="CH426" s="56">
+      <c r="CH426" s="32">
         <f>IF(AND(ISNUMBER(CE426),ISNUMBER(CG426)),CE426-CG426,"")</f>
         <v>1.337675002528481</v>
       </c>
-      <c r="CI426" s="56">
+      <c r="CI426" s="32">
         <f>IF(AND(ISNUMBER(CF426),ISNUMBER(CG426)),CF426-CG426,"")</f>
         <v>3.307786604184948</v>
       </c>
-      <c r="CJ426" s="56">
+      <c r="CJ426" s="32">
         <f>AP426/1.5*100/AY426</f>
-        <v>9212093.148496665</v>
-      </c>
-      <c r="CK426" s="56">
+        <v>9212093.148496235</v>
+      </c>
+      <c r="CK426" s="32">
         <f>CJ426*AU426/40*AW426/AR426*1000</f>
-        <v>1498462101.767339</v>
+        <v>1498462101.767268</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1" s="38">
-      <c r="A427" s="54" t="n">
+      <c r="A427" s="49" t="n">
         <v>44475</v>
       </c>
-      <c r="B427" s="54" t="n">
+      <c r="B427" s="49" t="n">
         <v>44476</v>
       </c>
-      <c r="C427" s="0" t="inlineStr">
+      <c r="C427" s="50" t="inlineStr">
         <is>
           <t>o.10.06.21</t>
         </is>
       </c>
-      <c r="D427" s="55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E427" s="55" t="str">
-        <f>"PS"</f>
-        <v>PS</v>
-      </c>
-      <c r="F427" s="0">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G427" s="0">
+      <c r="D427" s="31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E427" s="31" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F427" s="50">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G427" s="50">
         <f>IF(OR(COUNT(J427:L427)&lt;=1,COUNT(V427:X427)&lt;=1), 0, IF(AND(COUNTIFS(O427:Q427,"&gt;=4")&gt;=2, COUNTIFS(AA427:AC427,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O427:Q427,"&lt;4")&gt;=2, COUNTIFS(AA427:AC427,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>1</v>
       </c>
-      <c r="H427" s="56">
-        <f>-3.3103661778270532</f>
-        <v>-3.310366177827053</v>
-      </c>
-      <c r="I427" s="56">
-        <f>37.28626794861143</f>
-        <v>37.28626794861143</v>
-      </c>
-      <c r="J427" s="56" t="inlineStr">
+      <c r="H427" s="32">
+        <f>-3.31036617782705</f>
+        <v>-3.31036617782705</v>
+      </c>
+      <c r="I427" s="32">
+        <f>37.2862679486114</f>
+        <v>37.2862679486114</v>
+      </c>
+      <c r="J427" s="32" t="inlineStr">
         <is>
           <t>[37.4535764546406]</t>
         </is>
       </c>
-      <c r="K427" s="56" t="n">
+      <c r="K427" s="32" t="n">
         <v>36.2040210343166</v>
       </c>
-      <c r="L427" s="56" t="n">
+      <c r="L427" s="32" t="n">
         <v>36.7248403712695</v>
       </c>
-      <c r="M427" s="56">
+      <c r="M427" s="32">
         <f>AVERAGE(J427:L427)</f>
         <v>36.46443070279305</v>
       </c>
-      <c r="N427" s="56">
+      <c r="N427" s="32">
         <f>STDEV(J427:L427)</f>
         <v>0.36827488493248</v>
       </c>
-      <c r="O427" s="56" t="str">
+      <c r="O427" s="32" t="str">
         <f>IF(ISNUMBER(J427),10^((J427-I427)/H427),IF(J427="&lt;ND&gt;",0,""))</f>
         <v/>
       </c>
-      <c r="P427" s="56">
+      <c r="P427" s="32">
         <f>IF(ISNUMBER(K427),10^((K427-I427)/H427),IF(K427="&lt;ND&gt;",0,""))</f>
-        <v>2.122885872224678</v>
-      </c>
-      <c r="Q427" s="56">
+        <v>2.122885872224638</v>
+      </c>
+      <c r="Q427" s="32">
         <f>IF(ISNUMBER(L427),10^((L427-I427)/H427),IF(L427="&lt;ND&gt;",0,""))</f>
-        <v>1.477735886386389</v>
-      </c>
-      <c r="R427" s="56">
+        <v>1.47773588638636</v>
+      </c>
+      <c r="R427" s="32">
         <f>AVERAGE(O427:Q427)</f>
-        <v>1.800310879305533</v>
-      </c>
-      <c r="S427" s="56">
+        <v>1.800310879305499</v>
+      </c>
+      <c r="S427" s="32">
         <f>STDEV(O427:Q427)</f>
-        <v>0.4561899298686594</v>
-      </c>
-      <c r="T427" s="56">
-        <f>-3.3655723896918737</f>
-        <v>-3.365572389691874</v>
-      </c>
-      <c r="U427" s="56">
-        <f>37.29902771565746</f>
-        <v>37.29902771565746</v>
-      </c>
-      <c r="V427" s="56" t="inlineStr">
+        <v>0.4561899298686511</v>
+      </c>
+      <c r="T427" s="32">
+        <f>-3.36557238969187</f>
+        <v>-3.36557238969187</v>
+      </c>
+      <c r="U427" s="32">
+        <f>37.2990277156574</f>
+        <v>37.2990277156574</v>
+      </c>
+      <c r="V427" s="32" t="inlineStr">
         <is>
           <t>[35.874565640494]</t>
         </is>
       </c>
-      <c r="W427" s="56" t="n">
+      <c r="W427" s="32" t="n">
         <v>34.8228155368833</v>
       </c>
-      <c r="X427" s="56" t="n">
+      <c r="X427" s="32" t="n">
         <v>34.1258549789886</v>
       </c>
-      <c r="Y427" s="56">
+      <c r="Y427" s="32">
         <f>AVERAGE(V427:X427)</f>
         <v>34.47433525793595</v>
       </c>
-      <c r="Z427" s="56">
+      <c r="Z427" s="32">
         <f>STDEV(V427:X427)</f>
         <v>0.4928255367069005</v>
       </c>
-      <c r="AA427" s="56" t="str">
+      <c r="AA427" s="32" t="str">
         <f>IF(ISNUMBER(V427),10^((V427-U427)/T427),IF(V427="&lt;ND&gt;",0,""))</f>
         <v/>
       </c>
-      <c r="AB427" s="56">
+      <c r="AB427" s="32">
         <f>IF(ISNUMBER(W427),10^((W427-U427)/T427),IF(W427="&lt;ND&gt;",0,""))</f>
-        <v>5.44186432740352</v>
-      </c>
-      <c r="AC427" s="56">
+        <v>5.441864327403318</v>
+      </c>
+      <c r="AC427" s="32">
         <f>IF(ISNUMBER(X427),10^((X427-U427)/T427),IF(X427="&lt;ND&gt;",0,""))</f>
-        <v>8.766636656099347</v>
-      </c>
-      <c r="AD427" s="56">
+        <v>8.766636656099026</v>
+      </c>
+      <c r="AD427" s="32">
         <f>AVERAGE(AA427:AC427)</f>
-        <v>7.104250491751434</v>
-      </c>
-      <c r="AE427" s="56">
+        <v>7.104250491751172</v>
+      </c>
+      <c r="AE427" s="32">
         <f>STDEV(AA427:AC427)</f>
-        <v>2.350969059522209</v>
-      </c>
-      <c r="AF427" s="56">
-        <f>-3.2020259762440038</f>
-        <v>-3.202025976244004</v>
-      </c>
-      <c r="AG427" s="56">
-        <f>38.757830524166465</f>
-        <v>38.75783052416647</v>
-      </c>
-      <c r="AH427" s="57" t="n">
+        <v>2.350969059522124</v>
+      </c>
+      <c r="AF427" s="32">
+        <f>-3.202025976244</f>
+        <v>-3.202025976244</v>
+      </c>
+      <c r="AG427" s="32">
+        <f>38.7578305241664</f>
+        <v>38.7578305241664</v>
+      </c>
+      <c r="AH427" s="33" t="n">
         <v>27.194036925147</v>
       </c>
-      <c r="AI427" s="57" t="n">
+      <c r="AI427" s="33" t="n">
         <v>27.3045188820358</v>
       </c>
-      <c r="AJ427" s="57" t="n">
+      <c r="AJ427" s="33" t="n">
         <v>27.1013889136578</v>
       </c>
-      <c r="AK427" s="56">
+      <c r="AK427" s="32">
         <f>AVERAGE(AH427:AJ427)</f>
         <v>27.19998157361353</v>
       </c>
-      <c r="AL427" s="56">
+      <c r="AL427" s="32">
         <f>STDEV(AH427:AJ427)</f>
         <v>0.1016953791838886</v>
       </c>
-      <c r="AM427" s="56">
+      <c r="AM427" s="32">
         <f>IF(ISNUMBER(AH427),10^((AH427-AG427)/AF427),IF(AH427="&lt;ND&gt;",0,""))</f>
-        <v>4086.947505411939</v>
-      </c>
-      <c r="AN427" s="56">
+        <v>4086.947505411793</v>
+      </c>
+      <c r="AN427" s="32">
         <f>IF(ISNUMBER(AI427),10^((AI427-AG427)/AF427),IF(AI427="&lt;ND&gt;",0,""))</f>
-        <v>3774.811703619981</v>
-      </c>
-      <c r="AO427" s="56">
+        <v>3774.811703619842</v>
+      </c>
+      <c r="AO427" s="32">
         <f>IF(ISNUMBER(AJ427),10^((AJ427-AG427)/AF427),IF(AJ427="&lt;ND&gt;",0,""))</f>
-        <v>4368.509095977601</v>
-      </c>
-      <c r="AP427" s="56">
+        <v>4368.50909597744</v>
+      </c>
+      <c r="AP427" s="32">
         <f>AVERAGE(AM427:AO427)*10</f>
-        <v>40767.5610166984</v>
-      </c>
-      <c r="AQ427" s="56">
+        <v>40767.56101669691</v>
+      </c>
+      <c r="AQ427" s="32">
         <f>STDEV(AM427:AO427)</f>
-        <v>296.9798763481039</v>
-      </c>
-      <c r="AR427" s="56">
-        <f>IF(E427="PS",40,500.0)</f>
+        <v>296.9798763480931</v>
+      </c>
+      <c r="AR427" s="32">
+        <f>IF(E427="PS",40,500)</f>
         <v>40</v>
       </c>
-      <c r="AS427" s="56" t="n">
+      <c r="AS427" s="32" t="n">
         <v>21.7474</v>
       </c>
-      <c r="AT427" s="56" t="n">
+      <c r="AT427" s="32" t="n">
         <v>27.9876</v>
       </c>
-      <c r="AU427" s="57">
+      <c r="AU427" s="33">
         <f>IF(AND(AT427&lt;&gt;"",AS427&lt;&gt;""),AT427-AS427,"")</f>
         <v>6.240200000000002</v>
       </c>
-      <c r="AV427" s="56" t="n">
+      <c r="AV427" s="32" t="n">
         <v>500</v>
       </c>
-      <c r="AW427" s="56" t="n">
+      <c r="AW427" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="AX427" s="56">
+      <c r="AX427" s="32">
         <f>IF(ISERROR(DATEVALUE(A427)),3,IF(DATEVALUE(A427)&gt;=DATE(2021,6,8),3,1.5))</f>
         <v>3</v>
       </c>
-      <c r="AY427" s="56" t="n">
+      <c r="AY427" s="32" t="n">
         <v>0.2525</v>
       </c>
-      <c r="AZ427" s="57" t="str">
+      <c r="AZ427" s="33" t="str">
         <f>IF(O427&lt;&gt;"",(O427/AX427*100)/AY427,"")</f>
         <v/>
       </c>
-      <c r="BA427" s="57">
+      <c r="BA427" s="33">
         <f>IF(P427&lt;&gt;"",(P427/AX427*100)/AY427,"")</f>
-        <v>280.2489600296605</v>
-      </c>
-      <c r="BB427" s="57">
+        <v>280.2489600296551</v>
+      </c>
+      <c r="BB427" s="33">
         <f>IF(Q427&lt;&gt;"",(Q427/AX427*100)/AY427,"")</f>
-        <v>195.0806450675101</v>
-      </c>
-      <c r="BC427" s="57" t="str">
+        <v>195.0806450675063</v>
+      </c>
+      <c r="BC427" s="33" t="str">
         <f>IF(AA427&lt;&gt;"",(AA427/AX427*100)/AY427,"")</f>
         <v/>
       </c>
-      <c r="BD427" s="57">
+      <c r="BD427" s="33">
         <f>IF(AB427&lt;&gt;"",(AB427/AX427*100)/AY427,"")</f>
-        <v>718.3979310103657</v>
-      </c>
-      <c r="BE427" s="57">
+        <v>718.3979310103391</v>
+      </c>
+      <c r="BE427" s="33">
         <f>IF(AC427&lt;&gt;"",(AC427/AX427*100)/AY427,"")</f>
-        <v>1157.311769782092</v>
-      </c>
-      <c r="BF427" s="56">
+        <v>1157.31176978205</v>
+      </c>
+      <c r="BF427" s="32">
         <f>AVERAGE(AZ427:BE427)</f>
-        <v>587.7598264724071</v>
-      </c>
-      <c r="BG427" s="56">
+        <v>587.7598264723875</v>
+      </c>
+      <c r="BG427" s="32">
         <f>STDEV(AZ427:BE427)</f>
-        <v>443.5521776801079</v>
-      </c>
-      <c r="BH427" s="56" t="str">
+        <v>443.5521776800894</v>
+      </c>
+      <c r="BH427" s="32" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF427)-2,COLUMN(BF427))&amp;":"&amp;ADDRESS(ROW(BF427)+2,COLUMN(BF427))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF427)-2,COLUMN(BF427))&amp;":"&amp;ADDRESS(ROW(BF427)+2,COLUMN(BF427)))),""),"")</f>
         <v/>
       </c>
-      <c r="BI427" s="58" t="str">
+      <c r="BI427" s="35" t="str">
         <f>IF(O427&lt;&gt;"",O427/(AP427),"")</f>
         <v/>
       </c>
-      <c r="BJ427" s="58">
+      <c r="BJ427" s="35">
         <f>IF(P427&lt;&gt;"",P427/(AP427),"")</f>
-        <v>5.207291825368565e-05</v>
-      </c>
-      <c r="BK427" s="58">
+        <v>5.207291825368657e-05</v>
+      </c>
+      <c r="BK427" s="35">
         <f>IF(Q427&lt;&gt;"",Q427/(AP427),"")</f>
-        <v>3.624783650366299e-05</v>
-      </c>
-      <c r="BL427" s="58">
+        <v>3.624783650366361e-05</v>
+      </c>
+      <c r="BL427" s="35">
         <f>AVERAGE(BI427:BK427)</f>
-        <v>4.416037737867432e-05</v>
-      </c>
-      <c r="BM427" s="58">
+        <v>4.416037737867509e-05</v>
+      </c>
+      <c r="BM427" s="35">
         <f>STDEV(BI427:BK427)</f>
-        <v>1.11900226182725e-05</v>
-      </c>
-      <c r="BN427" s="58" t="str">
+        <v>1.119002261827271e-05</v>
+      </c>
+      <c r="BN427" s="35" t="str">
         <f>IF(AA427&lt;&gt;"",AA427/(AP427),"")</f>
         <v/>
       </c>
-      <c r="BO427" s="58">
+      <c r="BO427" s="35">
         <f>IF(AB427&lt;&gt;"",AB427/(AP427),"")</f>
-        <v>0.0001334851580935767</v>
-      </c>
-      <c r="BP427" s="58">
+        <v>0.0001334851580935766</v>
+      </c>
+      <c r="BP427" s="35">
         <f>IF(AC427&lt;&gt;"",AC427/(AP427),"")</f>
         <v>0.0002150395176328682</v>
       </c>
-      <c r="BQ427" s="58">
+      <c r="BQ427" s="35">
         <f>AVERAGE(BN427:BP427)</f>
         <v>0.0001742623378632224</v>
       </c>
-      <c r="BR427" s="58">
+      <c r="BR427" s="35">
         <f>STDEV(BN427:BP427)</f>
-        <v>5.766764066555885e-05</v>
-      </c>
-      <c r="BS427" s="58">
+        <v>5.766764066555888e-05</v>
+      </c>
+      <c r="BS427" s="35">
         <f>AVERAGE(BI427:BK427,BN427:BP427)</f>
-        <v>0.0001092113576209484</v>
-      </c>
-      <c r="BT427" s="58">
+        <v>0.0001092113576209487</v>
+      </c>
+      <c r="BT427" s="35">
         <f>STDEV(BI427:BK427,BN427:BP427)</f>
-        <v>8.241620695804191e-05</v>
-      </c>
-      <c r="BU427" s="58" t="str">
+        <v>8.24162069580415e-05</v>
+      </c>
+      <c r="BU427" s="35" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS427)-2,COLUMN(BS427))&amp;":"&amp;ADDRESS(ROW(BS427)+2,COLUMN(BS427))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS427)-2,COLUMN(BS427))&amp;":"&amp;ADDRESS(ROW(BS427)+2,COLUMN(BS427)))),""),"")</f>
         <v/>
       </c>
-      <c r="BV427" s="56" t="str">
+      <c r="BV427" s="32" t="str">
         <f>IF(ISNUMBER(AZ427),AZ427*AU427/40*AW427/AR427*1000,"")</f>
         <v/>
       </c>
-      <c r="BW427" s="56">
+      <c r="BW427" s="32">
         <f>IF(ISNUMBER(BA427),BA427*AU427/40*AW427/AR427*1000,"")</f>
-        <v>43720.23900942719</v>
-      </c>
-      <c r="BX427" s="56">
+        <v>43720.23900942635</v>
+      </c>
+      <c r="BX427" s="32">
         <f>IF(ISNUMBER(BB427),BB427*AU427/40*AW427/AR427*1000,"")</f>
-        <v>30433.55603375692</v>
-      </c>
-      <c r="BY427" s="56" t="str">
+        <v>30433.55603375633</v>
+      </c>
+      <c r="BY427" s="32" t="str">
         <f>IF(ISNUMBER(BC427),BC427*AU427/40*AW427/AR427*1000,"")</f>
         <v/>
       </c>
-      <c r="BZ427" s="56">
+      <c r="BZ427" s="32">
         <f>IF(ISNUMBER(BD427),BD427*AU427/40*AW427/AR427*1000,"")</f>
-        <v>112073.6692272721</v>
-      </c>
-      <c r="CA427" s="56">
+        <v>112073.669227268</v>
+      </c>
+      <c r="CA427" s="32">
         <f>IF(ISNUMBER(BE427),BE427*AU427/40*AW427/AR427*1000,"")</f>
-        <v>180546.4226448553</v>
-      </c>
-      <c r="CB427" s="56">
+        <v>180546.4226448487</v>
+      </c>
+      <c r="CB427" s="32">
         <f>AVERAGE(BV427:CA427)</f>
-        <v>91693.47172882789</v>
-      </c>
-      <c r="CC427" s="56">
+        <v>91693.47172882484</v>
+      </c>
+      <c r="CC427" s="32">
         <f>STDEV(BV427:CA427)</f>
-        <v>69196.35747898526</v>
-      </c>
-      <c r="CD427" s="56" t="str">
+        <v>69196.35747898238</v>
+      </c>
+      <c r="CD427" s="32" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB427)-2,COLUMN(CB427))&amp;":"&amp;ADDRESS(ROW(CB427)+2,COLUMN(CB427))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB427)-2,COLUMN(CB427))&amp;":"&amp;ADDRESS(ROW(CB427)+2,COLUMN(CB427)))),""),"")</f>
         <v/>
       </c>
-      <c r="CE427" s="56">
+      <c r="CE427" s="32">
         <f>AK427</f>
         <v>27.19998157361353</v>
       </c>
-      <c r="CF427" s="56">
+      <c r="CF427" s="32">
         <f>AVERAGE(28.8750628306033,29.0390439737332)</f>
         <v>28.95705340216825</v>
       </c>
-      <c r="CG427" s="59">
+      <c r="CG427" s="48">
         <f>AVERAGE(25.4540198601328,25.6330748442252)</f>
         <v>25.543547352179</v>
       </c>
-      <c r="CH427" s="56">
+      <c r="CH427" s="32">
         <f>IF(AND(ISNUMBER(CE427),ISNUMBER(CG427)),CE427-CG427,"")</f>
         <v>1.656434221434534</v>
       </c>
-      <c r="CI427" s="56">
+      <c r="CI427" s="32">
         <f>IF(AND(ISNUMBER(CF427),ISNUMBER(CG427)),CF427-CG427,"")</f>
         <v>3.413506049989252</v>
       </c>
-      <c r="CJ427" s="56">
+      <c r="CJ427" s="32">
         <f>AP427/1.5*100/AY427</f>
-        <v>10763712.47965634</v>
-      </c>
-      <c r="CK427" s="56">
+        <v>10763712.47965595</v>
+      </c>
+      <c r="CK427" s="32">
         <f>CJ427*AU427/40*AW427/AR427*1000</f>
-        <v>1679192965.388788</v>
+        <v>1679192965.388727</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1" s="38">
-      <c r="A428" s="54" t="n">
+      <c r="A428" s="49" t="n">
         <v>44476</v>
       </c>
-      <c r="B428" s="54" t="n">
+      <c r="B428" s="49" t="n">
         <v>44477</v>
       </c>
-      <c r="C428" s="0" t="inlineStr">
+      <c r="C428" s="50" t="inlineStr">
         <is>
           <t>o.10.07.21</t>
         </is>
       </c>
-      <c r="D428" s="55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E428" s="55" t="str">
-        <f>"PS"</f>
-        <v>PS</v>
-      </c>
-      <c r="F428" s="0">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G428" s="0">
+      <c r="D428" s="31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E428" s="31" t="str">
+        <f>"PS"</f>
+        <v>PS</v>
+      </c>
+      <c r="F428" s="50">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G428" s="50">
         <f>IF(OR(COUNT(J428:L428)&lt;=1,COUNT(V428:X428)&lt;=1), 0, IF(AND(COUNTIFS(O428:Q428,"&gt;=4")&gt;=2, COUNTIFS(AA428:AC428,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O428:Q428,"&lt;4")&gt;=2, COUNTIFS(AA428:AC428,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
-      <c r="H428" s="56">
-        <f>-3.534612168422302</f>
-        <v>-3.534612168422302</v>
-      </c>
-      <c r="I428" s="56">
-        <f>38.014126437169764</f>
-        <v>38.01412643716976</v>
-      </c>
-      <c r="J428" s="56" t="n">
+      <c r="H428" s="32">
+        <f>-3.5346121684223</f>
+        <v>-3.5346121684223</v>
+      </c>
+      <c r="I428" s="32">
+        <f>38.0141264371697</f>
+        <v>38.0141264371697</v>
+      </c>
+      <c r="J428" s="32" t="n">
         <v>34.5064939725683</v>
       </c>
-      <c r="K428" s="56" t="inlineStr">
+      <c r="K428" s="32" t="inlineStr">
         <is>
           <t>[35.7934255043537]</t>
         </is>
       </c>
-      <c r="L428" s="56" t="n">
+      <c r="L428" s="32" t="n">
         <v>35.0905997632494</v>
       </c>
-      <c r="M428" s="56">
+      <c r="M428" s="32">
         <f>AVERAGE(J428:L428)</f>
         <v>34.79854686790885</v>
       </c>
-      <c r="N428" s="56">
+      <c r="N428" s="32">
         <f>STDEV(J428:L428)</f>
         <v>0.4130251655209361</v>
       </c>
-      <c r="O428" s="56">
+      <c r="O428" s="32">
         <f>IF(ISNUMBER(J428),10^((J428-I428)/H428),IF(J428="&lt;ND&gt;",0,""))</f>
-        <v>9.825779126570787</v>
-      </c>
-      <c r="P428" s="56" t="str">
+        <v>9.825779126570387</v>
+      </c>
+      <c r="P428" s="32" t="str">
         <f>IF(ISNUMBER(K428),10^((K428-I428)/H428),IF(K428="&lt;ND&gt;",0,""))</f>
         <v/>
       </c>
-      <c r="Q428" s="56">
+      <c r="Q428" s="32">
         <f>IF(ISNUMBER(L428),10^((L428-I428)/H428),IF(L428="&lt;ND&gt;",0,""))</f>
-        <v>6.716048884412771</v>
-      </c>
-      <c r="R428" s="56">
+        <v>6.716048884412497</v>
+      </c>
+      <c r="R428" s="32">
         <f>AVERAGE(O428:Q428)</f>
-        <v>8.270914005491779</v>
-      </c>
-      <c r="S428" s="56">
+        <v>8.270914005491441</v>
+      </c>
+      <c r="S428" s="32">
         <f>STDEV(O428:Q428)</f>
-        <v>2.198911341890817</v>
-      </c>
-      <c r="T428" s="56">
-        <f>-3.150893910515617</f>
-        <v>-3.150893910515617</v>
-      </c>
-      <c r="U428" s="56">
-        <f>37.36209641023931</f>
-        <v>37.36209641023931</v>
-      </c>
-      <c r="V428" s="56" t="n">
+        <v>2.198911341890728</v>
+      </c>
+      <c r="T428" s="32">
+        <f>-3.15089391051561</f>
+        <v>-3.15089391051561</v>
+      </c>
+      <c r="U428" s="32">
+        <f>37.3620964102393</f>
+        <v>37.3620964102393</v>
+      </c>
+      <c r="V428" s="32" t="n">
         <v>34.4987588289735</v>
       </c>
-      <c r="W428" s="56" t="n">
+      <c r="W428" s="32" t="n">
         <v>34.8658442119989</v>
       </c>
-      <c r="X428" s="56" t="n">
+      <c r="X428" s="32" t="n">
         <v>34.8987432511045</v>
       </c>
-      <c r="Y428" s="56">
+      <c r="Y428" s="32">
         <f>AVERAGE(V428:X428)</f>
         <v>34.75444876402563</v>
       </c>
-      <c r="Z428" s="56">
+      <c r="Z428" s="32">
         <f>STDEV(V428:X428)</f>
         <v>0.2220441259271242</v>
       </c>
-      <c r="AA428" s="56">
+      <c r="AA428" s="32">
         <f>IF(ISNUMBER(V428),10^((V428-U428)/T428),IF(V428="&lt;ND&gt;",0,""))</f>
-        <v>8.104722972327759</v>
-      </c>
-      <c r="AB428" s="56">
+        <v>8.104722972327755</v>
+      </c>
+      <c r="AB428" s="32">
         <f>IF(ISNUMBER(W428),10^((W428-U428)/T428),IF(W428="&lt;ND&gt;",0,""))</f>
-        <v>6.197780534240306</v>
-      </c>
-      <c r="AC428" s="56">
+        <v>6.1977805342403</v>
+      </c>
+      <c r="AC428" s="32">
         <f>IF(ISNUMBER(X428),10^((X428-U428)/T428),IF(X428="&lt;ND&gt;",0,""))</f>
-        <v>6.050552271998572</v>
-      </c>
-      <c r="AD428" s="56">
+        <v>6.050552271998566</v>
+      </c>
+      <c r="AD428" s="32">
         <f>AVERAGE(AA428:AC428)</f>
-        <v>6.784351926188879</v>
-      </c>
-      <c r="AE428" s="56">
+        <v>6.784351926188873</v>
+      </c>
+      <c r="AE428" s="32">
         <f>STDEV(AA428:AC428)</f>
-        <v>1.145841967686683</v>
-      </c>
-      <c r="AF428" s="56">
-        <f>-3.1407128227399808</f>
-        <v>-3.140712822739981</v>
-      </c>
-      <c r="AG428" s="56">
-        <f>38.63475864143222</f>
-        <v>38.63475864143222</v>
-      </c>
-      <c r="AH428" s="57" t="n">
+        <v>1.145841967686685</v>
+      </c>
+      <c r="AF428" s="32">
+        <f>-3.14071282273998</f>
+        <v>-3.14071282273998</v>
+      </c>
+      <c r="AG428" s="32">
+        <f>38.6347586414322</f>
+        <v>38.6347586414322</v>
+      </c>
+      <c r="AH428" s="33" t="n">
         <v>27.8498082232266</v>
       </c>
-      <c r="AI428" s="57" t="n">
+      <c r="AI428" s="33" t="n">
         <v>27.830330703999</v>
       </c>
-      <c r="AJ428" s="57" t="n">
+      <c r="AJ428" s="33" t="n">
         <v>27.848392356116</v>
       </c>
-      <c r="AK428" s="56">
+      <c r="AK428" s="32">
         <f>AVERAGE(AH428:AJ428)</f>
         <v>27.84284376111387</v>
       </c>
-      <c r="AL428" s="56">
+      <c r="AL428" s="32">
         <f>STDEV(AH428:AJ428)</f>
         <v>0.01085972461385018</v>
       </c>
-      <c r="AM428" s="56">
+      <c r="AM428" s="32">
         <f>IF(ISNUMBER(AH428),10^((AH428-AG428)/AF428),IF(AH428="&lt;ND&gt;",0,""))</f>
-        <v>2715.926666631092</v>
-      </c>
-      <c r="AN428" s="56">
+        <v>2715.926666631056</v>
+      </c>
+      <c r="AN428" s="32">
         <f>IF(ISNUMBER(AI428),10^((AI428-AG428)/AF428),IF(AI428="&lt;ND&gt;",0,""))</f>
-        <v>2754.987692389715</v>
-      </c>
-      <c r="AO428" s="56">
+        <v>2754.987692389676</v>
+      </c>
+      <c r="AO428" s="32">
         <f>IF(ISNUMBER(AJ428),10^((AJ428-AG428)/AF428),IF(AJ428="&lt;ND&gt;",0,""))</f>
-        <v>2718.747344030568</v>
-      </c>
-      <c r="AP428" s="56">
+        <v>2718.747344030531</v>
+      </c>
+      <c r="AP428" s="32">
         <f>AVERAGE(AM428:AO428)*10</f>
-        <v>27298.87234350459</v>
-      </c>
-      <c r="AQ428" s="56">
+        <v>27298.87234350421</v>
+      </c>
+      <c r="AQ428" s="32">
         <f>STDEV(AM428:AO428)</f>
-        <v>21.78333768235149</v>
-      </c>
-      <c r="AR428" s="56">
-        <f>IF(E428="PS",40,500.0)</f>
+        <v>21.7833376823495</v>
+      </c>
+      <c r="AR428" s="32">
+        <f>IF(E428="PS",40,500)</f>
         <v>40</v>
       </c>
-      <c r="AS428" s="56" t="n">
+      <c r="AS428" s="32" t="n">
         <v>21.826</v>
       </c>
-      <c r="AT428" s="56" t="n">
+      <c r="AT428" s="32" t="n">
         <v>28.597</v>
       </c>
-      <c r="AU428" s="57">
+      <c r="AU428" s="33">
         <f>IF(AND(AT428&lt;&gt;"",AS428&lt;&gt;""),AT428-AS428,"")</f>
         <v>6.771000000000001</v>
       </c>
-      <c r="AV428" s="56" t="n">
+      <c r="AV428" s="32" t="n">
         <v>500</v>
       </c>
-      <c r="AW428" s="56" t="n">
+      <c r="AW428" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="AX428" s="56">
+      <c r="AX428" s="32">
         <f>IF(ISERROR(DATEVALUE(A428)),3,IF(DATEVALUE(A428)&gt;=DATE(2021,6,8),3,1.5))</f>
         <v>3</v>
       </c>
-      <c r="AY428" s="56" t="n">
+      <c r="AY428" s="32" t="n">
         <v>0.2536</v>
       </c>
-      <c r="AZ428" s="57">
+      <c r="AZ428" s="33">
         <f>IF(O428&lt;&gt;"",(O428/AX428*100)/AY428,"")</f>
-        <v>1291.506194344215</v>
-      </c>
-      <c r="BA428" s="57" t="str">
+        <v>1291.506194344162</v>
+      </c>
+      <c r="BA428" s="33" t="str">
         <f>IF(P428&lt;&gt;"",(P428/AX428*100)/AY428,"")</f>
         <v/>
       </c>
-      <c r="BB428" s="57">
+      <c r="BB428" s="33">
         <f>IF(Q428&lt;&gt;"",(Q428/AX428*100)/AY428,"")</f>
-        <v>882.7614201383768</v>
-      </c>
-      <c r="BC428" s="57">
+        <v>882.7614201383408</v>
+      </c>
+      <c r="BC428" s="33">
         <f>IF(AA428&lt;&gt;"",(AA428/AX428*100)/AY428,"")</f>
         <v>1065.289559979989</v>
       </c>
-      <c r="BD428" s="57">
+      <c r="BD428" s="33">
         <f>IF(AB428&lt;&gt;"",(AB428/AX428*100)/AY428,"")</f>
-        <v>814.639923007401</v>
-      </c>
-      <c r="BE428" s="57">
+        <v>814.6399230074001</v>
+      </c>
+      <c r="BE428" s="33">
         <f>IF(AC428&lt;&gt;"",(AC428/AX428*100)/AY428,"")</f>
-        <v>795.2881535224201</v>
-      </c>
-      <c r="BF428" s="56">
+        <v>795.2881535224194</v>
+      </c>
+      <c r="BF428" s="32">
         <f>AVERAGE(AZ428:BE428)</f>
-        <v>969.8970501984804</v>
-      </c>
-      <c r="BG428" s="56">
+        <v>969.8970501984625</v>
+      </c>
+      <c r="BG428" s="32">
         <f>STDEV(AZ428:BE428)</f>
-        <v>208.996311503694</v>
-      </c>
-      <c r="BH428" s="56" t="str">
+        <v>208.9963115036779</v>
+      </c>
+      <c r="BH428" s="32" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF428)-2,COLUMN(BF428))&amp;":"&amp;ADDRESS(ROW(BF428)+2,COLUMN(BF428))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF428)-2,COLUMN(BF428))&amp;":"&amp;ADDRESS(ROW(BF428)+2,COLUMN(BF428)))),""),"")</f>
         <v/>
       </c>
-      <c r="BI428" s="58">
+      <c r="BI428" s="35">
         <f>IF(O428&lt;&gt;"",O428/(AP428),"")</f>
-        <v>0.0003599335167743185</v>
-      </c>
-      <c r="BJ428" s="58" t="str">
+        <v>0.0003599335167743088</v>
+      </c>
+      <c r="BJ428" s="35" t="str">
         <f>IF(P428&lt;&gt;"",P428/(AP428),"")</f>
         <v/>
       </c>
-      <c r="BK428" s="58">
+      <c r="BK428" s="35">
         <f>IF(Q428&lt;&gt;"",Q428/(AP428),"")</f>
-        <v>0.0002460192787417744</v>
-      </c>
-      <c r="BL428" s="58">
+        <v>0.0002460192787417677</v>
+      </c>
+      <c r="BL428" s="35">
         <f>AVERAGE(BI428:BK428)</f>
-        <v>0.0003029763977580464</v>
-      </c>
-      <c r="BM428" s="58">
+        <v>0.0003029763977580383</v>
+      </c>
+      <c r="BM428" s="35">
         <f>STDEV(BI428:BK428)</f>
-        <v>8.054953018651045e-05</v>
-      </c>
-      <c r="BN428" s="58">
+        <v>8.054953018650831e-05</v>
+      </c>
+      <c r="BN428" s="35">
         <f>IF(AA428&lt;&gt;"",AA428/(AP428),"")</f>
-        <v>0.0002968885626609472</v>
-      </c>
-      <c r="BO428" s="58">
+        <v>0.0002968885626609511</v>
+      </c>
+      <c r="BO428" s="35">
         <f>IF(AB428&lt;&gt;"",AB428/(AP428),"")</f>
-        <v>0.0002270343058956055</v>
-      </c>
-      <c r="BP428" s="58">
+        <v>0.0002270343058956084</v>
+      </c>
+      <c r="BP428" s="35">
         <f>IF(AC428&lt;&gt;"",AC428/(AP428),"")</f>
-        <v>0.0002216411064846868</v>
-      </c>
-      <c r="BQ428" s="58">
+        <v>0.0002216411064846896</v>
+      </c>
+      <c r="BQ428" s="35">
         <f>AVERAGE(BN428:BP428)</f>
-        <v>0.0002485213250137465</v>
-      </c>
-      <c r="BR428" s="58">
+        <v>0.0002485213250137497</v>
+      </c>
+      <c r="BR428" s="35">
         <f>STDEV(BN428:BP428)</f>
-        <v>4.19739670294228e-05</v>
-      </c>
-      <c r="BS428" s="58">
+        <v>4.197396702942342e-05</v>
+      </c>
+      <c r="BS428" s="35">
         <f>AVERAGE(BI428:BK428,BN428:BP428)</f>
-        <v>0.0002703033541114665</v>
-      </c>
-      <c r="BT428" s="58">
+        <v>0.0002703033541114651</v>
+      </c>
+      <c r="BT428" s="35">
         <f>STDEV(BI428:BK428,BN428:BP428)</f>
-        <v>5.824577359505601e-05</v>
-      </c>
-      <c r="BU428" s="58" t="str">
+        <v>5.82457735950523e-05</v>
+      </c>
+      <c r="BU428" s="35" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS428)-2,COLUMN(BS428))&amp;":"&amp;ADDRESS(ROW(BS428)+2,COLUMN(BS428))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS428)-2,COLUMN(BS428))&amp;":"&amp;ADDRESS(ROW(BS428)+2,COLUMN(BS428)))),""),"")</f>
         <v/>
       </c>
-      <c r="BV428" s="56">
+      <c r="BV428" s="32">
         <f>IF(ISNUMBER(AZ428),AZ428*AU428/40*AW428/AR428*1000,"")</f>
-        <v>218619.711047617</v>
-      </c>
-      <c r="BW428" s="56" t="str">
+        <v>218619.7110476081</v>
+      </c>
+      <c r="BW428" s="32" t="str">
         <f>IF(ISNUMBER(BA428),BA428*AU428/40*AW428/AR428*1000,"")</f>
         <v/>
       </c>
-      <c r="BX428" s="56">
+      <c r="BX428" s="32">
         <f>IF(ISNUMBER(BB428),BB428*AU428/40*AW428/AR428*1000,"")</f>
-        <v>149429.4393939238</v>
-      </c>
-      <c r="BY428" s="56">
+        <v>149429.4393939177</v>
+      </c>
+      <c r="BY428" s="32">
         <f>IF(ISNUMBER(BC428),BC428*AU428/40*AW428/AR428*1000,"")</f>
         <v>180326.8902656127</v>
       </c>
-      <c r="BZ428" s="56">
+      <c r="BZ428" s="32">
         <f>IF(ISNUMBER(BD428),BD428*AU428/40*AW428/AR428*1000,"")</f>
-        <v>137898.1729670778</v>
-      </c>
-      <c r="CA428" s="56">
+        <v>137898.1729670776</v>
+      </c>
+      <c r="CA428" s="32">
         <f>IF(ISNUMBER(BE428),BE428*AU428/40*AW428/AR428*1000,"")</f>
-        <v>134622.4021875077</v>
-      </c>
-      <c r="CB428" s="56">
+        <v>134622.4021875076</v>
+      </c>
+      <c r="CB428" s="32">
         <f>AVERAGE(BV428:CA428)</f>
-        <v>164179.3231723478</v>
-      </c>
-      <c r="CC428" s="56">
+        <v>164179.3231723447</v>
+      </c>
+      <c r="CC428" s="32">
         <f>STDEV(BV428:CA428)</f>
-        <v>35377.85062978781</v>
-      </c>
-      <c r="CD428" s="56" t="str">
+        <v>35377.85062978506</v>
+      </c>
+      <c r="CD428" s="32" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB428)-2,COLUMN(CB428))&amp;":"&amp;ADDRESS(ROW(CB428)+2,COLUMN(CB428))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB428)-2,COLUMN(CB428))&amp;":"&amp;ADDRESS(ROW(CB428)+2,COLUMN(CB428)))),""),"")</f>
         <v/>
       </c>
-      <c r="CE428" s="56">
+      <c r="CE428" s="32">
         <f>AK428</f>
         <v>27.84284376111387</v>
       </c>
-      <c r="CF428" s="56">
+      <c r="CF428" s="32">
         <f>AVERAGE(29.9559944724628,29.8809941505632)</f>
         <v>29.918494311513</v>
       </c>
-      <c r="CG428" s="59">
+      <c r="CG428" s="48">
         <f>AVERAGE(26.1379286301317,26.3653237125573)</f>
         <v>26.2516261713445</v>
       </c>
-      <c r="CH428" s="56">
+      <c r="CH428" s="32">
         <f>IF(AND(ISNUMBER(CE428),ISNUMBER(CG428)),CE428-CG428,"")</f>
         <v>1.591217589769371</v>
       </c>
-      <c r="CI428" s="56">
+      <c r="CI428" s="32">
         <f>IF(AND(ISNUMBER(CF428),ISNUMBER(CG428)),CF428-CG428,"")</f>
         <v>3.666868140168503</v>
       </c>
-      <c r="CJ428" s="56">
+      <c r="CJ428" s="32">
         <f>AP428/1.5*100/AY428</f>
-        <v>7176359.711751995</v>
-      </c>
-      <c r="CK428" s="56">
+        <v>7176359.711751896</v>
+      </c>
+      <c r="CK428" s="32">
         <f>CJ428*AU428/40*AW428/AR428*1000</f>
-        <v>1214778290.206819</v>
+        <v>1214778290.206802</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1" s="38">
-      <c r="A429" s="54" t="n">
+      <c r="A429" s="60" t="n">
         <v>44477</v>
       </c>
-      <c r="B429" s="54" t="n">
+      <c r="B429" s="60" t="n">
         <v>44481</v>
       </c>
       <c r="C429" t="inlineStr">
@@ -33290,12 +33318,12 @@
           <t>o.10.08.21</t>
         </is>
       </c>
-      <c r="D429" s="55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E429" s="55" t="str">
+      <c r="D429" s="61" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E429" s="61" t="str">
         <f>"PS"</f>
         <v>PS</v>
       </c>
@@ -33307,326 +33335,326 @@
         <f>IF(OR(COUNT(J429:L429)&lt;=1,COUNT(V429:X429)&lt;=1), 0, IF(AND(COUNTIFS(O429:Q429,"&gt;=4")&gt;=2, COUNTIFS(AA429:AC429,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O429:Q429,"&lt;4")&gt;=2, COUNTIFS(AA429:AC429,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
-      <c r="H429" s="56">
+      <c r="H429" s="62">
         <f>-3.726982284840926</f>
         <v>-3.726982284840926</v>
       </c>
-      <c r="I429" s="56">
+      <c r="I429" s="62">
         <f>38.48961997633373</f>
         <v>38.48961997633373</v>
       </c>
-      <c r="J429" s="56" t="n">
+      <c r="J429" s="62" t="n">
         <v>34.049215542698</v>
       </c>
-      <c r="K429" s="56" t="n">
+      <c r="K429" s="62" t="n">
         <v>34.3415902477946</v>
       </c>
-      <c r="L429" s="56" t="n">
+      <c r="L429" s="62" t="n">
         <v>34.8578797847613</v>
       </c>
-      <c r="M429" s="56">
+      <c r="M429" s="62">
         <f>AVERAGE(J429:L429)</f>
         <v>34.41622852508464</v>
       </c>
-      <c r="N429" s="56">
+      <c r="N429" s="62">
         <f>STDEV(J429:L429)</f>
         <v>0.4094662604239468</v>
       </c>
-      <c r="O429" s="56">
+      <c r="O429" s="62">
         <f>IF(ISNUMBER(J429),10^((J429-I429)/H429),IF(J429="&lt;ND&gt;",0,""))</f>
         <v>15.53892099360482</v>
       </c>
-      <c r="P429" s="56">
+      <c r="P429" s="62">
         <f>IF(ISNUMBER(K429),10^((K429-I429)/H429),IF(K429="&lt;ND&gt;",0,""))</f>
         <v>12.97097886079016</v>
       </c>
-      <c r="Q429" s="56">
+      <c r="Q429" s="62">
         <f>IF(ISNUMBER(L429),10^((L429-I429)/H429),IF(L429="&lt;ND&gt;",0,""))</f>
         <v>9.428557456498423</v>
       </c>
-      <c r="R429" s="56">
+      <c r="R429" s="62">
         <f>AVERAGE(O429:Q429)</f>
         <v>12.64615243696447</v>
       </c>
-      <c r="S429" s="56">
+      <c r="S429" s="62">
         <f>STDEV(O429:Q429)</f>
         <v>3.06810524479057</v>
       </c>
-      <c r="T429" s="56">
+      <c r="T429" s="62">
         <f>-3.3992785693842373</f>
         <v>-3.399278569384237</v>
       </c>
-      <c r="U429" s="56">
+      <c r="U429" s="62">
         <f>38.146226521223774</f>
         <v>38.14622652122377</v>
       </c>
-      <c r="V429" s="56" t="n">
+      <c r="V429" s="62" t="n">
         <v>34.3687581029162</v>
       </c>
-      <c r="W429" s="56" t="n">
+      <c r="W429" s="62" t="n">
         <v>34.0319451823723</v>
       </c>
-      <c r="X429" s="56" t="n">
+      <c r="X429" s="62" t="n">
         <v>34.4501094206886</v>
       </c>
-      <c r="Y429" s="56">
+      <c r="Y429" s="62">
         <f>AVERAGE(V429:X429)</f>
         <v>34.2836042353257</v>
       </c>
-      <c r="Z429" s="56">
+      <c r="Z429" s="62">
         <f>STDEV(V429:X429)</f>
         <v>0.2217063788569892</v>
       </c>
-      <c r="AA429" s="56">
+      <c r="AA429" s="62">
         <f>IF(ISNUMBER(V429),10^((V429-U429)/T429),IF(V429="&lt;ND&gt;",0,""))</f>
         <v>12.9198037071321</v>
       </c>
-      <c r="AB429" s="56">
+      <c r="AB429" s="62">
         <f>IF(ISNUMBER(W429),10^((W429-U429)/T429),IF(W429="&lt;ND&gt;",0,""))</f>
         <v>16.23078642991547</v>
       </c>
-      <c r="AC429" s="56">
+      <c r="AC429" s="62">
         <f>IF(ISNUMBER(X429),10^((X429-U429)/T429),IF(X429="&lt;ND&gt;",0,""))</f>
         <v>12.22711450200807</v>
       </c>
-      <c r="AD429" s="56">
+      <c r="AD429" s="62">
         <f>AVERAGE(AA429:AC429)</f>
         <v>13.79256821301855</v>
       </c>
-      <c r="AE429" s="56">
+      <c r="AE429" s="62">
         <f>STDEV(AA429:AC429)</f>
         <v>2.139774670059873</v>
       </c>
-      <c r="AF429" s="56">
-        <f>-3.00132513791975</f>
-        <v>-3.00132513791975</v>
-      </c>
-      <c r="AG429" s="56">
-        <f>37.90652030736685</f>
-        <v>37.90652030736685</v>
-      </c>
-      <c r="AH429" s="57" t="n">
-        <v>27.7771335019087</v>
-      </c>
-      <c r="AI429" s="57" t="n">
-        <v>27.7948384128651</v>
-      </c>
-      <c r="AJ429" s="57" t="n">
-        <v>27.858049615932</v>
-      </c>
-      <c r="AK429" s="56">
+      <c r="AF429" s="62">
+        <f>-2.9183138314316412</f>
+        <v>-2.918313831431641</v>
+      </c>
+      <c r="AG429" s="62">
+        <f>37.813562866944494</f>
+        <v>37.81356286694449</v>
+      </c>
+      <c r="AH429" s="63" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="AI429" s="63" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="AJ429" s="63" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="AK429" s="62">
         <f>AVERAGE(AH429:AJ429)</f>
-        <v>27.81000717690193</v>
-      </c>
-      <c r="AL429" s="56">
+        <v>27.22333333333333</v>
+      </c>
+      <c r="AL429" s="62">
         <f>STDEV(AH429:AJ429)</f>
-        <v>0.04253731219719622</v>
-      </c>
-      <c r="AM429" s="56">
+        <v>0.2003330560175555</v>
+      </c>
+      <c r="AM429" s="62">
         <f>IF(ISNUMBER(AH429),10^((AH429-AG429)/AF429),IF(AH429="&lt;ND&gt;",0,""))</f>
-        <v>2371.218097504342</v>
-      </c>
-      <c r="AN429" s="56">
+        <v>4299.86977781198</v>
+      </c>
+      <c r="AN429" s="62">
         <f>IF(ISNUMBER(AI429),10^((AI429-AG429)/AF429),IF(AI429="&lt;ND&gt;",0,""))</f>
-        <v>2339.22754699278</v>
-      </c>
-      <c r="AO429" s="56">
+        <v>4956.039462955927</v>
+      </c>
+      <c r="AO429" s="62">
         <f>IF(ISNUMBER(AJ429),10^((AJ429-AG429)/AF429),IF(AJ429="&lt;ND&gt;",0,""))</f>
-        <v>2228.493499227131</v>
-      </c>
-      <c r="AP429" s="56">
+        <v>3614.675415428764</v>
+      </c>
+      <c r="AP429" s="62">
         <f>AVERAGE(AM429:AO429)*10</f>
-        <v>23129.79714574751</v>
-      </c>
-      <c r="AQ429" s="56">
+        <v>42901.94885398891</v>
+      </c>
+      <c r="AQ429" s="62">
         <f>STDEV(AM429:AO429)</f>
-        <v>74.89518855261358</v>
-      </c>
-      <c r="AR429" s="56">
+        <v>670.7343584885278</v>
+      </c>
+      <c r="AR429" s="62">
         <f>IF(E429="PS",40,500.0)</f>
         <v>40</v>
       </c>
-      <c r="AS429" s="56" t="n">
+      <c r="AS429" s="62" t="n">
         <v>21.809</v>
       </c>
-      <c r="AT429" s="56" t="n">
+      <c r="AT429" s="62" t="n">
         <v>28.7028</v>
       </c>
-      <c r="AU429" s="57">
+      <c r="AU429" s="63">
         <f>IF(AND(AT429&lt;&gt;"",AS429&lt;&gt;""),AT429-AS429,"")</f>
         <v>6.893799999999999</v>
       </c>
-      <c r="AV429" s="56" t="n">
+      <c r="AV429" s="62" t="n">
         <v>500</v>
       </c>
-      <c r="AW429" s="56" t="n">
+      <c r="AW429" s="62" t="n">
         <v>40</v>
       </c>
-      <c r="AX429" s="56">
+      <c r="AX429" s="62">
         <f>IF(ISERROR(DATEVALUE(A429)),3,IF(DATEVALUE(A429)&gt;=DATE(2021,6,8),3,1.5))</f>
         <v>3</v>
       </c>
-      <c r="AY429" s="56" t="n">
+      <c r="AY429" s="62" t="n">
         <v>0.2524</v>
       </c>
-      <c r="AZ429" s="57">
+      <c r="AZ429" s="63">
         <f>IF(O429&lt;&gt;"",(O429/AX429*100)/AY429,"")</f>
         <v>2052.155440254203</v>
       </c>
-      <c r="BA429" s="57">
+      <c r="BA429" s="63">
         <f>IF(P429&lt;&gt;"",(P429/AX429*100)/AY429,"")</f>
         <v>1713.018866982324</v>
       </c>
-      <c r="BB429" s="57">
+      <c r="BB429" s="63">
         <f>IF(Q429&lt;&gt;"",(Q429/AX429*100)/AY429,"")</f>
         <v>1245.187197107557</v>
       </c>
-      <c r="BC429" s="57">
+      <c r="BC429" s="63">
         <f>IF(AA429&lt;&gt;"",(AA429/AX429*100)/AY429,"")</f>
         <v>1706.260394497108</v>
       </c>
-      <c r="BD429" s="57">
+      <c r="BD429" s="63">
         <f>IF(AB429&lt;&gt;"",(AB429/AX429*100)/AY429,"")</f>
         <v>2143.526998139919</v>
       </c>
-      <c r="BE429" s="57">
+      <c r="BE429" s="63">
         <f>IF(AC429&lt;&gt;"",(AC429/AX429*100)/AY429,"")</f>
         <v>1614.780045167468</v>
       </c>
-      <c r="BF429" s="56">
+      <c r="BF429" s="62">
         <f>AVERAGE(AZ429:BE429)</f>
         <v>1745.821490358096</v>
       </c>
-      <c r="BG429" s="56">
+      <c r="BG429" s="62">
         <f>STDEV(AZ429:BE429)</f>
         <v>323.2515454320731</v>
       </c>
-      <c r="BH429" s="56" t="str">
+      <c r="BH429" s="62" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF429)-2,COLUMN(BF429))&amp;":"&amp;ADDRESS(ROW(BF429)+2,COLUMN(BF429))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF429)-2,COLUMN(BF429))&amp;":"&amp;ADDRESS(ROW(BF429)+2,COLUMN(BF429)))),""),"")</f>
         <v/>
       </c>
-      <c r="BI429" s="58">
+      <c r="BI429" s="64">
         <f>IF(O429&lt;&gt;"",O429/(AP429),"")</f>
-        <v>0.0006718139763911292</v>
-      </c>
-      <c r="BJ429" s="58">
+        <v>0.0003621961567874103</v>
+      </c>
+      <c r="BJ429" s="64">
         <f>IF(P429&lt;&gt;"",P429/(AP429),"")</f>
-        <v>0.0005607908612019505</v>
-      </c>
-      <c r="BK429" s="58">
+        <v>0.00030234008494428</v>
+      </c>
+      <c r="BK429" s="64">
         <f>IF(Q429&lt;&gt;"",Q429/(AP429),"")</f>
-        <v>0.0004076368416500313</v>
-      </c>
-      <c r="BL429" s="58">
+        <v>0.000219769910420323</v>
+      </c>
+      <c r="BL429" s="64">
         <f>AVERAGE(BI429:BK429)</f>
-        <v>0.0005467472264143704</v>
-      </c>
-      <c r="BM429" s="58">
+        <v>0.0002947687173840044</v>
+      </c>
+      <c r="BM429" s="64">
         <f>STDEV(BI429:BK429)</f>
-        <v>0.0001326473044902883</v>
-      </c>
-      <c r="BN429" s="58">
+        <v>7.151435603152808e-05</v>
+      </c>
+      <c r="BN429" s="64">
         <f>IF(AA429&lt;&gt;"",AA429/(AP429),"")</f>
-        <v>0.0005585783405587478</v>
-      </c>
-      <c r="BO429" s="58">
+        <v>0.0003011472451077442</v>
+      </c>
+      <c r="BO429" s="64">
         <f>IF(AB429&lt;&gt;"",AB429/(AP429),"")</f>
-        <v>0.0007017262766136949</v>
-      </c>
-      <c r="BP429" s="58">
+        <v>0.0003783228236357</v>
+      </c>
+      <c r="BP429" s="64">
         <f>IF(AC429&lt;&gt;"",AC429/(AP429),"")</f>
-        <v>0.000528630425289141</v>
-      </c>
-      <c r="BQ429" s="58">
+        <v>0.000285001377061481</v>
+      </c>
+      <c r="BQ429" s="64">
         <f>AVERAGE(BN429:BP429)</f>
-        <v>0.000596311680820528</v>
-      </c>
-      <c r="BR429" s="58">
+        <v>0.0003214904819349751</v>
+      </c>
+      <c r="BR429" s="64">
         <f>STDEV(BN429:BP429)</f>
-        <v>9.251160555263579e-05</v>
-      </c>
-      <c r="BS429" s="58">
+        <v>4.987593168185233e-05</v>
+      </c>
+      <c r="BS429" s="64">
         <f>AVERAGE(BI429:BK429,BN429:BP429)</f>
-        <v>0.0005715294536174491</v>
-      </c>
-      <c r="BT429" s="58">
+        <v>0.0003081295996594897</v>
+      </c>
+      <c r="BT429" s="64">
         <f>STDEV(BI429:BK429,BN429:BP429)</f>
-        <v>0.0001058228347870171</v>
-      </c>
-      <c r="BU429" s="58" t="str">
+        <v>5.705243625043575e-05</v>
+      </c>
+      <c r="BU429" s="64" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS429)-2,COLUMN(BS429))&amp;":"&amp;ADDRESS(ROW(BS429)+2,COLUMN(BS429))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS429)-2,COLUMN(BS429))&amp;":"&amp;ADDRESS(ROW(BS429)+2,COLUMN(BS429)))),""),"")</f>
         <v/>
       </c>
-      <c r="BV429" s="56">
+      <c r="BV429" s="62">
         <f>IF(ISNUMBER(AZ429),AZ429*AU429/40*AW429/AR429*1000,"")</f>
         <v>353678.7293506105</v>
       </c>
-      <c r="BW429" s="56">
+      <c r="BW429" s="62">
         <f>IF(ISNUMBER(BA429),BA429*AU429/40*AW429/AR429*1000,"")</f>
         <v>295230.2366300686</v>
       </c>
-      <c r="BX429" s="56">
+      <c r="BX429" s="62">
         <f>IF(ISNUMBER(BB429),BB429*AU429/40*AW429/AR429*1000,"")</f>
         <v>214601.7874855019</v>
       </c>
-      <c r="BY429" s="56">
+      <c r="BY429" s="62">
         <f>IF(ISNUMBER(BC429),BC429*AU429/40*AW429/AR429*1000,"")</f>
         <v>294065.447689604</v>
       </c>
-      <c r="BZ429" s="56">
+      <c r="BZ429" s="62">
         <f>IF(ISNUMBER(BD429),BD429*AU429/40*AW429/AR429*1000,"")</f>
         <v>369426.1604944242</v>
       </c>
-      <c r="CA429" s="56">
+      <c r="CA429" s="62">
         <f>IF(ISNUMBER(BE429),BE429*AU429/40*AW429/AR429*1000,"")</f>
         <v>278299.2668843871</v>
       </c>
-      <c r="CB429" s="56">
+      <c r="CB429" s="62">
         <f>AVERAGE(BV429:CA429)</f>
         <v>300883.604755766</v>
       </c>
-      <c r="CC429" s="56">
+      <c r="CC429" s="62">
         <f>STDEV(BV429:CA429)</f>
         <v>55710.78759749063</v>
       </c>
-      <c r="CD429" s="56" t="str">
+      <c r="CD429" s="62" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB429)-2,COLUMN(CB429))&amp;":"&amp;ADDRESS(ROW(CB429)+2,COLUMN(CB429))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB429)-2,COLUMN(CB429))&amp;":"&amp;ADDRESS(ROW(CB429)+2,COLUMN(CB429)))),""),"")</f>
         <v/>
       </c>
-      <c r="CE429" s="56">
+      <c r="CE429" s="62">
         <f>AK429</f>
-        <v>27.81000717690193</v>
-      </c>
-      <c r="CF429" s="56">
-        <f>AVERAGE(30.2118720567048,29.8463426143344)</f>
-        <v>30.0291073355196</v>
-      </c>
-      <c r="CG429" s="59">
-        <f>AVERAGE(26.1250921029488,26.2194385922969)</f>
-        <v>26.17226534762285</v>
-      </c>
-      <c r="CH429" s="56">
+        <v>27.22333333333333</v>
+      </c>
+      <c r="CF429" s="62">
+        <f>AVERAGE(29.33,29.25)</f>
+        <v>29.29</v>
+      </c>
+      <c r="CG429" s="65">
+        <f>AVERAGE(24.58,25.07)</f>
+        <v>24.825</v>
+      </c>
+      <c r="CH429" s="62">
         <f>IF(AND(ISNUMBER(CE429),ISNUMBER(CG429)),CE429-CG429,"")</f>
-        <v>1.637741829279086</v>
-      </c>
-      <c r="CI429" s="56">
+        <v>2.398333333333333</v>
+      </c>
+      <c r="CI429" s="62">
         <f>IF(AND(ISNUMBER(CF429),ISNUMBER(CG429)),CF429-CG429,"")</f>
-        <v>3.85684198789675</v>
-      </c>
-      <c r="CJ429" s="56">
+        <v>4.465</v>
+      </c>
+      <c r="CJ429" s="62">
         <f>AP429/1.5*100/AY429</f>
-        <v>6109296.657619521</v>
-      </c>
-      <c r="CK429" s="56">
+        <v>11331735.03803193</v>
+      </c>
+      <c r="CK429" s="62">
         <f>CJ429*AU429/40*AW429/AR429*1000</f>
-        <v>1052906732.457436</v>
+        <v>1952967875.129613</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1" s="38">
-      <c r="A430" s="54" t="n">
+      <c r="A430" s="60" t="n">
         <v>44478</v>
       </c>
-      <c r="B430" s="54" t="n">
+      <c r="B430" s="60" t="n">
         <v>44481</v>
       </c>
       <c r="C430" t="inlineStr">
@@ -33634,12 +33662,12 @@
           <t>o.10.09.21</t>
         </is>
       </c>
-      <c r="D430" s="55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E430" s="55" t="str">
+      <c r="D430" s="61" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E430" s="61" t="str">
         <f>"PS"</f>
         <v>PS</v>
       </c>
@@ -33651,326 +33679,326 @@
         <f>IF(OR(COUNT(J430:L430)&lt;=1,COUNT(V430:X430)&lt;=1), 0, IF(AND(COUNTIFS(O430:Q430,"&gt;=4")&gt;=2, COUNTIFS(AA430:AC430,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O430:Q430,"&lt;4")&gt;=2, COUNTIFS(AA430:AC430,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
-      <c r="H430" s="56">
+      <c r="H430" s="62">
         <f>-3.726982284840926</f>
         <v>-3.726982284840926</v>
       </c>
-      <c r="I430" s="56">
+      <c r="I430" s="62">
         <f>38.48961997633373</f>
         <v>38.48961997633373</v>
       </c>
-      <c r="J430" s="56" t="n">
+      <c r="J430" s="62" t="n">
         <v>34.379754648786</v>
       </c>
-      <c r="K430" s="56" t="n">
+      <c r="K430" s="62" t="n">
         <v>34.1049355464877</v>
       </c>
-      <c r="L430" s="56" t="n">
+      <c r="L430" s="62" t="n">
         <v>33.9115141885512</v>
       </c>
-      <c r="M430" s="56">
+      <c r="M430" s="62">
         <f>AVERAGE(J430:L430)</f>
         <v>34.13206812794164</v>
       </c>
-      <c r="N430" s="56">
+      <c r="N430" s="62">
         <f>STDEV(J430:L430)</f>
         <v>0.2352964404373535</v>
       </c>
-      <c r="O430" s="56">
+      <c r="O430" s="62">
         <f>IF(ISNUMBER(J430),10^((J430-I430)/H430),IF(J430="&lt;ND&gt;",0,""))</f>
         <v>12.66871960513648</v>
       </c>
-      <c r="P430" s="56">
+      <c r="P430" s="62">
         <f>IF(ISNUMBER(K430),10^((K430-I430)/H430),IF(K430="&lt;ND&gt;",0,""))</f>
         <v>15.01310162053253</v>
       </c>
-      <c r="Q430" s="56">
+      <c r="Q430" s="62">
         <f>IF(ISNUMBER(L430),10^((L430-I430)/H430),IF(L430="&lt;ND&gt;",0,""))</f>
         <v>16.91873949115271</v>
       </c>
-      <c r="R430" s="56">
+      <c r="R430" s="62">
         <f>AVERAGE(O430:Q430)</f>
         <v>14.86685357227391</v>
       </c>
-      <c r="S430" s="56">
+      <c r="S430" s="62">
         <f>STDEV(O430:Q430)</f>
         <v>2.128781018939697</v>
       </c>
-      <c r="T430" s="56">
+      <c r="T430" s="62">
         <f>-3.3992785693842373</f>
         <v>-3.399278569384237</v>
       </c>
-      <c r="U430" s="56">
+      <c r="U430" s="62">
         <f>38.146226521223774</f>
         <v>38.14622652122377</v>
       </c>
-      <c r="V430" s="56" t="n">
+      <c r="V430" s="62" t="n">
         <v>33.5630784070338</v>
       </c>
-      <c r="W430" s="56" t="n">
+      <c r="W430" s="62" t="n">
         <v>34.0177546399355</v>
       </c>
-      <c r="X430" s="56" t="n">
+      <c r="X430" s="62" t="n">
         <v>33.6254182144721</v>
       </c>
-      <c r="Y430" s="56">
+      <c r="Y430" s="62">
         <f>AVERAGE(V430:X430)</f>
         <v>33.73541708714713</v>
       </c>
-      <c r="Z430" s="56">
+      <c r="Z430" s="62">
         <f>STDEV(V430:X430)</f>
         <v>0.2464902293880088</v>
       </c>
-      <c r="AA430" s="56">
+      <c r="AA430" s="62">
         <f>IF(ISNUMBER(V430),10^((V430-U430)/T430),IF(V430="&lt;ND&gt;",0,""))</f>
         <v>22.29825218968494</v>
       </c>
-      <c r="AB430" s="56">
+      <c r="AB430" s="62">
         <f>IF(ISNUMBER(W430),10^((W430-U430)/T430),IF(W430="&lt;ND&gt;",0,""))</f>
         <v>16.38755408120195</v>
       </c>
-      <c r="AC430" s="56">
+      <c r="AC430" s="62">
         <f>IF(ISNUMBER(X430),10^((X430-U430)/T430),IF(X430="&lt;ND&gt;",0,""))</f>
         <v>21.37625857318201</v>
       </c>
-      <c r="AD430" s="56">
+      <c r="AD430" s="62">
         <f>AVERAGE(AA430:AC430)</f>
         <v>20.0206882813563</v>
       </c>
-      <c r="AE430" s="56">
+      <c r="AE430" s="62">
         <f>STDEV(AA430:AC430)</f>
         <v>3.179978953462809</v>
       </c>
-      <c r="AF430" s="56">
-        <f>-3.00132513791975</f>
-        <v>-3.00132513791975</v>
-      </c>
-      <c r="AG430" s="56">
-        <f>37.90652030736685</f>
-        <v>37.90652030736685</v>
-      </c>
-      <c r="AH430" s="57" t="n">
-        <v>28.2641341997651</v>
-      </c>
-      <c r="AI430" s="57" t="n">
-        <v>28.2242831403525</v>
-      </c>
-      <c r="AJ430" s="57" t="n">
-        <v>28.1894714135886</v>
-      </c>
-      <c r="AK430" s="56">
+      <c r="AF430" s="62">
+        <f>-2.9183138314316412</f>
+        <v>-2.918313831431641</v>
+      </c>
+      <c r="AG430" s="62">
+        <f>37.813562866944494</f>
+        <v>37.81356286694449</v>
+      </c>
+      <c r="AH430" s="63" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="AI430" s="63" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AJ430" s="63" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AK430" s="62">
         <f>AVERAGE(AH430:AJ430)</f>
-        <v>28.22596291790207</v>
-      </c>
-      <c r="AL430" s="56">
+        <v>26.84666666666666</v>
+      </c>
+      <c r="AL430" s="62">
         <f>STDEV(AH430:AJ430)</f>
-        <v>0.03735972630214861</v>
-      </c>
-      <c r="AM430" s="56">
+        <v>0.09237604307034021</v>
+      </c>
+      <c r="AM430" s="62">
         <f>IF(ISNUMBER(AH430),10^((AH430-AG430)/AF430),IF(AH430="&lt;ND&gt;",0,""))</f>
-        <v>1631.960369297565</v>
-      </c>
-      <c r="AN430" s="56">
+        <v>6230.27486950487</v>
+      </c>
+      <c r="AN430" s="62">
         <f>IF(ISNUMBER(AI430),10^((AI430-AG430)/AF430),IF(AI430="&lt;ND&gt;",0,""))</f>
-        <v>1682.625357683976</v>
-      </c>
-      <c r="AO430" s="56">
+        <v>5491.374051986358</v>
+      </c>
+      <c r="AO430" s="62">
         <f>IF(ISNUMBER(AJ430),10^((AJ430-AG430)/AF430),IF(AJ430="&lt;ND&gt;",0,""))</f>
-        <v>1728.169018716729</v>
-      </c>
-      <c r="AP430" s="56">
+        <v>5491.374051986358</v>
+      </c>
+      <c r="AP430" s="62">
         <f>AVERAGE(AM430:AO430)*10</f>
-        <v>16809.1824856609</v>
-      </c>
-      <c r="AQ430" s="56">
+        <v>57376.74324492528</v>
+      </c>
+      <c r="AQ430" s="62">
         <f>STDEV(AM430:AO430)</f>
-        <v>48.12703732747528</v>
-      </c>
-      <c r="AR430" s="56">
+        <v>426.6045858987478</v>
+      </c>
+      <c r="AR430" s="62">
         <f>IF(E430="PS",40,500.0)</f>
         <v>40</v>
       </c>
-      <c r="AS430" s="56" t="n">
+      <c r="AS430" s="62" t="n">
         <v>21.7474</v>
       </c>
-      <c r="AT430" s="56" t="n">
+      <c r="AT430" s="62" t="n">
         <v>28.2575</v>
       </c>
-      <c r="AU430" s="57">
+      <c r="AU430" s="63">
         <f>IF(AND(AT430&lt;&gt;"",AS430&lt;&gt;""),AT430-AS430,"")</f>
         <v>6.510100000000001</v>
       </c>
-      <c r="AV430" s="56" t="n">
+      <c r="AV430" s="62" t="n">
         <v>500</v>
       </c>
-      <c r="AW430" s="56" t="n">
+      <c r="AW430" s="62" t="n">
         <v>40</v>
       </c>
-      <c r="AX430" s="56">
+      <c r="AX430" s="62">
         <f>IF(ISERROR(DATEVALUE(A430)),3,IF(DATEVALUE(A430)&gt;=DATE(2021,6,8),3,1.5))</f>
         <v>3</v>
       </c>
-      <c r="AY430" s="56" t="n">
+      <c r="AY430" s="62" t="n">
         <v>0.2573</v>
       </c>
-      <c r="AZ430" s="57">
+      <c r="AZ430" s="63">
         <f>IF(O430&lt;&gt;"",(O430/AX430*100)/AY430,"")</f>
         <v>1641.238451241934</v>
       </c>
-      <c r="BA430" s="57">
+      <c r="BA430" s="63">
         <f>IF(P430&lt;&gt;"",(P430/AX430*100)/AY430,"")</f>
         <v>1944.954219527469</v>
       </c>
-      <c r="BB430" s="57">
+      <c r="BB430" s="63">
         <f>IF(Q430&lt;&gt;"",(Q430/AX430*100)/AY430,"")</f>
         <v>2191.830482077045</v>
       </c>
-      <c r="BC430" s="57">
+      <c r="BC430" s="63">
         <f>IF(AA430&lt;&gt;"",(AA430/AX430*100)/AY430,"")</f>
         <v>2888.748826232017</v>
       </c>
-      <c r="BD430" s="57">
+      <c r="BD430" s="63">
         <f>IF(AB430&lt;&gt;"",(AB430/AX430*100)/AY430,"")</f>
         <v>2123.015167923559</v>
       </c>
-      <c r="BE430" s="57">
+      <c r="BE430" s="63">
         <f>IF(AC430&lt;&gt;"",(AC430/AX430*100)/AY430,"")</f>
         <v>2769.304129185389</v>
       </c>
-      <c r="BF430" s="56">
+      <c r="BF430" s="62">
         <f>AVERAGE(AZ430:BE430)</f>
         <v>2259.848546031235</v>
       </c>
-      <c r="BG430" s="56">
+      <c r="BG430" s="62">
         <f>STDEV(AZ430:BE430)</f>
         <v>481.7151171120717</v>
       </c>
-      <c r="BH430" s="56" t="str">
+      <c r="BH430" s="62" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF430)-2,COLUMN(BF430))&amp;":"&amp;ADDRESS(ROW(BF430)+2,COLUMN(BF430))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF430)-2,COLUMN(BF430))&amp;":"&amp;ADDRESS(ROW(BF430)+2,COLUMN(BF430)))),""),"")</f>
         <v/>
       </c>
-      <c r="BI430" s="58">
+      <c r="BI430" s="64">
         <f>IF(O430&lt;&gt;"",O430/(AP430),"")</f>
-        <v>0.0007536785097040594</v>
-      </c>
-      <c r="BJ430" s="58">
+        <v>0.0002207988618499531</v>
+      </c>
+      <c r="BJ430" s="64">
         <f>IF(P430&lt;&gt;"",P430/(AP430),"")</f>
-        <v>0.0008931488270378098</v>
-      </c>
-      <c r="BK430" s="58">
+        <v>0.0002616583091244095</v>
+      </c>
+      <c r="BK430" s="64">
         <f>IF(Q430&lt;&gt;"",Q430/(AP430),"")</f>
-        <v>0.001006517687911668</v>
-      </c>
-      <c r="BL430" s="58">
+        <v>0.0002948710319603073</v>
+      </c>
+      <c r="BL430" s="64">
         <f>AVERAGE(BI430:BK430)</f>
-        <v>0.0008844483415511789</v>
-      </c>
-      <c r="BM430" s="58">
+        <v>0.0002591094009782233</v>
+      </c>
+      <c r="BM430" s="64">
         <f>STDEV(BI430:BK430)</f>
-        <v>0.0001266439352868979</v>
-      </c>
-      <c r="BN430" s="58">
+        <v>3.710180987185916e-05</v>
+      </c>
+      <c r="BN430" s="64">
         <f>IF(AA430&lt;&gt;"",AA430/(AP430),"")</f>
-        <v>0.001326551853946883</v>
-      </c>
-      <c r="BO430" s="58">
+        <v>0.0003886287531953483</v>
+      </c>
+      <c r="BO430" s="64">
         <f>IF(AB430&lt;&gt;"",AB430/(AP430),"")</f>
-        <v>0.0009749167810618618</v>
-      </c>
-      <c r="BP430" s="58">
+        <v>0.0002856131797381399</v>
+      </c>
+      <c r="BP430" s="64">
         <f>IF(AC430&lt;&gt;"",AC430/(AP430),"")</f>
-        <v>0.001271701261582297</v>
-      </c>
-      <c r="BQ430" s="58">
+        <v>0.0003725596359126334</v>
+      </c>
+      <c r="BQ430" s="64">
         <f>AVERAGE(BN430:BP430)</f>
-        <v>0.001191056632197014</v>
-      </c>
-      <c r="BR430" s="58">
+        <v>0.0003489338562820406</v>
+      </c>
+      <c r="BR430" s="64">
         <f>STDEV(BN430:BP430)</f>
-        <v>0.0001891810595890368</v>
-      </c>
-      <c r="BS430" s="58">
+        <v>5.542278584701763e-05</v>
+      </c>
+      <c r="BS430" s="64">
         <f>AVERAGE(BI430:BK430,BN430:BP430)</f>
-        <v>0.001037752486874096</v>
-      </c>
-      <c r="BT430" s="58">
+        <v>0.0003040216286301319</v>
+      </c>
+      <c r="BT430" s="64">
         <f>STDEV(BI430:BK430,BN430:BP430)</f>
-        <v>0.0002212099840167737</v>
-      </c>
-      <c r="BU430" s="58" t="str">
+        <v>6.480603078350831e-05</v>
+      </c>
+      <c r="BU430" s="64" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS430)-2,COLUMN(BS430))&amp;":"&amp;ADDRESS(ROW(BS430)+2,COLUMN(BS430))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS430)-2,COLUMN(BS430))&amp;":"&amp;ADDRESS(ROW(BS430)+2,COLUMN(BS430)))),""),"")</f>
         <v/>
       </c>
-      <c r="BV430" s="56">
+      <c r="BV430" s="62">
         <f>IF(ISNUMBER(AZ430),AZ430*AU430/40*AW430/AR430*1000,"")</f>
         <v>267115.6610357529</v>
       </c>
-      <c r="BW430" s="56">
+      <c r="BW430" s="62">
         <f>IF(ISNUMBER(BA430),BA430*AU430/40*AW430/AR430*1000,"")</f>
         <v>316546.1616136444</v>
       </c>
-      <c r="BX430" s="56">
+      <c r="BX430" s="62">
         <f>IF(ISNUMBER(BB430),BB430*AU430/40*AW430/AR430*1000,"")</f>
         <v>356725.8905342444</v>
       </c>
-      <c r="BY430" s="56">
+      <c r="BY430" s="62">
         <f>IF(ISNUMBER(BC430),BC430*AU430/40*AW430/AR430*1000,"")</f>
         <v>470151.0933413265</v>
       </c>
-      <c r="BZ430" s="56">
+      <c r="BZ430" s="62">
         <f>IF(ISNUMBER(BD430),BD430*AU430/40*AW430/AR430*1000,"")</f>
         <v>345526.0261174791</v>
       </c>
-      <c r="CA430" s="56">
+      <c r="CA430" s="62">
         <f>IF(ISNUMBER(BE430),BE430*AU430/40*AW430/AR430*1000,"")</f>
         <v>450711.1702852451</v>
       </c>
-      <c r="CB430" s="56">
+      <c r="CB430" s="62">
         <f>AVERAGE(BV430:CA430)</f>
         <v>367796.0004879487</v>
       </c>
-      <c r="CC430" s="56">
+      <c r="CC430" s="62">
         <f>STDEV(BV430:CA430)</f>
         <v>78400.33959778245</v>
       </c>
-      <c r="CD430" s="56" t="str">
+      <c r="CD430" s="62" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB430)-2,COLUMN(CB430))&amp;":"&amp;ADDRESS(ROW(CB430)+2,COLUMN(CB430))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB430)-2,COLUMN(CB430))&amp;":"&amp;ADDRESS(ROW(CB430)+2,COLUMN(CB430)))),""),"")</f>
         <v/>
       </c>
-      <c r="CE430" s="56">
+      <c r="CE430" s="62">
         <f>AK430</f>
-        <v>28.22596291790207</v>
-      </c>
-      <c r="CF430" s="56">
-        <f>AVERAGE(30.3803267718027,30.6923326538966)</f>
-        <v>30.53632971284965</v>
-      </c>
-      <c r="CG430" s="59">
-        <f>AVERAGE(27.5628443611506,27.9500713309121)</f>
-        <v>27.75645784603135</v>
-      </c>
-      <c r="CH430" s="56">
+        <v>26.84666666666666</v>
+      </c>
+      <c r="CF430" s="62">
+        <f>AVERAGE(30.04,29.91)</f>
+        <v>29.975</v>
+      </c>
+      <c r="CG430" s="65">
+        <f>AVERAGE(25.37,25.48)</f>
+        <v>25.425</v>
+      </c>
+      <c r="CH430" s="62">
         <f>IF(AND(ISNUMBER(CE430),ISNUMBER(CG430)),CE430-CG430,"")</f>
-        <v>0.4695050718707172</v>
-      </c>
-      <c r="CI430" s="56">
+        <v>1.421666666666663</v>
+      </c>
+      <c r="CI430" s="62">
         <f>IF(AND(ISNUMBER(CF430),ISNUMBER(CG430)),CF430-CG430,"")</f>
-        <v>2.779871866818301</v>
-      </c>
-      <c r="CJ430" s="56">
+        <v>4.550000000000001</v>
+      </c>
+      <c r="CJ430" s="62">
         <f>AP430/1.5*100/AY430</f>
-        <v>4355274.643259724</v>
-      </c>
-      <c r="CK430" s="56">
+        <v>14866366.95036282</v>
+      </c>
+      <c r="CK430" s="62">
         <f>CJ430*AU430/40*AW430/AR430*1000</f>
-        <v>708831836.3771282</v>
+        <v>2419538387.088924</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1" s="38">
-      <c r="A431" s="54" t="n">
+      <c r="A431" s="60" t="n">
         <v>44479</v>
       </c>
-      <c r="B431" s="54" t="n">
+      <c r="B431" s="60" t="n">
         <v>44481</v>
       </c>
       <c r="C431" t="inlineStr">
@@ -33978,12 +34006,12 @@
           <t>o.10.10.21</t>
         </is>
       </c>
-      <c r="D431" s="55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E431" s="55" t="str">
+      <c r="D431" s="61" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E431" s="61" t="str">
         <f>"PS"</f>
         <v>PS</v>
       </c>
@@ -33995,326 +34023,326 @@
         <f>IF(OR(COUNT(J431:L431)&lt;=1,COUNT(V431:X431)&lt;=1), 0, IF(AND(COUNTIFS(O431:Q431,"&gt;=4")&gt;=2, COUNTIFS(AA431:AC431,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O431:Q431,"&lt;4")&gt;=2, COUNTIFS(AA431:AC431,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
-      <c r="H431" s="56">
+      <c r="H431" s="62">
         <f>-3.726982284840926</f>
         <v>-3.726982284840926</v>
       </c>
-      <c r="I431" s="56">
+      <c r="I431" s="62">
         <f>38.48961997633373</f>
         <v>38.48961997633373</v>
       </c>
-      <c r="J431" s="56" t="n">
+      <c r="J431" s="62" t="n">
         <v>33.2227013321145</v>
       </c>
-      <c r="K431" s="56" t="n">
+      <c r="K431" s="62" t="n">
         <v>33.5050890631762</v>
       </c>
-      <c r="L431" s="56" t="n">
+      <c r="L431" s="62" t="n">
         <v>33.3780067616499</v>
       </c>
-      <c r="M431" s="56">
+      <c r="M431" s="62">
         <f>AVERAGE(J431:L431)</f>
         <v>33.36859905231353</v>
       </c>
-      <c r="N431" s="56">
+      <c r="N431" s="62">
         <f>STDEV(J431:L431)</f>
         <v>0.1414287326173944</v>
       </c>
-      <c r="O431" s="56">
+      <c r="O431" s="62">
         <f>IF(ISNUMBER(J431),10^((J431-I431)/H431),IF(J431="&lt;ND&gt;",0,""))</f>
         <v>25.89320765932132</v>
       </c>
-      <c r="P431" s="56">
+      <c r="P431" s="62">
         <f>IF(ISNUMBER(K431),10^((K431-I431)/H431),IF(K431="&lt;ND&gt;",0,""))</f>
         <v>21.74790304401331</v>
       </c>
-      <c r="Q431" s="56">
+      <c r="Q431" s="62">
         <f>IF(ISNUMBER(L431),10^((L431-I431)/H431),IF(L431="&lt;ND&gt;",0,""))</f>
         <v>23.52422349558908</v>
       </c>
-      <c r="R431" s="56">
+      <c r="R431" s="62">
         <f>AVERAGE(O431:Q431)</f>
         <v>23.7217780663079</v>
       </c>
-      <c r="S431" s="56">
+      <c r="S431" s="62">
         <f>STDEV(O431:Q431)</f>
         <v>2.0797015277997</v>
       </c>
-      <c r="T431" s="56">
+      <c r="T431" s="62">
         <f>-3.3992785693842373</f>
         <v>-3.399278569384237</v>
       </c>
-      <c r="U431" s="56">
+      <c r="U431" s="62">
         <f>38.146226521223774</f>
         <v>38.14622652122377</v>
       </c>
-      <c r="V431" s="56" t="n">
+      <c r="V431" s="62" t="n">
         <v>33.1781028188332</v>
       </c>
-      <c r="W431" s="56" t="n">
+      <c r="W431" s="62" t="n">
         <v>33.5297951150058</v>
       </c>
-      <c r="X431" s="56" t="n">
+      <c r="X431" s="62" t="n">
         <v>33.2382577190404</v>
       </c>
-      <c r="Y431" s="56">
+      <c r="Y431" s="62">
         <f>AVERAGE(V431:X431)</f>
         <v>33.31538521762647</v>
       </c>
-      <c r="Z431" s="56">
+      <c r="Z431" s="62">
         <f>STDEV(V431:X431)</f>
         <v>0.1881046412914786</v>
       </c>
-      <c r="AA431" s="56">
+      <c r="AA431" s="62">
         <f>IF(ISNUMBER(V431),10^((V431-U431)/T431),IF(V431="&lt;ND&gt;",0,""))</f>
         <v>28.94162870328426</v>
       </c>
-      <c r="AB431" s="56">
+      <c r="AB431" s="62">
         <f>IF(ISNUMBER(W431),10^((W431-U431)/T431),IF(W431="&lt;ND&gt;",0,""))</f>
         <v>22.80668183956479</v>
       </c>
-      <c r="AC431" s="56">
+      <c r="AC431" s="62">
         <f>IF(ISNUMBER(X431),10^((X431-U431)/T431),IF(X431="&lt;ND&gt;",0,""))</f>
         <v>27.78603605836318</v>
       </c>
-      <c r="AD431" s="56">
+      <c r="AD431" s="62">
         <f>AVERAGE(AA431:AC431)</f>
         <v>26.51144886707074</v>
       </c>
-      <c r="AE431" s="56">
+      <c r="AE431" s="62">
         <f>STDEV(AA431:AC431)</f>
         <v>3.260034146496073</v>
       </c>
-      <c r="AF431" s="56">
-        <f>-3.00132513791975</f>
-        <v>-3.00132513791975</v>
-      </c>
-      <c r="AG431" s="56">
-        <f>37.90652030736685</f>
-        <v>37.90652030736685</v>
-      </c>
-      <c r="AH431" s="57" t="n">
-        <v>26.7776861380347</v>
-      </c>
-      <c r="AI431" s="57" t="n">
-        <v>26.8009898833272</v>
-      </c>
-      <c r="AJ431" s="57" t="n">
-        <v>27.2421698197467</v>
-      </c>
-      <c r="AK431" s="56">
+      <c r="AF431" s="62">
+        <f>-2.9183138314316412</f>
+        <v>-2.918313831431641</v>
+      </c>
+      <c r="AG431" s="62">
+        <f>37.813562866944494</f>
+        <v>37.81356286694449</v>
+      </c>
+      <c r="AH431" s="63" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="AI431" s="63" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="AJ431" s="63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK431" s="62">
         <f>AVERAGE(AH431:AJ431)</f>
-        <v>26.9402819470362</v>
-      </c>
-      <c r="AL431" s="56">
+        <v>25.94</v>
+      </c>
+      <c r="AL431" s="62">
         <f>STDEV(AH431:AJ431)</f>
-        <v>0.2617020861655816</v>
-      </c>
-      <c r="AM431" s="56">
+        <v>0.06557438524301942</v>
+      </c>
+      <c r="AM431" s="62">
         <f>IF(ISNUMBER(AH431),10^((AH431-AG431)/AF431),IF(AH431="&lt;ND&gt;",0,""))</f>
-        <v>5104.738871118876</v>
-      </c>
-      <c r="AN431" s="56">
+        <v>11620.14298839487</v>
+      </c>
+      <c r="AN431" s="62">
         <f>IF(ISNUMBER(AI431),10^((AI431-AG431)/AF431),IF(AI431="&lt;ND&gt;",0,""))</f>
-        <v>5014.285357780269</v>
-      </c>
-      <c r="AO431" s="56">
+        <v>12377.26137747419</v>
+      </c>
+      <c r="AO431" s="62">
         <f>IF(ISNUMBER(AJ431),10^((AJ431-AG431)/AF431),IF(AJ431="&lt;ND&gt;",0,""))</f>
-        <v>3574.489258574928</v>
-      </c>
-      <c r="AP431" s="56">
+        <v>11170.64604402491</v>
+      </c>
+      <c r="AP431" s="62">
         <f>AVERAGE(AM431:AO431)*10</f>
-        <v>45645.04495824691</v>
-      </c>
-      <c r="AQ431" s="56">
+        <v>117226.8346996466</v>
+      </c>
+      <c r="AQ431" s="62">
         <f>STDEV(AM431:AO431)</f>
-        <v>858.5703739408046</v>
-      </c>
-      <c r="AR431" s="56">
+        <v>609.8082104228758</v>
+      </c>
+      <c r="AR431" s="62">
         <f>IF(E431="PS",40,500.0)</f>
         <v>40</v>
       </c>
-      <c r="AS431" s="56" t="n">
+      <c r="AS431" s="62" t="n">
         <v>21.6762</v>
       </c>
-      <c r="AT431" s="56" t="n">
+      <c r="AT431" s="62" t="n">
         <v>28.1126</v>
       </c>
-      <c r="AU431" s="57">
+      <c r="AU431" s="63">
         <f>IF(AND(AT431&lt;&gt;"",AS431&lt;&gt;""),AT431-AS431,"")</f>
         <v>6.436399999999999</v>
       </c>
-      <c r="AV431" s="56" t="n">
+      <c r="AV431" s="62" t="n">
         <v>500</v>
       </c>
-      <c r="AW431" s="56" t="n">
+      <c r="AW431" s="62" t="n">
         <v>40</v>
       </c>
-      <c r="AX431" s="56">
+      <c r="AX431" s="62">
         <f>IF(ISERROR(DATEVALUE(A431)),3,IF(DATEVALUE(A431)&gt;=DATE(2021,6,8),3,1.5))</f>
         <v>3</v>
       </c>
-      <c r="AY431" s="56" t="n">
+      <c r="AY431" s="62" t="n">
         <v>0.2551</v>
       </c>
-      <c r="AZ431" s="57">
+      <c r="AZ431" s="63">
         <f>IF(O431&lt;&gt;"",(O431/AX431*100)/AY431,"")</f>
         <v>3383.40620140093</v>
       </c>
-      <c r="BA431" s="57">
+      <c r="BA431" s="63">
         <f>IF(P431&lt;&gt;"",(P431/AX431*100)/AY431,"")</f>
         <v>2841.748731740926</v>
       </c>
-      <c r="BB431" s="57">
+      <c r="BB431" s="63">
         <f>IF(Q431&lt;&gt;"",(Q431/AX431*100)/AY431,"")</f>
         <v>3073.856460941994</v>
       </c>
-      <c r="BC431" s="57">
+      <c r="BC431" s="63">
         <f>IF(AA431&lt;&gt;"",(AA431/AX431*100)/AY431,"")</f>
         <v>3781.736404453712</v>
       </c>
-      <c r="BD431" s="57">
+      <c r="BD431" s="63">
         <f>IF(AB431&lt;&gt;"",(AB431/AX431*100)/AY431,"")</f>
         <v>2980.096934478609</v>
       </c>
-      <c r="BE431" s="57">
+      <c r="BE431" s="63">
         <f>IF(AC431&lt;&gt;"",(AC431/AX431*100)/AY431,"")</f>
         <v>3630.737757528183</v>
       </c>
-      <c r="BF431" s="56">
+      <c r="BF431" s="62">
         <f>AVERAGE(AZ431:BE431)</f>
         <v>3281.930415090725</v>
       </c>
-      <c r="BG431" s="56">
+      <c r="BG431" s="62">
         <f>STDEV(AZ431:BE431)</f>
         <v>376.8097820170931</v>
       </c>
-      <c r="BH431" s="56" t="str">
+      <c r="BH431" s="62" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF431)-2,COLUMN(BF431))&amp;":"&amp;ADDRESS(ROW(BF431)+2,COLUMN(BF431))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF431)-2,COLUMN(BF431))&amp;":"&amp;ADDRESS(ROW(BF431)+2,COLUMN(BF431)))),""),"")</f>
         <v/>
       </c>
-      <c r="BI431" s="58">
+      <c r="BI431" s="64">
         <f>IF(O431&lt;&gt;"",O431/(AP431),"")</f>
-        <v>0.0005672731329984826</v>
-      </c>
-      <c r="BJ431" s="58">
+        <v>0.000220881231892542</v>
+      </c>
+      <c r="BJ431" s="64">
         <f>IF(P431&lt;&gt;"",P431/(AP431),"")</f>
-        <v>0.0004764570407128936</v>
-      </c>
-      <c r="BK431" s="58">
+        <v>0.0001855198351105771</v>
+      </c>
+      <c r="BK431" s="64">
         <f>IF(Q431&lt;&gt;"",Q431/(AP431),"")</f>
-        <v>0.0005153729943109377</v>
-      </c>
-      <c r="BL431" s="58">
+        <v>0.0002006726834846459</v>
+      </c>
+      <c r="BL431" s="64">
         <f>AVERAGE(BI431:BK431)</f>
-        <v>0.000519701056007438</v>
-      </c>
-      <c r="BM431" s="58">
+        <v>0.000202357916829255</v>
+      </c>
+      <c r="BM431" s="64">
         <f>STDEV(BI431:BK431)</f>
-        <v>4.556248174806427e-05</v>
-      </c>
-      <c r="BN431" s="58">
+        <v>1.774083155216313e-05</v>
+      </c>
+      <c r="BN431" s="64">
         <f>IF(AA431&lt;&gt;"",AA431/(AP431),"")</f>
-        <v>0.0006340584992250124</v>
-      </c>
-      <c r="BO431" s="58">
+        <v>0.000246885696243844</v>
+      </c>
+      <c r="BO431" s="64">
         <f>IF(AB431&lt;&gt;"",AB431/(AP431),"")</f>
-        <v>0.0004996529603690138</v>
-      </c>
-      <c r="BP431" s="58">
+        <v>0.0001945517158933709</v>
+      </c>
+      <c r="BP431" s="64">
         <f>IF(AC431&lt;&gt;"",AC431/(AP431),"")</f>
-        <v>0.0006087415640357025</v>
-      </c>
-      <c r="BQ431" s="58">
+        <v>0.0002370279478206107</v>
+      </c>
+      <c r="BQ431" s="64">
         <f>AVERAGE(BN431:BP431)</f>
-        <v>0.0005808176745432428</v>
-      </c>
-      <c r="BR431" s="58">
+        <v>0.0002261551199859419</v>
+      </c>
+      <c r="BR431" s="64">
         <f>STDEV(BN431:BP431)</f>
-        <v>7.142142481134888e-05</v>
-      </c>
-      <c r="BS431" s="58">
+        <v>2.78096235802049e-05</v>
+      </c>
+      <c r="BS431" s="64">
         <f>AVERAGE(BI431:BK431,BN431:BP431)</f>
-        <v>0.0005502593652753405</v>
-      </c>
-      <c r="BT431" s="58">
+        <v>0.0002142565184075984</v>
+      </c>
+      <c r="BT431" s="64">
         <f>STDEV(BI431:BK431,BN431:BP431)</f>
-        <v>6.317718088381016e-05</v>
-      </c>
-      <c r="BU431" s="58" t="str">
+        <v>2.459953191746044e-05</v>
+      </c>
+      <c r="BU431" s="64" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS431)-2,COLUMN(BS431))&amp;":"&amp;ADDRESS(ROW(BS431)+2,COLUMN(BS431))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS431)-2,COLUMN(BS431))&amp;":"&amp;ADDRESS(ROW(BS431)+2,COLUMN(BS431)))),""),"")</f>
         <v/>
       </c>
-      <c r="BV431" s="56">
+      <c r="BV431" s="62">
         <f>IF(ISNUMBER(AZ431),AZ431*AU431/40*AW431/AR431*1000,"")</f>
         <v>544423.8918674235</v>
       </c>
-      <c r="BW431" s="56">
+      <c r="BW431" s="62">
         <f>IF(ISNUMBER(BA431),BA431*AU431/40*AW431/AR431*1000,"")</f>
         <v>457265.7884244323</v>
       </c>
-      <c r="BX431" s="56">
+      <c r="BX431" s="62">
         <f>IF(ISNUMBER(BB431),BB431*AU431/40*AW431/AR431*1000,"")</f>
         <v>494614.2431301762</v>
       </c>
-      <c r="BY431" s="56">
+      <c r="BY431" s="62">
         <f>IF(ISNUMBER(BC431),BC431*AU431/40*AW431/AR431*1000,"")</f>
         <v>608519.2048406467</v>
       </c>
-      <c r="BZ431" s="56">
+      <c r="BZ431" s="62">
         <f>IF(ISNUMBER(BD431),BD431*AU431/40*AW431/AR431*1000,"")</f>
         <v>479527.3977269529</v>
       </c>
-      <c r="CA431" s="56">
+      <c r="CA431" s="62">
         <f>IF(ISNUMBER(BE431),BE431*AU431/40*AW431/AR431*1000,"")</f>
         <v>584222.0125638598</v>
       </c>
-      <c r="CB431" s="56">
+      <c r="CB431" s="62">
         <f>AVERAGE(BV431:CA431)</f>
         <v>528095.4230922485</v>
       </c>
-      <c r="CC431" s="56">
+      <c r="CC431" s="62">
         <f>STDEV(BV431:CA431)</f>
         <v>60632.46202437045</v>
       </c>
-      <c r="CD431" s="56" t="str">
+      <c r="CD431" s="62" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB431)-2,COLUMN(CB431))&amp;":"&amp;ADDRESS(ROW(CB431)+2,COLUMN(CB431))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB431)-2,COLUMN(CB431))&amp;":"&amp;ADDRESS(ROW(CB431)+2,COLUMN(CB431)))),""),"")</f>
         <v/>
       </c>
-      <c r="CE431" s="56">
+      <c r="CE431" s="62">
         <f>AK431</f>
-        <v>26.9402819470362</v>
-      </c>
-      <c r="CF431" s="56">
-        <f>AVERAGE(28.5840603416806,28.4548537344091)</f>
-        <v>28.51945703804485</v>
-      </c>
-      <c r="CG431" s="59">
-        <f>AVERAGE(25.6470874930719,25.6856619156021)</f>
-        <v>25.666374704337</v>
-      </c>
-      <c r="CH431" s="56">
+        <v>25.94</v>
+      </c>
+      <c r="CF431" s="62">
+        <f>AVERAGE(27.89,27.59)</f>
+        <v>27.74</v>
+      </c>
+      <c r="CG431" s="65">
+        <f>AVERAGE(24.17,24.01)</f>
+        <v>24.09</v>
+      </c>
+      <c r="CH431" s="62">
         <f>IF(AND(ISNUMBER(CE431),ISNUMBER(CG431)),CE431-CG431,"")</f>
-        <v>1.273907242699195</v>
-      </c>
-      <c r="CI431" s="56">
+        <v>1.849999999999994</v>
+      </c>
+      <c r="CI431" s="62">
         <f>IF(AND(ISNUMBER(CF431),ISNUMBER(CG431)),CF431-CG431,"")</f>
-        <v>2.853082333707846</v>
-      </c>
-      <c r="CJ431" s="56">
+        <v>3.649999999999999</v>
+      </c>
+      <c r="CJ431" s="62">
         <f>AP431/1.5*100/AY431</f>
-        <v>11928667.17842595</v>
-      </c>
-      <c r="CK431" s="56">
+        <v>30635524.55237072</v>
+      </c>
+      <c r="CK431" s="62">
         <f>CJ431*AU431/40*AW431/AR431*1000</f>
-        <v>1919441835.68052</v>
+        <v>4929562255.721972</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1" s="38">
-      <c r="A432" s="54" t="n">
+      <c r="A432" s="60" t="n">
         <v>44480</v>
       </c>
-      <c r="B432" s="54" t="n">
+      <c r="B432" s="60" t="n">
         <v>44481</v>
       </c>
       <c r="C432" t="inlineStr">
@@ -34322,12 +34350,12 @@
           <t>o.10.11.21</t>
         </is>
       </c>
-      <c r="D432" s="55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E432" s="55" t="str">
+      <c r="D432" s="61" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E432" s="61" t="str">
         <f>"PS"</f>
         <v>PS</v>
       </c>
@@ -34339,319 +34367,319 @@
         <f>IF(OR(COUNT(J432:L432)&lt;=1,COUNT(V432:X432)&lt;=1), 0, IF(AND(COUNTIFS(O432:Q432,"&gt;=4")&gt;=2, COUNTIFS(AA432:AC432,"&gt;=6")&gt;=2), 2, IF(OR(COUNTIFS(O432:Q432,"&lt;4")&gt;=2, COUNTIFS(AA432:AC432,"&lt;6")&gt;=2), 1, 1)))</f>
         <v>2</v>
       </c>
-      <c r="H432" s="56">
+      <c r="H432" s="62">
         <f>-3.726982284840926</f>
         <v>-3.726982284840926</v>
       </c>
-      <c r="I432" s="56">
+      <c r="I432" s="62">
         <f>38.48961997633373</f>
         <v>38.48961997633373</v>
       </c>
-      <c r="J432" s="56" t="n">
+      <c r="J432" s="62" t="n">
         <v>33.4207592863101</v>
       </c>
-      <c r="K432" s="56" t="n">
+      <c r="K432" s="62" t="n">
         <v>33.9623019375468</v>
       </c>
-      <c r="L432" s="56" t="n">
+      <c r="L432" s="62" t="n">
         <v>33.2768597987</v>
       </c>
-      <c r="M432" s="56">
+      <c r="M432" s="62">
         <f>AVERAGE(J432:L432)</f>
         <v>33.55330700751897</v>
       </c>
-      <c r="N432" s="56">
+      <c r="N432" s="62">
         <f>STDEV(J432:L432)</f>
         <v>0.3614338185961087</v>
       </c>
-      <c r="O432" s="56">
+      <c r="O432" s="62">
         <f>IF(ISNUMBER(J432),10^((J432-I432)/H432),IF(J432="&lt;ND&gt;",0,""))</f>
         <v>22.91100886801575</v>
       </c>
-      <c r="P432" s="56">
+      <c r="P432" s="62">
         <f>IF(ISNUMBER(K432),10^((K432-I432)/H432),IF(K432="&lt;ND&gt;",0,""))</f>
         <v>16.39611516303003</v>
       </c>
-      <c r="Q432" s="56">
+      <c r="Q432" s="62">
         <f>IF(ISNUMBER(L432),10^((L432-I432)/H432),IF(L432="&lt;ND&gt;",0,""))</f>
         <v>25.04115760844877</v>
       </c>
-      <c r="R432" s="56">
+      <c r="R432" s="62">
         <f>AVERAGE(O432:Q432)</f>
         <v>21.44942721316485</v>
       </c>
-      <c r="S432" s="56">
+      <c r="S432" s="62">
         <f>STDEV(O432:Q432)</f>
         <v>4.504037679806914</v>
       </c>
-      <c r="T432" s="56">
+      <c r="T432" s="62">
         <f>-3.3992785693842373</f>
         <v>-3.399278569384237</v>
       </c>
-      <c r="U432" s="56">
+      <c r="U432" s="62">
         <f>38.146226521223774</f>
         <v>38.14622652122377</v>
       </c>
-      <c r="V432" s="56" t="n">
+      <c r="V432" s="62" t="n">
         <v>33.32511033814</v>
       </c>
-      <c r="W432" s="56" t="n">
+      <c r="W432" s="62" t="n">
         <v>34.1664847349362</v>
       </c>
-      <c r="X432" s="56" t="n">
+      <c r="X432" s="62" t="n">
         <v>34.075479841507</v>
       </c>
-      <c r="Y432" s="56">
+      <c r="Y432" s="62">
         <f>AVERAGE(V432:X432)</f>
         <v>33.8556916381944</v>
       </c>
-      <c r="Z432" s="56">
+      <c r="Z432" s="62">
         <f>STDEV(V432:X432)</f>
         <v>0.461744366108106</v>
       </c>
-      <c r="AA432" s="56">
+      <c r="AA432" s="62">
         <f>IF(ISNUMBER(V432),10^((V432-U432)/T432),IF(V432="&lt;ND&gt;",0,""))</f>
         <v>26.19849150473947</v>
       </c>
-      <c r="AB432" s="56">
+      <c r="AB432" s="62">
         <f>IF(ISNUMBER(W432),10^((W432-U432)/T432),IF(W432="&lt;ND&gt;",0,""))</f>
         <v>14.81701458931433</v>
       </c>
-      <c r="AC432" s="56">
+      <c r="AC432" s="62">
         <f>IF(ISNUMBER(X432),10^((X432-U432)/T432),IF(X432="&lt;ND&gt;",0,""))</f>
         <v>15.7591407447618</v>
       </c>
-      <c r="AD432" s="56">
+      <c r="AD432" s="62">
         <f>AVERAGE(AA432:AC432)</f>
         <v>18.9248822796052</v>
       </c>
-      <c r="AE432" s="56">
+      <c r="AE432" s="62">
         <f>STDEV(AA432:AC432)</f>
         <v>6.316719385342626</v>
       </c>
-      <c r="AF432" s="56">
-        <f>-3.00132513791975</f>
-        <v>-3.00132513791975</v>
-      </c>
-      <c r="AG432" s="56">
-        <f>37.90652030736685</f>
-        <v>37.90652030736685</v>
-      </c>
-      <c r="AH432" s="57" t="n">
-        <v>27.5830269313148</v>
-      </c>
-      <c r="AI432" s="57" t="n">
-        <v>27.8181741635835</v>
-      </c>
-      <c r="AJ432" s="57" t="n">
-        <v>27.9635255964604</v>
-      </c>
-      <c r="AK432" s="56">
+      <c r="AF432" s="62">
+        <f>-2.9183138314316412</f>
+        <v>-2.918313831431641</v>
+      </c>
+      <c r="AG432" s="62">
+        <f>37.813562866944494</f>
+        <v>37.81356286694449</v>
+      </c>
+      <c r="AH432" s="63" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="AI432" s="63" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="AJ432" s="63" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="AK432" s="62">
         <f>AVERAGE(AH432:AJ432)</f>
-        <v>27.7882422304529</v>
-      </c>
-      <c r="AL432" s="56">
+        <v>26.43</v>
+      </c>
+      <c r="AL432" s="62">
         <f>STDEV(AH432:AJ432)</f>
-        <v>0.1920071587470023</v>
-      </c>
-      <c r="AM432" s="56">
+        <v>0.1044030650891063</v>
+      </c>
+      <c r="AM432" s="62">
         <f>IF(ISNUMBER(AH432),10^((AH432-AG432)/AF432),IF(AH432="&lt;ND&gt;",0,""))</f>
-        <v>2751.979053389574</v>
-      </c>
-      <c r="AN432" s="56">
+        <v>7237.911964408243</v>
+      </c>
+      <c r="AN432" s="62">
         <f>IF(ISNUMBER(AI432),10^((AI432-AG432)/AF432),IF(AI432="&lt;ND&gt;",0,""))</f>
-        <v>2297.721142439833</v>
-      </c>
-      <c r="AO432" s="56">
+        <v>8408.51659064723</v>
+      </c>
+      <c r="AO432" s="62">
         <f>IF(ISNUMBER(AJ432),10^((AJ432-AG432)/AF432),IF(AJ432="&lt;ND&gt;",0,""))</f>
-        <v>2055.266930904304</v>
-      </c>
-      <c r="AP432" s="56">
+        <v>8276.869596907751</v>
+      </c>
+      <c r="AP432" s="62">
         <f>AVERAGE(AM432:AO432)*10</f>
-        <v>23683.22375577904</v>
-      </c>
-      <c r="AQ432" s="56">
+        <v>79744.32717321074</v>
+      </c>
+      <c r="AQ432" s="62">
         <f>STDEV(AM432:AO432)</f>
-        <v>353.68113604622</v>
-      </c>
-      <c r="AR432" s="56">
+        <v>641.2330678806451</v>
+      </c>
+      <c r="AR432" s="62">
         <f>IF(E432="PS",40,500.0)</f>
         <v>40</v>
       </c>
-      <c r="AS432" s="56" t="n">
+      <c r="AS432" s="62" t="n">
         <v>21.58</v>
       </c>
-      <c r="AT432" s="56" t="n">
+      <c r="AT432" s="62" t="n">
         <v>27.7818</v>
       </c>
-      <c r="AU432" s="57">
+      <c r="AU432" s="63">
         <f>IF(AND(AT432&lt;&gt;"",AS432&lt;&gt;""),AT432-AS432,"")</f>
         <v>6.201800000000002</v>
       </c>
-      <c r="AV432" s="56" t="n">
+      <c r="AV432" s="62" t="n">
         <v>500</v>
       </c>
-      <c r="AW432" s="56" t="n">
+      <c r="AW432" s="62" t="n">
         <v>40</v>
       </c>
-      <c r="AX432" s="56">
+      <c r="AX432" s="62">
         <f>IF(ISERROR(DATEVALUE(A432)),3,IF(DATEVALUE(A432)&gt;=DATE(2021,6,8),3,1.5))</f>
         <v>3</v>
       </c>
-      <c r="AY432" s="56" t="n">
+      <c r="AY432" s="62" t="n">
         <v>0.2583</v>
       </c>
-      <c r="AZ432" s="57">
+      <c r="AZ432" s="63">
         <f>IF(O432&lt;&gt;"",(O432/AX432*100)/AY432,"")</f>
         <v>2956.640710803426</v>
       </c>
-      <c r="BA432" s="57">
+      <c r="BA432" s="63">
         <f>IF(P432&lt;&gt;"",(P432/AX432*100)/AY432,"")</f>
         <v>2115.900782427413</v>
       </c>
-      <c r="BB432" s="57">
+      <c r="BB432" s="63">
         <f>IF(Q432&lt;&gt;"",(Q432/AX432*100)/AY432,"")</f>
         <v>3231.534082907313</v>
       </c>
-      <c r="BC432" s="57">
+      <c r="BC432" s="63">
         <f>IF(AA432&lt;&gt;"",(AA432/AX432*100)/AY432,"")</f>
         <v>3380.886760193505</v>
       </c>
-      <c r="BD432" s="57">
+      <c r="BD432" s="63">
         <f>IF(AB432&lt;&gt;"",(AB432/AX432*100)/AY432,"")</f>
         <v>1912.119575340602</v>
       </c>
-      <c r="BE432" s="57">
+      <c r="BE432" s="63">
         <f>IF(AC432&lt;&gt;"",(AC432/AX432*100)/AY432,"")</f>
         <v>2033.699928347117</v>
       </c>
-      <c r="BF432" s="56">
+      <c r="BF432" s="62">
         <f>AVERAGE(AZ432:BE432)</f>
         <v>2605.130306669897</v>
       </c>
-      <c r="BG432" s="56">
+      <c r="BG432" s="62">
         <f>STDEV(AZ432:BE432)</f>
         <v>657.857341477671</v>
       </c>
-      <c r="BH432" s="56" t="str">
+      <c r="BH432" s="62" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BF432)-2,COLUMN(BF432))&amp;":"&amp;ADDRESS(ROW(BF432)+2,COLUMN(BF432))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BF432)-2,COLUMN(BF432))&amp;":"&amp;ADDRESS(ROW(BF432)+2,COLUMN(BF432)))),""),"")</f>
         <v/>
       </c>
-      <c r="BI432" s="58">
+      <c r="BI432" s="64">
         <f>IF(O432&lt;&gt;"",O432/(AP432),"")</f>
-        <v>0.0009673940129212831</v>
-      </c>
-      <c r="BJ432" s="58">
+        <v>0.0002873058144719347</v>
+      </c>
+      <c r="BJ432" s="64">
         <f>IF(P432&lt;&gt;"",P432/(AP432),"")</f>
-        <v>0.0006923092621218488</v>
-      </c>
-      <c r="BK432" s="58">
+        <v>0.0002056085460150214</v>
+      </c>
+      <c r="BK432" s="64">
         <f>IF(Q432&lt;&gt;"",Q432/(AP432),"")</f>
-        <v>0.001057337373774479</v>
-      </c>
-      <c r="BL432" s="58">
+        <v>0.0003140180436165381</v>
+      </c>
+      <c r="BL432" s="64">
         <f>AVERAGE(BI432:BK432)</f>
-        <v>0.0009056802162725371</v>
-      </c>
-      <c r="BM432" s="58">
+        <v>0.000268977468034498</v>
+      </c>
+      <c r="BM432" s="64">
         <f>STDEV(BI432:BK432)</f>
-        <v>0.0001901784033395312</v>
-      </c>
-      <c r="BN432" s="58">
+        <v>5.648097914255144e-05</v>
+      </c>
+      <c r="BN432" s="64">
         <f>IF(AA432&lt;&gt;"",AA432/(AP432),"")</f>
-        <v>0.001106204618716515</v>
-      </c>
-      <c r="BO432" s="58">
+        <v>0.0003285310997462472</v>
+      </c>
+      <c r="BO432" s="64">
         <f>IF(AB432&lt;&gt;"",AB432/(AP432),"")</f>
-        <v>0.0006256333488256118</v>
-      </c>
-      <c r="BP432" s="58">
+        <v>0.0001858065032905807</v>
+      </c>
+      <c r="BP432" s="64">
         <f>IF(AC432&lt;&gt;"",AC432/(AP432),"")</f>
-        <v>0.0006654136661152962</v>
-      </c>
-      <c r="BQ432" s="58">
+        <v>0.0001976208377873921</v>
+      </c>
+      <c r="BQ432" s="64">
         <f>AVERAGE(BN432:BP432)</f>
-        <v>0.0007990838778858078</v>
-      </c>
-      <c r="BR432" s="58">
+        <v>0.00023731948027474</v>
+      </c>
+      <c r="BR432" s="64">
         <f>STDEV(BN432:BP432)</f>
-        <v>0.0002667170420074783</v>
-      </c>
-      <c r="BS432" s="58">
+        <v>7.921214723678376e-05</v>
+      </c>
+      <c r="BS432" s="64">
         <f>AVERAGE(BI432:BK432,BN432:BP432)</f>
-        <v>0.0008523820470791723</v>
-      </c>
-      <c r="BT432" s="58">
+        <v>0.000253148474154619</v>
+      </c>
+      <c r="BT432" s="64">
         <f>STDEV(BI432:BK432,BN432:BP432)</f>
-        <v>0.0002152467329481086</v>
-      </c>
-      <c r="BU432" s="58" t="str">
+        <v>6.392600853020931e-05</v>
+      </c>
+      <c r="BU432" s="64" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(BS432)-2,COLUMN(BS432))&amp;":"&amp;ADDRESS(ROW(BS432)+2,COLUMN(BS432))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(BS432)-2,COLUMN(BS432))&amp;":"&amp;ADDRESS(ROW(BS432)+2,COLUMN(BS432)))),""),"")</f>
         <v/>
       </c>
-      <c r="BV432" s="56">
+      <c r="BV432" s="62">
         <f>IF(ISNUMBER(AZ432),AZ432*AU432/40*AW432/AR432*1000,"")</f>
         <v>458412.3590065173</v>
       </c>
-      <c r="BW432" s="56">
+      <c r="BW432" s="62">
         <f>IF(ISNUMBER(BA432),BA432*AU432/40*AW432/AR432*1000,"")</f>
         <v>328059.8368114584</v>
       </c>
-      <c r="BX432" s="56">
+      <c r="BX432" s="62">
         <f>IF(ISNUMBER(BB432),BB432*AU432/40*AW432/AR432*1000,"")</f>
         <v>501033.2018843645</v>
       </c>
-      <c r="BY432" s="56">
+      <c r="BY432" s="62">
         <f>IF(ISNUMBER(BC432),BC432*AU432/40*AW432/AR432*1000,"")</f>
         <v>524189.5877342022</v>
       </c>
-      <c r="BZ432" s="56">
+      <c r="BZ432" s="62">
         <f>IF(ISNUMBER(BD432),BD432*AU432/40*AW432/AR432*1000,"")</f>
         <v>296464.5795586838</v>
       </c>
-      <c r="CA432" s="56">
+      <c r="CA432" s="62">
         <f>IF(ISNUMBER(BE432),BE432*AU432/40*AW432/AR432*1000,"")</f>
         <v>315315.0053905788</v>
       </c>
-      <c r="CB432" s="56">
+      <c r="CB432" s="62">
         <f>AVERAGE(BV432:CA432)</f>
         <v>403912.4283976342</v>
       </c>
-      <c r="CC432" s="56">
+      <c r="CC432" s="62">
         <f>STDEV(BV432:CA432)</f>
         <v>101997.4915094055</v>
       </c>
-      <c r="CD432" s="56" t="str">
+      <c r="CD432" s="62" t="str">
         <f>IF(ROW()&gt;=2+1,IF(COUNT(INDIRECT(ADDRESS(ROW(CB432)-2,COLUMN(CB432))&amp;":"&amp;ADDRESS(ROW(CB432)+2,COLUMN(CB432))))=5,AVERAGE(INDIRECT(ADDRESS(ROW(CB432)-2,COLUMN(CB432))&amp;":"&amp;ADDRESS(ROW(CB432)+2,COLUMN(CB432)))),""),"")</f>
         <v/>
       </c>
-      <c r="CE432" s="56">
+      <c r="CE432" s="62">
         <f>AK432</f>
-        <v>27.7882422304529</v>
-      </c>
-      <c r="CF432" s="56">
-        <f>AVERAGE(29.5416809730035,29.6513854760812)</f>
-        <v>29.59653322454235</v>
-      </c>
-      <c r="CG432" s="59">
-        <f>AVERAGE(26.9672483824832,26.7127755716068)</f>
-        <v>26.840011977045</v>
-      </c>
-      <c r="CH432" s="56">
+        <v>26.43</v>
+      </c>
+      <c r="CF432" s="62">
+        <f>AVERAGE(28.49,28.18)</f>
+        <v>28.335</v>
+      </c>
+      <c r="CG432" s="65">
+        <f>AVERAGE(24.97,25.22)</f>
+        <v>25.095</v>
+      </c>
+      <c r="CH432" s="62">
         <f>IF(AND(ISNUMBER(CE432),ISNUMBER(CG432)),CE432-CG432,"")</f>
-        <v>0.9482302534078961</v>
-      </c>
-      <c r="CI432" s="56">
+        <v>1.334999999999997</v>
+      </c>
+      <c r="CI432" s="62">
         <f>IF(AND(ISNUMBER(CF432),ISNUMBER(CG432)),CF432-CG432,"")</f>
-        <v>2.756521247497346</v>
-      </c>
-      <c r="CJ432" s="56">
+        <v>3.240000000000002</v>
+      </c>
+      <c r="CJ432" s="62">
         <f>AP432/1.5*100/AY432</f>
-        <v>6112588.39999459</v>
-      </c>
-      <c r="CK432" s="56">
+        <v>20581836.92688366</v>
+      </c>
+      <c r="CK432" s="62">
         <f>CJ432*AU432/40*AW432/AR432*1000</f>
-        <v>947726268.4771616</v>
+        <v>3191110906.328679</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1" s="38"/>
@@ -35137,7 +35165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35163,6 +35191,11 @@
     <row r="13" ht="15" customHeight="1" s="38"/>
     <row r="14" ht="15" customHeight="1" s="38"/>
     <row r="15" ht="15" customHeight="1" s="38"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
     <row r="21" ht="15.75" customHeight="1" s="38"/>
     <row r="22" ht="15.75" customHeight="1" s="38"/>
     <row r="23" ht="15.75" customHeight="1" s="38"/>
